--- a/data/financial_statements/soci/BRK-B.xlsx
+++ b/data/financial_statements/soci/BRK-B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D Expenses</t>
   </si>
   <si>
     <t>SG&amp;A Expenses</t>
@@ -46,6 +49,9 @@
     <t>Non-operating Income/Expense</t>
   </si>
   <si>
+    <t>Income (Other)</t>
+  </si>
+  <si>
     <t>EBT</t>
   </si>
   <si>
@@ -53,9 +59,6 @@
   </si>
   <si>
     <t>Income after Tax</t>
-  </si>
-  <si>
-    <t>Share of Subsidiary Earnings</t>
   </si>
   <si>
     <t>Non-Controlling Interest</t>
@@ -482,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,121 +618,121 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>76934000000</v>
+        <v>8619000000</v>
       </c>
       <c r="C2">
-        <v>76180000000</v>
+        <v>8702000000</v>
       </c>
       <c r="D2">
-        <v>70810000000</v>
+        <v>8829000000</v>
       </c>
       <c r="E2">
-        <v>71798000000</v>
+        <v>8612000000</v>
       </c>
       <c r="F2">
-        <v>70583000000</v>
+        <v>8942000000</v>
       </c>
       <c r="G2">
-        <v>69114000000</v>
+        <v>8950000000</v>
       </c>
       <c r="H2">
-        <v>64599000000</v>
+        <v>8851000000</v>
       </c>
       <c r="I2">
-        <v>64381000000</v>
+        <v>8583000000</v>
       </c>
       <c r="J2">
-        <v>63024000000</v>
+        <v>8350000000</v>
       </c>
       <c r="K2">
-        <v>56840000000</v>
+        <v>7176000000</v>
       </c>
       <c r="L2">
-        <v>61265000000</v>
+        <v>8075000000</v>
       </c>
       <c r="M2">
-        <v>65368000000</v>
+        <v>8111000000</v>
       </c>
       <c r="N2">
-        <v>64972000000</v>
+        <v>7991000000</v>
       </c>
       <c r="O2">
-        <v>63598000000</v>
+        <v>8171000000</v>
       </c>
       <c r="P2">
-        <v>60678000000</v>
+        <v>7863000000</v>
       </c>
       <c r="Q2">
-        <v>63714000000</v>
+        <v>7945000000</v>
       </c>
       <c r="R2">
-        <v>63450000000</v>
+        <v>8152000000</v>
       </c>
       <c r="S2">
-        <v>62200000000</v>
+        <v>8390000000</v>
       </c>
       <c r="T2">
-        <v>58473000000</v>
+        <v>8278000000</v>
       </c>
       <c r="U2">
-        <v>58800000000</v>
+        <v>7990000000</v>
       </c>
       <c r="V2">
-        <v>59507000000</v>
+        <v>8172000000</v>
       </c>
       <c r="W2">
-        <v>57256000000</v>
+        <v>7810000000</v>
       </c>
       <c r="X2">
-        <v>64370000000</v>
+        <v>7685000000</v>
       </c>
       <c r="Y2">
-        <v>49854000000</v>
+        <v>7329000000</v>
       </c>
       <c r="Z2">
-        <v>58843000000</v>
+        <v>7709000000</v>
       </c>
       <c r="AA2">
-        <v>54254000000</v>
+        <v>7662000000</v>
       </c>
       <c r="AB2">
-        <v>52163000000</v>
+        <v>7409000000</v>
       </c>
       <c r="AC2">
-        <v>51942000000</v>
+        <v>7298000000</v>
       </c>
       <c r="AD2">
-        <v>58989000000</v>
+        <v>7712000000</v>
       </c>
       <c r="AE2">
-        <v>51368000000</v>
+        <v>7686000000</v>
       </c>
       <c r="AF2">
-        <v>48644000000</v>
+        <v>7578000000</v>
       </c>
       <c r="AG2">
-        <v>48285000000</v>
+        <v>7719000000</v>
       </c>
       <c r="AH2">
-        <v>51199000000</v>
+        <v>8137000000</v>
       </c>
       <c r="AI2">
-        <v>49762000000</v>
+        <v>8134000000</v>
       </c>
       <c r="AJ2">
-        <v>45453000000</v>
+        <v>7831000000</v>
       </c>
       <c r="AK2">
-        <v>47049000000</v>
+        <v>7569000000</v>
       </c>
       <c r="AL2">
-        <v>46541000000</v>
+        <v>7916000000</v>
       </c>
       <c r="AM2">
-        <v>44693000000</v>
+        <v>7752000000</v>
       </c>
       <c r="AN2">
-        <v>43867000000</v>
+        <v>7634000000</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -737,121 +740,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.09</v>
+        <v>-0.0361</v>
       </c>
       <c r="C3">
-        <v>0.1022</v>
+        <v>-0.0277</v>
       </c>
       <c r="D3">
+        <v>-0.0025</v>
+      </c>
+      <c r="E3">
+        <v>0.0034</v>
+      </c>
+      <c r="F3">
+        <v>0.0709</v>
+      </c>
+      <c r="G3">
+        <v>0.2472</v>
+      </c>
+      <c r="H3">
         <v>0.0961</v>
       </c>
-      <c r="E3">
-        <v>0.1152</v>
-      </c>
-      <c r="F3">
-        <v>0.1199</v>
-      </c>
-      <c r="G3">
-        <v>0.2159</v>
-      </c>
-      <c r="H3">
-        <v>0.0544</v>
-      </c>
       <c r="I3">
-        <v>-0.0151</v>
+        <v>0.0582</v>
       </c>
       <c r="J3">
-        <v>-0.03</v>
+        <v>0.0449</v>
       </c>
       <c r="K3">
-        <v>-0.1063</v>
+        <v>-0.1218</v>
       </c>
       <c r="L3">
-        <v>0.0097</v>
+        <v>0.027</v>
       </c>
       <c r="M3">
-        <v>0.026</v>
+        <v>0.0209</v>
       </c>
       <c r="N3">
-        <v>0.024</v>
+        <v>-0.0197</v>
       </c>
       <c r="O3">
-        <v>0.0225</v>
+        <v>-0.0261</v>
       </c>
       <c r="P3">
-        <v>0.0377</v>
+        <v>-0.0501</v>
       </c>
       <c r="Q3">
-        <v>0.08359999999999999</v>
+        <v>-0.0056</v>
       </c>
       <c r="R3">
-        <v>0.0663</v>
+        <v>-0.0024</v>
       </c>
       <c r="S3">
-        <v>0.0863</v>
+        <v>0.0743</v>
       </c>
       <c r="T3">
-        <v>-0.0916</v>
+        <v>0.0772</v>
       </c>
       <c r="U3">
-        <v>0.1794</v>
+        <v>0.0902</v>
       </c>
       <c r="V3">
-        <v>0.0113</v>
+        <v>0.0601</v>
       </c>
       <c r="W3">
-        <v>0.0553</v>
+        <v>0.0193</v>
       </c>
       <c r="X3">
-        <v>0.234</v>
+        <v>0.0373</v>
       </c>
       <c r="Y3">
-        <v>-0.0402</v>
+        <v>0.0042</v>
       </c>
       <c r="Z3">
-        <v>-0.0025</v>
+        <v>-0.0004</v>
       </c>
       <c r="AA3">
-        <v>0.0562</v>
+        <v>-0.0031</v>
       </c>
       <c r="AB3">
-        <v>0.0723</v>
+        <v>-0.0223</v>
       </c>
       <c r="AC3">
-        <v>0.0757</v>
+        <v>-0.0545</v>
       </c>
       <c r="AD3">
-        <v>0.1522</v>
+        <v>-0.0522</v>
       </c>
       <c r="AE3">
-        <v>0.0323</v>
+        <v>-0.0551</v>
       </c>
       <c r="AF3">
-        <v>0.0702</v>
+        <v>-0.0323</v>
       </c>
       <c r="AG3">
-        <v>0.0263</v>
+        <v>0.0198</v>
       </c>
       <c r="AH3">
-        <v>0.1001</v>
+        <v>0.0279</v>
       </c>
       <c r="AI3">
-        <v>0.1134</v>
+        <v>0.0493</v>
       </c>
       <c r="AJ3">
-        <v>0.0362</v>
+        <v>0.0258</v>
       </c>
       <c r="AK3">
-        <v>0.0521</v>
+        <v>0.0246</v>
       </c>
       <c r="AL3">
-        <v>0.1338</v>
+        <v>0.0559</v>
       </c>
       <c r="AM3">
-        <v>0.1595</v>
+        <v>0.0289</v>
       </c>
       <c r="AN3">
-        <v>0.1499</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -859,121 +862,121 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19961000000</v>
+        <v>4728000000</v>
       </c>
       <c r="C4">
-        <v>17363000000</v>
+        <v>5093000000</v>
       </c>
       <c r="D4">
-        <v>17422000000</v>
+        <v>4826000000</v>
       </c>
       <c r="E4">
-        <v>17637000000</v>
+        <v>4698000000</v>
       </c>
       <c r="F4">
-        <v>18746000000</v>
+        <v>4853000000</v>
       </c>
       <c r="G4">
-        <v>16699000000</v>
+        <v>4719000000</v>
       </c>
       <c r="H4">
-        <v>15458000000</v>
+        <v>4525000000</v>
       </c>
       <c r="I4">
-        <v>16529000000</v>
+        <v>4388000000</v>
       </c>
       <c r="J4">
-        <v>16206000000</v>
+        <v>4303000000</v>
       </c>
       <c r="K4">
-        <v>14540000000</v>
+        <v>3805000000</v>
       </c>
       <c r="L4">
-        <v>15286000000</v>
+        <v>4109000000</v>
       </c>
       <c r="M4">
-        <v>17663000000</v>
+        <v>4325000000</v>
       </c>
       <c r="N4">
-        <v>14742000000</v>
+        <v>4188000000</v>
       </c>
       <c r="O4">
-        <v>14403000000</v>
+        <v>4313000000</v>
       </c>
       <c r="P4">
-        <v>13834000000</v>
+        <v>4310000000</v>
       </c>
       <c r="Q4">
-        <v>15870000000</v>
+        <v>4060000000</v>
       </c>
       <c r="R4">
-        <v>13732000000</v>
+        <v>4159000000</v>
       </c>
       <c r="S4">
-        <v>12942000000</v>
+        <v>4227000000</v>
       </c>
       <c r="T4">
-        <v>12854000000</v>
+        <v>4236000000</v>
       </c>
       <c r="U4">
-        <v>13753000000</v>
+        <v>4094000000</v>
       </c>
       <c r="V4">
-        <v>15557000000</v>
+        <v>4059000000</v>
       </c>
       <c r="W4">
-        <v>12388000000</v>
+        <v>4020000000</v>
       </c>
       <c r="X4">
-        <v>22132000000</v>
+        <v>3882000000</v>
       </c>
       <c r="Y4">
-        <v>11730000000</v>
+        <v>3794000000</v>
       </c>
       <c r="Z4">
-        <v>10955000000</v>
+        <v>3847000000</v>
       </c>
       <c r="AA4">
-        <v>10289000000</v>
+        <v>3799000000</v>
       </c>
       <c r="AB4">
-        <v>10776000000</v>
+        <v>3678000000</v>
       </c>
       <c r="AC4">
-        <v>10345000000</v>
+        <v>3827000000</v>
       </c>
       <c r="AD4">
-        <v>9871000000</v>
+        <v>3877000000</v>
       </c>
       <c r="AE4">
-        <v>10448000000</v>
+        <v>3858000000</v>
       </c>
       <c r="AF4">
-        <v>8793000000</v>
+        <v>3821000000</v>
       </c>
       <c r="AG4">
-        <v>9457000000</v>
+        <v>4027000000</v>
       </c>
       <c r="AH4">
-        <v>11742000000</v>
+        <v>4205000000</v>
       </c>
       <c r="AI4">
-        <v>8685000000</v>
+        <v>4184000000</v>
       </c>
       <c r="AJ4">
-        <v>8701000000</v>
+        <v>4031000000</v>
       </c>
       <c r="AK4">
-        <v>8611000000</v>
+        <v>3976000000</v>
       </c>
       <c r="AL4">
-        <v>9007000000</v>
+        <v>4148000000</v>
       </c>
       <c r="AM4">
-        <v>7989000000</v>
+        <v>4013000000</v>
       </c>
       <c r="AN4">
-        <v>7988000000</v>
+        <v>3969000000</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -981,121 +984,121 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>56973000000</v>
+        <v>3891000000</v>
       </c>
       <c r="C5">
-        <v>58817000000</v>
+        <v>3609000000</v>
       </c>
       <c r="D5">
-        <v>53388000000</v>
+        <v>4003000000</v>
       </c>
       <c r="E5">
-        <v>54161000000</v>
+        <v>3914000000</v>
       </c>
       <c r="F5">
-        <v>51837000000</v>
+        <v>4089000000</v>
       </c>
       <c r="G5">
-        <v>52415000000</v>
+        <v>4231000000</v>
       </c>
       <c r="H5">
-        <v>49141000000</v>
+        <v>4326000000</v>
       </c>
       <c r="I5">
-        <v>47852000000</v>
+        <v>4195000000</v>
       </c>
       <c r="J5">
-        <v>46818000000</v>
+        <v>4047000000</v>
       </c>
       <c r="K5">
-        <v>42300000000</v>
+        <v>3371000000</v>
       </c>
       <c r="L5">
-        <v>45979000000</v>
+        <v>3966000000</v>
       </c>
       <c r="M5">
-        <v>47705000000</v>
+        <v>3786000000</v>
       </c>
       <c r="N5">
-        <v>50230000000</v>
+        <v>3803000000</v>
       </c>
       <c r="O5">
-        <v>49195000000</v>
+        <v>3858000000</v>
       </c>
       <c r="P5">
-        <v>46844000000</v>
+        <v>3553000000</v>
       </c>
       <c r="Q5">
-        <v>47844000000</v>
+        <v>3885000000</v>
       </c>
       <c r="R5">
-        <v>49718000000</v>
+        <v>3993000000</v>
       </c>
       <c r="S5">
-        <v>49258000000</v>
+        <v>4163000000</v>
       </c>
       <c r="T5">
-        <v>45619000000</v>
+        <v>4042000000</v>
       </c>
       <c r="U5">
-        <v>45047000000</v>
+        <v>3896000000</v>
       </c>
       <c r="V5">
-        <v>43950000000</v>
+        <v>4113000000</v>
       </c>
       <c r="W5">
-        <v>44868000000</v>
+        <v>3790000000</v>
       </c>
       <c r="X5">
-        <v>42238000000</v>
+        <v>3803000000</v>
       </c>
       <c r="Y5">
-        <v>38124000000</v>
+        <v>3535000000</v>
       </c>
       <c r="Z5">
-        <v>47888000000</v>
+        <v>3862000000</v>
       </c>
       <c r="AA5">
-        <v>43965000000</v>
+        <v>3863000000</v>
       </c>
       <c r="AB5">
-        <v>41387000000</v>
+        <v>3731000000</v>
       </c>
       <c r="AC5">
-        <v>41597000000</v>
+        <v>3471000000</v>
       </c>
       <c r="AD5">
-        <v>49118000000</v>
+        <v>3835000000</v>
       </c>
       <c r="AE5">
-        <v>40920000000</v>
+        <v>3828000000</v>
       </c>
       <c r="AF5">
-        <v>39851000000</v>
+        <v>3757000000</v>
       </c>
       <c r="AG5">
-        <v>38828000000</v>
+        <v>3692000000</v>
       </c>
       <c r="AH5">
-        <v>39457000000</v>
+        <v>3932000000</v>
       </c>
       <c r="AI5">
-        <v>41077000000</v>
+        <v>3950000000</v>
       </c>
       <c r="AJ5">
-        <v>36752000000</v>
+        <v>3800000000</v>
       </c>
       <c r="AK5">
-        <v>38438000000</v>
+        <v>3593000000</v>
       </c>
       <c r="AL5">
-        <v>37534000000</v>
+        <v>3768000000</v>
       </c>
       <c r="AM5">
-        <v>36704000000</v>
+        <v>3739000000</v>
       </c>
       <c r="AN5">
-        <v>35879000000</v>
+        <v>3665000000</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1103,121 +1106,121 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8649000000</v>
+        <v>461000000</v>
       </c>
       <c r="C6">
-        <v>8022000000</v>
+        <v>476000000</v>
       </c>
       <c r="D6">
-        <v>8176000000</v>
+        <v>480000000</v>
       </c>
       <c r="E6">
-        <v>8851000000</v>
+        <v>474000000</v>
       </c>
       <c r="F6">
-        <v>8416000000</v>
+        <v>482000000</v>
       </c>
       <c r="G6">
-        <v>8633000000</v>
+        <v>514000000</v>
       </c>
       <c r="H6">
-        <v>7420000000</v>
+        <v>524000000</v>
       </c>
       <c r="I6">
-        <v>9000000000</v>
+        <v>456000000</v>
       </c>
       <c r="J6">
-        <v>8342000000</v>
+        <v>461000000</v>
       </c>
       <c r="K6">
-        <v>7523000000</v>
+        <v>424000000</v>
       </c>
       <c r="L6">
-        <v>8064000000</v>
+        <v>537000000</v>
       </c>
       <c r="M6">
-        <v>9311000000</v>
+        <v>521000000</v>
       </c>
       <c r="N6">
-        <v>8223000000</v>
+        <v>443000000</v>
       </c>
       <c r="O6">
-        <v>8714000000</v>
+        <v>470000000</v>
       </c>
       <c r="P6">
-        <v>8414000000</v>
+        <v>477000000</v>
       </c>
       <c r="Q6">
-        <v>8629000000</v>
+        <v>437000000</v>
       </c>
       <c r="R6">
-        <v>8506000000</v>
+        <v>430000000</v>
       </c>
       <c r="S6">
-        <v>8206000000</v>
+        <v>468000000</v>
       </c>
       <c r="T6">
-        <v>8560000000</v>
+        <v>486000000</v>
       </c>
       <c r="U6">
-        <v>19677000000</v>
+        <v>448000000</v>
       </c>
       <c r="V6">
-        <v>4496000000</v>
+        <v>468000000</v>
       </c>
       <c r="W6">
-        <v>4489000000</v>
+        <v>478000000</v>
       </c>
       <c r="X6">
-        <v>4558000000</v>
+        <v>476000000</v>
       </c>
       <c r="Y6">
-        <v>18059000000</v>
+        <v>450000000</v>
       </c>
       <c r="Z6">
-        <v>4424000000</v>
+        <v>427000000</v>
       </c>
       <c r="AA6">
-        <v>4509000000</v>
+        <v>437000000</v>
       </c>
       <c r="AB6">
-        <v>4115000000</v>
+        <v>450000000</v>
       </c>
       <c r="AC6">
-        <v>3956000000</v>
+        <v>433000000</v>
       </c>
       <c r="AD6">
-        <v>4130000000</v>
+        <v>429000000</v>
       </c>
       <c r="AE6">
-        <v>3780000000</v>
+        <v>438000000</v>
       </c>
       <c r="AF6">
-        <v>3443000000</v>
+        <v>463000000</v>
       </c>
       <c r="AG6">
-        <v>3683000000</v>
+        <v>436000000</v>
       </c>
       <c r="AH6">
-        <v>3384000000</v>
+        <v>434000000</v>
       </c>
       <c r="AI6">
-        <v>3389000000</v>
+        <v>448000000</v>
       </c>
       <c r="AJ6">
-        <v>3265000000</v>
+        <v>452000000</v>
       </c>
       <c r="AK6">
-        <v>3539000000</v>
+        <v>438000000</v>
       </c>
       <c r="AL6">
-        <v>3248000000</v>
+        <v>420000000</v>
       </c>
       <c r="AM6">
-        <v>3285000000</v>
+        <v>427000000</v>
       </c>
       <c r="AN6">
-        <v>3210000000</v>
+        <v>430000000</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1225,121 +1228,121 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-2146000000</v>
+        <v>1998000000</v>
       </c>
       <c r="C7">
-        <v>-53099000000</v>
+        <v>3023000000</v>
       </c>
       <c r="D7">
-        <v>8626000000</v>
+        <v>1882000000</v>
       </c>
       <c r="E7">
-        <v>51100000000</v>
+        <v>1824000000</v>
       </c>
       <c r="F7">
-        <v>14745000000</v>
+        <v>1819000000</v>
       </c>
       <c r="G7">
-        <v>38213000000</v>
+        <v>1746000000</v>
       </c>
       <c r="H7">
-        <v>16420000000</v>
+        <v>1808000000</v>
       </c>
       <c r="I7">
-        <v>47478000000</v>
+        <v>1890000000</v>
       </c>
       <c r="J7">
-        <v>40121000000</v>
+        <v>1677000000</v>
       </c>
       <c r="K7">
-        <v>48394000000</v>
+        <v>1594000000</v>
       </c>
       <c r="L7">
-        <v>-61476000000</v>
+        <v>1768000000</v>
       </c>
       <c r="M7">
-        <v>38662000000</v>
+        <v>1940000000</v>
       </c>
       <c r="N7">
-        <v>21992000000</v>
+        <v>1455000000</v>
       </c>
       <c r="O7">
-        <v>19802000000</v>
+        <v>1686000000</v>
       </c>
       <c r="P7">
-        <v>29123000000</v>
+        <v>1948000000</v>
       </c>
       <c r="Q7">
-        <v>-27238000000</v>
+        <v>1682000000</v>
       </c>
       <c r="R7">
-        <v>24875000000</v>
+        <v>1547000000</v>
       </c>
       <c r="S7">
-        <v>16861000000</v>
+        <v>1800000000</v>
       </c>
       <c r="T7">
-        <v>-200000000</v>
+        <v>2573000000</v>
       </c>
       <c r="U7">
-        <v>8126000000</v>
+        <v>1755000000</v>
       </c>
       <c r="V7">
-        <v>6558000000</v>
+        <v>1637000000</v>
       </c>
       <c r="W7">
-        <v>7283000000</v>
+        <v>1620000000</v>
       </c>
       <c r="X7">
-        <v>6474000000</v>
+        <v>1614000000</v>
       </c>
       <c r="Y7">
-        <v>12263000000</v>
+        <v>1727000000</v>
       </c>
       <c r="Z7">
-        <v>11343000000</v>
+        <v>1531000000</v>
       </c>
       <c r="AA7">
-        <v>7893000000</v>
+        <v>1560000000</v>
       </c>
       <c r="AB7">
-        <v>7389000000</v>
+        <v>1493000000</v>
       </c>
       <c r="AC7">
-        <v>8311000000</v>
+        <v>1585000000</v>
       </c>
       <c r="AD7">
-        <v>14937000000</v>
+        <v>1530000000</v>
       </c>
       <c r="AE7">
-        <v>6813000000</v>
+        <v>1550000000</v>
       </c>
       <c r="AF7">
-        <v>8522000000</v>
+        <v>1564000000</v>
       </c>
       <c r="AG7">
-        <v>6697000000</v>
+        <v>1594000000</v>
       </c>
       <c r="AH7">
-        <v>7567000000</v>
+        <v>1597000000</v>
       </c>
       <c r="AI7">
-        <v>9740000000</v>
+        <v>1646000000</v>
       </c>
       <c r="AJ7">
-        <v>7380000000</v>
+        <v>1632000000</v>
       </c>
       <c r="AK7">
-        <v>7950000000</v>
+        <v>1576000000</v>
       </c>
       <c r="AL7">
-        <v>8084000000</v>
+        <v>1609000000</v>
       </c>
       <c r="AM7">
-        <v>7582000000</v>
+        <v>1610000000</v>
       </c>
       <c r="AN7">
-        <v>7981000000</v>
+        <v>1589000000</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1347,40 +1350,121 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1092000000</v>
+        <v>4156000000</v>
       </c>
       <c r="C8">
-        <v>1087000000</v>
+        <v>110000000</v>
       </c>
       <c r="D8">
-        <v>1034000000</v>
+        <v>1641000000</v>
       </c>
       <c r="E8">
-        <v>990000000</v>
+        <v>1616000000</v>
       </c>
       <c r="F8">
-        <v>1056000000</v>
+        <v>1788000000</v>
       </c>
       <c r="G8">
-        <v>1076000000</v>
+        <v>1971000000</v>
       </c>
       <c r="H8">
-        <v>1050000000</v>
+        <v>1994000000</v>
       </c>
       <c r="I8">
-        <v>1057000000</v>
+        <v>1849000000</v>
       </c>
       <c r="J8">
-        <v>1000000000</v>
+        <v>1909000000</v>
       </c>
       <c r="K8">
-        <v>1002000000</v>
+        <v>1740000000</v>
       </c>
       <c r="L8">
-        <v>1024000000</v>
+        <v>1663000000</v>
       </c>
       <c r="M8">
-        <v>993000000</v>
+        <v>1325000000</v>
+      </c>
+      <c r="N8">
+        <v>2011000000</v>
+      </c>
+      <c r="O8">
+        <v>1702000000</v>
+      </c>
+      <c r="P8">
+        <v>1136000000</v>
+      </c>
+      <c r="Q8">
+        <v>1783000000</v>
+      </c>
+      <c r="R8">
+        <v>2016000000</v>
+      </c>
+      <c r="S8">
+        <v>2401000000</v>
+      </c>
+      <c r="T8">
+        <v>1007000000</v>
+      </c>
+      <c r="U8">
+        <v>1789000000</v>
+      </c>
+      <c r="V8">
+        <v>2008000000</v>
+      </c>
+      <c r="W8">
+        <v>2153000000</v>
+      </c>
+      <c r="X8">
+        <v>1742000000</v>
+      </c>
+      <c r="Y8">
+        <v>1469000000</v>
+      </c>
+      <c r="Z8">
+        <v>1904000000</v>
+      </c>
+      <c r="AA8">
+        <v>1866000000</v>
+      </c>
+      <c r="AB8">
+        <v>1788000000</v>
+      </c>
+      <c r="AC8">
+        <v>1500000000</v>
+      </c>
+      <c r="AD8">
+        <v>1876000000</v>
+      </c>
+      <c r="AE8">
+        <v>1840000000</v>
+      </c>
+      <c r="AF8">
+        <v>1730000000</v>
+      </c>
+      <c r="AG8">
+        <v>1662000000</v>
+      </c>
+      <c r="AH8">
+        <v>1901000000</v>
+      </c>
+      <c r="AI8">
+        <v>1856000000</v>
+      </c>
+      <c r="AJ8">
+        <v>1716000000</v>
+      </c>
+      <c r="AK8">
+        <v>1579000000</v>
+      </c>
+      <c r="AL8">
+        <v>1739000000</v>
+      </c>
+      <c r="AM8">
+        <v>1702000000</v>
+      </c>
+      <c r="AN8">
+        <v>1646000000</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1388,121 +1472,40 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1092000000</v>
+        <v>82000000</v>
       </c>
       <c r="C9">
-        <v>1087000000</v>
+        <v>125000000</v>
       </c>
       <c r="D9">
-        <v>1034000000</v>
+        <v>136000000</v>
       </c>
       <c r="E9">
-        <v>990000000</v>
+        <v>112000000</v>
       </c>
       <c r="F9">
-        <v>1056000000</v>
+        <v>79000000</v>
       </c>
       <c r="G9">
-        <v>1076000000</v>
+        <v>125000000</v>
       </c>
       <c r="H9">
-        <v>1050000000</v>
+        <v>141000000</v>
       </c>
       <c r="I9">
-        <v>1057000000</v>
+        <v>179000000</v>
       </c>
       <c r="J9">
-        <v>1000000000</v>
+        <v>155000000</v>
       </c>
       <c r="K9">
-        <v>1002000000</v>
+        <v>124000000</v>
       </c>
       <c r="L9">
-        <v>1024000000</v>
+        <v>105000000</v>
       </c>
       <c r="M9">
-        <v>993000000</v>
-      </c>
-      <c r="N9">
-        <v>985000000</v>
-      </c>
-      <c r="O9">
-        <v>992000000</v>
-      </c>
-      <c r="P9">
-        <v>991000000</v>
-      </c>
-      <c r="Q9">
-        <v>971000000</v>
-      </c>
-      <c r="R9">
-        <v>950000000</v>
-      </c>
-      <c r="S9">
-        <v>957000000</v>
-      </c>
-      <c r="T9">
-        <v>975000000</v>
-      </c>
-      <c r="U9">
-        <v>586000000</v>
-      </c>
-      <c r="V9">
-        <v>1233000000</v>
-      </c>
-      <c r="W9">
-        <v>1500000000</v>
-      </c>
-      <c r="X9">
-        <v>1067000000</v>
-      </c>
-      <c r="Y9">
-        <v>798000000</v>
-      </c>
-      <c r="Z9">
-        <v>1043000000</v>
-      </c>
-      <c r="AA9">
-        <v>727000000</v>
-      </c>
-      <c r="AB9">
-        <v>1173000000</v>
-      </c>
-      <c r="AC9">
-        <v>808000000</v>
-      </c>
-      <c r="AD9">
-        <v>865000000</v>
-      </c>
-      <c r="AE9">
-        <v>967000000</v>
-      </c>
-      <c r="AF9">
-        <v>875000000</v>
-      </c>
-      <c r="AG9">
-        <v>830000000</v>
-      </c>
-      <c r="AH9">
-        <v>817000000</v>
-      </c>
-      <c r="AI9">
-        <v>824000000</v>
-      </c>
-      <c r="AJ9">
-        <v>782000000</v>
-      </c>
-      <c r="AK9">
-        <v>718000000</v>
-      </c>
-      <c r="AL9">
-        <v>706000000</v>
-      </c>
-      <c r="AM9">
-        <v>691000000</v>
-      </c>
-      <c r="AN9">
-        <v>686000000</v>
+        <v>135000000</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1510,121 +1513,82 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-2412000000</v>
+        <v>17000000</v>
       </c>
       <c r="C10">
-        <v>-2614000000</v>
+        <v>11000000</v>
       </c>
       <c r="D10">
-        <v>-2190000000</v>
+        <v>8000000</v>
       </c>
       <c r="E10">
-        <v>-2367000000</v>
+        <v>8000000</v>
       </c>
       <c r="F10">
-        <v>-2638000000</v>
+        <v>6000000</v>
       </c>
       <c r="G10">
-        <v>-2639000000</v>
+        <v>8000000</v>
       </c>
       <c r="H10">
-        <v>-2143000000</v>
+        <v>4000000</v>
       </c>
       <c r="I10">
-        <v>-2768000000</v>
+        <v>5000000</v>
       </c>
       <c r="J10">
-        <v>-2481000000</v>
+        <v>5000000</v>
       </c>
       <c r="K10">
-        <v>-12728000000</v>
+        <v>9000000</v>
       </c>
       <c r="L10">
-        <v>-1573000000</v>
+        <v>10000000</v>
       </c>
       <c r="M10">
-        <v>-2269000000</v>
-      </c>
-      <c r="N10">
-        <v>-2147000000</v>
-      </c>
-      <c r="O10">
-        <v>-2167000000</v>
-      </c>
-      <c r="P10">
-        <v>-1476000000</v>
-      </c>
-      <c r="Q10">
-        <v>-3000000000</v>
-      </c>
-      <c r="R10">
-        <v>-2044000000</v>
-      </c>
-      <c r="S10">
-        <v>-1763000000</v>
-      </c>
-      <c r="T10">
-        <v>-1323000000</v>
-      </c>
-      <c r="U10">
-        <v>-4403000000</v>
-      </c>
-      <c r="V10">
-        <v>-928000000</v>
-      </c>
-      <c r="W10">
-        <v>-1500000000</v>
-      </c>
-      <c r="X10">
-        <v>-786000000</v>
-      </c>
-      <c r="Y10">
-        <v>-4058000000</v>
+        <v>16000000</v>
       </c>
       <c r="Z10">
-        <v>-818000000</v>
+        <v>50000000</v>
       </c>
       <c r="AA10">
-        <v>-521000000</v>
+        <v>38000000</v>
       </c>
       <c r="AB10">
-        <v>-933000000</v>
-      </c>
-      <c r="AC10">
-        <v>-930000000</v>
+        <v>47000000</v>
       </c>
       <c r="AD10">
-        <v>-865000000</v>
+        <v>38000000</v>
       </c>
       <c r="AE10">
-        <v>-967000000</v>
+        <v>35000000</v>
       </c>
       <c r="AF10">
-        <v>-875000000</v>
+        <v>31000000</v>
       </c>
       <c r="AG10">
-        <v>-856000000</v>
+        <v>32000000</v>
       </c>
       <c r="AH10">
-        <v>-817000000</v>
+        <v>28000000</v>
       </c>
       <c r="AI10">
-        <v>-824000000</v>
+        <v>45000000</v>
       </c>
       <c r="AJ10">
-        <v>-782000000</v>
+        <v>37000000</v>
       </c>
       <c r="AK10">
-        <v>-718000000</v>
+        <v>32000000</v>
       </c>
       <c r="AL10">
-        <v>-706000000</v>
+        <v>33000000</v>
       </c>
       <c r="AM10">
-        <v>-691000000</v>
+        <v>41000000</v>
       </c>
       <c r="AN10">
-        <v>-686000000</v>
+        <v>39000000</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1632,121 +1596,121 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-4558000000</v>
+        <v>-24000000</v>
       </c>
       <c r="C11">
-        <v>-55713000000</v>
+        <v>-50000000</v>
       </c>
       <c r="D11">
-        <v>6436000000</v>
+        <v>-38000000</v>
       </c>
       <c r="E11">
-        <v>48733000000</v>
+        <v>-52000000</v>
       </c>
       <c r="F11">
-        <v>12107000000</v>
+        <v>-31000000</v>
       </c>
       <c r="G11">
-        <v>35574000000</v>
+        <v>-33000000</v>
       </c>
       <c r="H11">
-        <v>14277000000</v>
+        <v>-49000000</v>
       </c>
       <c r="I11">
-        <v>44710000000</v>
+        <v>-118000000</v>
       </c>
       <c r="J11">
-        <v>37640000000</v>
+        <v>-83000000</v>
       </c>
       <c r="K11">
-        <v>35666000000</v>
+        <v>-90000000</v>
       </c>
       <c r="L11">
-        <v>-63049000000</v>
+        <v>-75000000</v>
       </c>
       <c r="M11">
-        <v>36393000000</v>
+        <v>-182000000</v>
       </c>
       <c r="N11">
-        <v>19845000000</v>
+        <v>-45000000</v>
       </c>
       <c r="O11">
-        <v>17635000000</v>
+        <v>-256000000</v>
       </c>
       <c r="P11">
-        <v>27647000000</v>
+        <v>-48000000</v>
       </c>
       <c r="Q11">
-        <v>-30238000000</v>
+        <v>-63000000</v>
       </c>
       <c r="R11">
-        <v>22831000000</v>
+        <v>-51000000</v>
       </c>
       <c r="S11">
-        <v>15098000000</v>
+        <v>-51000000</v>
       </c>
       <c r="T11">
-        <v>-1523000000</v>
+        <v>-42000000</v>
       </c>
       <c r="U11">
-        <v>3723000000</v>
+        <v>-117000000</v>
       </c>
       <c r="V11">
-        <v>5630000000</v>
+        <v>-11000000</v>
       </c>
       <c r="W11">
-        <v>5783000000</v>
+        <v>-11000000</v>
       </c>
       <c r="X11">
-        <v>5688000000</v>
+        <v>-5000000</v>
       </c>
       <c r="Y11">
-        <v>8205000000</v>
+        <v>141000000</v>
       </c>
       <c r="Z11">
-        <v>10525000000</v>
+        <v>-42000000</v>
       </c>
       <c r="AA11">
-        <v>7372000000</v>
+        <v>-31000000</v>
       </c>
       <c r="AB11">
-        <v>6456000000</v>
+        <v>-42000000</v>
       </c>
       <c r="AC11">
-        <v>7381000000</v>
+        <v>-37000000</v>
       </c>
       <c r="AD11">
-        <v>14072000000</v>
+        <v>-31000000</v>
       </c>
       <c r="AE11">
-        <v>5846000000</v>
+        <v>-28000000</v>
       </c>
       <c r="AF11">
-        <v>7647000000</v>
+        <v>-27000000</v>
       </c>
       <c r="AG11">
-        <v>5841000000</v>
+        <v>-24000000</v>
       </c>
       <c r="AH11">
-        <v>6750000000</v>
+        <v>-21000000</v>
       </c>
       <c r="AI11">
-        <v>8916000000</v>
+        <v>-36000000</v>
       </c>
       <c r="AJ11">
-        <v>6598000000</v>
+        <v>-28000000</v>
       </c>
       <c r="AK11">
-        <v>7232000000</v>
+        <v>-21000000</v>
       </c>
       <c r="AL11">
-        <v>7378000000</v>
+        <v>-23000000</v>
       </c>
       <c r="AM11">
-        <v>6891000000</v>
+        <v>-31000000</v>
       </c>
       <c r="AN11">
-        <v>7295000000</v>
+        <v>-29000000</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1754,121 +1718,31 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1529000000</v>
+        <v>2000000</v>
       </c>
       <c r="C12">
-        <v>-12106000000</v>
+        <v>-1000000</v>
       </c>
       <c r="D12">
-        <v>1227000000</v>
+        <v>2000000</v>
       </c>
       <c r="E12">
-        <v>9055000000</v>
+        <v>3000000</v>
       </c>
       <c r="F12">
-        <v>1840000000</v>
+        <v>4000000</v>
       </c>
       <c r="G12">
-        <v>7296000000</v>
+        <v>2000000</v>
       </c>
       <c r="H12">
-        <v>2688000000</v>
+        <v>1000000</v>
       </c>
       <c r="I12">
-        <v>9273000000</v>
+        <v>-4000000</v>
       </c>
       <c r="J12">
-        <v>7517000000</v>
-      </c>
-      <c r="K12">
-        <v>9002000000</v>
-      </c>
-      <c r="L12">
-        <v>-13352000000</v>
-      </c>
-      <c r="M12">
-        <v>7571000000</v>
-      </c>
-      <c r="N12">
-        <v>3832000000</v>
-      </c>
-      <c r="O12">
-        <v>3586000000</v>
-      </c>
-      <c r="P12">
-        <v>5915000000</v>
-      </c>
-      <c r="Q12">
-        <v>-7330000000</v>
-      </c>
-      <c r="R12">
-        <v>4440000000</v>
-      </c>
-      <c r="S12">
-        <v>3021000000</v>
-      </c>
-      <c r="T12">
-        <v>-452000000</v>
-      </c>
-      <c r="U12">
-        <v>-26265000000</v>
-      </c>
-      <c r="V12">
-        <v>1427000000</v>
-      </c>
-      <c r="W12">
-        <v>1774000000</v>
-      </c>
-      <c r="X12">
-        <v>1549000000</v>
-      </c>
-      <c r="Y12">
-        <v>2959000000</v>
-      </c>
-      <c r="Z12">
-        <v>3192000000</v>
-      </c>
-      <c r="AA12">
-        <v>2290000000</v>
-      </c>
-      <c r="AB12">
-        <v>799000000</v>
-      </c>
-      <c r="AC12">
-        <v>1834000000</v>
-      </c>
-      <c r="AD12">
-        <v>4545000000</v>
-      </c>
-      <c r="AE12">
-        <v>1739000000</v>
-      </c>
-      <c r="AF12">
-        <v>2414000000</v>
-      </c>
-      <c r="AG12">
-        <v>1623000000</v>
-      </c>
-      <c r="AH12">
-        <v>2029000000</v>
-      </c>
-      <c r="AI12">
-        <v>2458000000</v>
-      </c>
-      <c r="AJ12">
-        <v>1825000000</v>
-      </c>
-      <c r="AK12">
-        <v>2169000000</v>
-      </c>
-      <c r="AL12">
-        <v>2225000000</v>
-      </c>
-      <c r="AM12">
-        <v>2279000000</v>
-      </c>
-      <c r="AN12">
-        <v>2278000000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -1876,121 +1750,121 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-3029000000</v>
+        <v>4132000000</v>
       </c>
       <c r="C13">
-        <v>-43607000000</v>
+        <v>60000000</v>
       </c>
       <c r="D13">
-        <v>5209000000</v>
+        <v>1603000000</v>
       </c>
       <c r="E13">
-        <v>39678000000</v>
+        <v>1564000000</v>
       </c>
       <c r="F13">
-        <v>10267000000</v>
+        <v>1757000000</v>
       </c>
       <c r="G13">
-        <v>28278000000</v>
+        <v>1938000000</v>
       </c>
       <c r="H13">
-        <v>11589000000</v>
+        <v>1945000000</v>
       </c>
       <c r="I13">
-        <v>35437000000</v>
+        <v>1731000000</v>
       </c>
       <c r="J13">
-        <v>30123000000</v>
+        <v>1826000000</v>
       </c>
       <c r="K13">
-        <v>26664000000</v>
+        <v>1650000000</v>
       </c>
       <c r="L13">
-        <v>-49697000000</v>
+        <v>1588000000</v>
       </c>
       <c r="M13">
-        <v>28822000000</v>
+        <v>1143000000</v>
       </c>
       <c r="N13">
-        <v>16013000000</v>
+        <v>1966000000</v>
       </c>
       <c r="O13">
-        <v>14049000000</v>
+        <v>1446000000</v>
       </c>
       <c r="P13">
-        <v>21732000000</v>
+        <v>1088000000</v>
       </c>
       <c r="Q13">
-        <v>-22908000000</v>
+        <v>1720000000</v>
       </c>
       <c r="R13">
-        <v>18391000000</v>
+        <v>1965000000</v>
       </c>
       <c r="S13">
-        <v>12077000000</v>
+        <v>2350000000</v>
       </c>
       <c r="T13">
-        <v>-1071000000</v>
+        <v>965000000</v>
       </c>
       <c r="U13">
-        <v>29988000000</v>
+        <v>1672000000</v>
       </c>
       <c r="V13">
-        <v>4203000000</v>
+        <v>1997000000</v>
       </c>
       <c r="W13">
-        <v>4009000000</v>
+        <v>2142000000</v>
       </c>
       <c r="X13">
-        <v>4139000000</v>
+        <v>1737000000</v>
       </c>
       <c r="Y13">
-        <v>5246000000</v>
+        <v>1610000000</v>
       </c>
       <c r="Z13">
-        <v>7333000000</v>
+        <v>1862000000</v>
       </c>
       <c r="AA13">
-        <v>5082000000</v>
+        <v>1835000000</v>
       </c>
       <c r="AB13">
-        <v>5657000000</v>
+        <v>1746000000</v>
       </c>
       <c r="AC13">
-        <v>5547000000</v>
+        <v>1463000000</v>
       </c>
       <c r="AD13">
-        <v>9527000000</v>
+        <v>1845000000</v>
       </c>
       <c r="AE13">
-        <v>4107000000</v>
+        <v>1812000000</v>
       </c>
       <c r="AF13">
-        <v>5233000000</v>
+        <v>1703000000</v>
       </c>
       <c r="AG13">
-        <v>4218000000</v>
+        <v>1638000000</v>
       </c>
       <c r="AH13">
-        <v>4721000000</v>
+        <v>1880000000</v>
       </c>
       <c r="AI13">
-        <v>6458000000</v>
+        <v>1820000000</v>
       </c>
       <c r="AJ13">
-        <v>4773000000</v>
+        <v>1688000000</v>
       </c>
       <c r="AK13">
-        <v>5063000000</v>
+        <v>1558000000</v>
       </c>
       <c r="AL13">
-        <v>5153000000</v>
+        <v>1716000000</v>
       </c>
       <c r="AM13">
-        <v>4612000000</v>
+        <v>1671000000</v>
       </c>
       <c r="AN13">
-        <v>5017000000</v>
+        <v>1617000000</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -1998,55 +1872,121 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>441000000</v>
+        <v>271000000</v>
       </c>
       <c r="C14">
-        <v>231000000</v>
+        <v>-23000000</v>
       </c>
       <c r="D14">
-        <v>376000000</v>
+        <v>302000000</v>
       </c>
       <c r="E14">
-        <v>220000000</v>
+        <v>227000000</v>
       </c>
       <c r="F14">
-        <v>377000000</v>
+        <v>324000000</v>
       </c>
       <c r="G14">
-        <v>147000000</v>
+        <v>415000000</v>
       </c>
       <c r="H14">
-        <v>251000000</v>
+        <v>319000000</v>
       </c>
       <c r="I14">
-        <v>693000000</v>
+        <v>321000000</v>
       </c>
       <c r="J14">
-        <v>290000000</v>
+        <v>391000000</v>
       </c>
       <c r="K14">
-        <v>-257000000</v>
+        <v>347000000</v>
+      </c>
+      <c r="L14">
+        <v>278000000</v>
       </c>
       <c r="M14">
-        <v>408000000</v>
+        <v>226000000</v>
       </c>
       <c r="N14">
-        <v>644000000</v>
+        <v>378000000</v>
       </c>
       <c r="O14">
-        <v>124000000</v>
+        <v>315000000</v>
+      </c>
+      <c r="P14">
+        <v>195000000</v>
       </c>
       <c r="Q14">
-        <v>-2483000000</v>
+        <v>371000000</v>
       </c>
       <c r="R14">
-        <v>316000000</v>
+        <v>419000000</v>
+      </c>
+      <c r="S14">
+        <v>488000000</v>
+      </c>
+      <c r="T14">
+        <v>359000000</v>
       </c>
       <c r="U14">
-        <v>2668000000</v>
+        <v>1147000000</v>
+      </c>
+      <c r="V14">
+        <v>564000000</v>
       </c>
       <c r="W14">
-        <v>346000000</v>
+        <v>557000000</v>
+      </c>
+      <c r="X14">
+        <v>411000000</v>
+      </c>
+      <c r="Y14">
+        <v>454000000</v>
+      </c>
+      <c r="Z14">
+        <v>531000000</v>
+      </c>
+      <c r="AA14">
+        <v>542000000</v>
+      </c>
+      <c r="AB14">
+        <v>468000000</v>
+      </c>
+      <c r="AC14">
+        <v>424000000</v>
+      </c>
+      <c r="AD14">
+        <v>547000000</v>
+      </c>
+      <c r="AE14">
+        <v>509000000</v>
+      </c>
+      <c r="AF14">
+        <v>502000000</v>
+      </c>
+      <c r="AG14">
+        <v>459000000</v>
+      </c>
+      <c r="AH14">
+        <v>569000000</v>
+      </c>
+      <c r="AI14">
+        <v>537000000</v>
+      </c>
+      <c r="AJ14">
+        <v>463000000</v>
+      </c>
+      <c r="AK14">
+        <v>442000000</v>
+      </c>
+      <c r="AL14">
+        <v>471000000</v>
+      </c>
+      <c r="AM14">
+        <v>458000000</v>
+      </c>
+      <c r="AN14">
+        <v>470000000</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -2054,121 +1994,121 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>100000000</v>
+        <v>3861000000</v>
       </c>
       <c r="C15">
-        <v>379000000</v>
+        <v>83000000</v>
       </c>
       <c r="D15">
-        <v>125000000</v>
+        <v>1301000000</v>
       </c>
       <c r="E15">
-        <v>252000000</v>
+        <v>1337000000</v>
       </c>
       <c r="F15">
-        <v>300000000</v>
+        <v>1433000000</v>
       </c>
       <c r="G15">
-        <v>331000000</v>
+        <v>1523000000</v>
       </c>
       <c r="H15">
-        <v>129000000</v>
+        <v>1626000000</v>
       </c>
       <c r="I15">
-        <v>295000000</v>
+        <v>1410000000</v>
       </c>
       <c r="J15">
-        <v>276000000</v>
+        <v>1435000000</v>
       </c>
       <c r="K15">
-        <v>112000000</v>
+        <v>1303000000</v>
       </c>
       <c r="L15">
-        <v>49000000</v>
+        <v>1310000000</v>
       </c>
       <c r="M15">
-        <v>71000000</v>
+        <v>917000000</v>
       </c>
       <c r="N15">
-        <v>133000000</v>
+        <v>1588000000</v>
       </c>
       <c r="O15">
-        <v>100000000</v>
+        <v>1131000000</v>
       </c>
       <c r="P15">
-        <v>71000000</v>
+        <v>893000000</v>
       </c>
       <c r="Q15">
-        <v>1000000</v>
+        <v>1349000000</v>
       </c>
       <c r="R15">
-        <v>167000000</v>
+        <v>1546000000</v>
       </c>
       <c r="S15">
-        <v>66000000</v>
+        <v>1862000000</v>
       </c>
       <c r="T15">
-        <v>67000000</v>
+        <v>606000000</v>
       </c>
       <c r="U15">
-        <v>105000000</v>
+        <v>525000000</v>
       </c>
       <c r="V15">
-        <v>136000000</v>
+        <v>1433000000</v>
       </c>
       <c r="W15">
-        <v>93000000</v>
+        <v>1585000000</v>
       </c>
       <c r="X15">
-        <v>79000000</v>
+        <v>1326000000</v>
       </c>
       <c r="Y15">
-        <v>69000000</v>
+        <v>1156000000</v>
       </c>
       <c r="Z15">
-        <v>135000000</v>
+        <v>1331000000</v>
       </c>
       <c r="AA15">
-        <v>81000000</v>
+        <v>1293000000</v>
       </c>
       <c r="AB15">
-        <v>68000000</v>
+        <v>1278000000</v>
       </c>
       <c r="AC15">
-        <v>69000000</v>
+        <v>1039000000</v>
       </c>
       <c r="AD15">
-        <v>99000000</v>
+        <v>1298000000</v>
       </c>
       <c r="AE15">
-        <v>94000000</v>
+        <v>1303000000</v>
       </c>
       <c r="AF15">
-        <v>69000000</v>
+        <v>1201000000</v>
       </c>
       <c r="AG15">
-        <v>63000000</v>
+        <v>1179000000</v>
       </c>
       <c r="AH15">
-        <v>104000000</v>
+        <v>1311000000</v>
       </c>
       <c r="AI15">
-        <v>63000000</v>
+        <v>1283000000</v>
       </c>
       <c r="AJ15">
-        <v>68000000</v>
+        <v>1225000000</v>
       </c>
       <c r="AK15">
-        <v>73000000</v>
+        <v>1116000000</v>
       </c>
       <c r="AL15">
-        <v>100000000</v>
+        <v>1245000000</v>
       </c>
       <c r="AM15">
-        <v>71000000</v>
+        <v>1213000000</v>
       </c>
       <c r="AN15">
-        <v>125000000</v>
+        <v>1147000000</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -2176,121 +2116,118 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-2688000000</v>
+        <v>4000000</v>
       </c>
       <c r="C16">
-        <v>-43755000000</v>
+        <v>4000000</v>
       </c>
       <c r="D16">
-        <v>5460000000</v>
+        <v>4000000</v>
       </c>
       <c r="E16">
-        <v>39646000000</v>
+        <v>1000000</v>
       </c>
       <c r="F16">
-        <v>10344000000</v>
+        <v>3000000</v>
       </c>
       <c r="G16">
-        <v>28094000000</v>
+        <v>1000000</v>
       </c>
       <c r="H16">
-        <v>11711000000</v>
+        <v>3000000</v>
       </c>
       <c r="I16">
-        <v>35835000000</v>
+        <v>1000000</v>
       </c>
       <c r="J16">
-        <v>30137000000</v>
+        <v>4000000</v>
       </c>
       <c r="K16">
-        <v>26295000000</v>
+        <v>-3000000</v>
       </c>
       <c r="L16">
-        <v>-49746000000</v>
+        <v>2000000</v>
       </c>
       <c r="M16">
-        <v>29159000000</v>
+        <v>1000000</v>
       </c>
       <c r="N16">
-        <v>16524000000</v>
+        <v>5000000</v>
       </c>
       <c r="O16">
-        <v>14073000000</v>
+        <v>4000000</v>
       </c>
       <c r="P16">
-        <v>21661000000</v>
+        <v>2000000</v>
       </c>
       <c r="Q16">
-        <v>-25392000000</v>
+        <v>2000000</v>
       </c>
       <c r="R16">
-        <v>18540000000</v>
+        <v>3000000</v>
       </c>
       <c r="S16">
-        <v>12011000000</v>
+        <v>5000000</v>
       </c>
       <c r="T16">
-        <v>-1138000000</v>
+        <v>4000000</v>
       </c>
       <c r="U16">
-        <v>32551000000</v>
+        <v>2000000</v>
       </c>
       <c r="V16">
-        <v>4067000000</v>
+        <v>4000000</v>
       </c>
       <c r="W16">
-        <v>4262000000</v>
+        <v>2000000</v>
       </c>
       <c r="X16">
-        <v>4060000000</v>
+        <v>3000000</v>
       </c>
       <c r="Y16">
-        <v>6286000000</v>
+        <v>1000000</v>
       </c>
       <c r="Z16">
-        <v>7198000000</v>
+        <v>2000000</v>
       </c>
       <c r="AA16">
-        <v>5001000000</v>
+        <v>2000000</v>
       </c>
       <c r="AB16">
-        <v>5589000000</v>
+        <v>3000000</v>
       </c>
       <c r="AC16">
-        <v>5478000000</v>
+        <v>1000000</v>
       </c>
       <c r="AD16">
-        <v>9428000000</v>
+        <v>2000000</v>
       </c>
       <c r="AE16">
-        <v>4013000000</v>
+        <v>3000000</v>
       </c>
       <c r="AF16">
-        <v>5164000000</v>
-      </c>
-      <c r="AG16">
-        <v>4155000000</v>
+        <v>2000000</v>
       </c>
       <c r="AH16">
-        <v>4617000000</v>
+        <v>8000000</v>
       </c>
       <c r="AI16">
-        <v>6395000000</v>
+        <v>16000000</v>
       </c>
       <c r="AJ16">
-        <v>4705000000</v>
+        <v>18000000</v>
       </c>
       <c r="AK16">
-        <v>4990000000</v>
+        <v>13000000</v>
       </c>
       <c r="AL16">
-        <v>5053000000</v>
+        <v>15000000</v>
       </c>
       <c r="AM16">
-        <v>4541000000</v>
+        <v>16000000</v>
       </c>
       <c r="AN16">
-        <v>4892000000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -2298,121 +2235,121 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-1.22</v>
+        <v>3859000000</v>
       </c>
       <c r="C17">
-        <v>-19.84</v>
+        <v>78000000</v>
       </c>
       <c r="D17">
-        <v>2.47</v>
+        <v>1299000000</v>
       </c>
       <c r="E17">
-        <v>17.79</v>
+        <v>1339000000</v>
       </c>
       <c r="F17">
-        <v>4.59</v>
+        <v>1434000000</v>
       </c>
       <c r="G17">
-        <v>12.33</v>
+        <v>1524000000</v>
       </c>
       <c r="H17">
-        <v>5.09</v>
+        <v>1624000000</v>
       </c>
       <c r="I17">
-        <v>15.34</v>
+        <v>1405000000</v>
       </c>
       <c r="J17">
-        <v>12.66</v>
+        <v>1430000000</v>
       </c>
       <c r="K17">
-        <v>10.88</v>
+        <v>1306000000</v>
       </c>
       <c r="L17">
-        <v>-20.44</v>
+        <v>1308000000</v>
       </c>
       <c r="M17">
-        <v>11.94</v>
+        <v>916000000</v>
       </c>
       <c r="N17">
-        <v>6.75</v>
+        <v>1583000000</v>
       </c>
       <c r="O17">
-        <v>5.74</v>
+        <v>1127000000</v>
       </c>
       <c r="P17">
-        <v>8.81</v>
+        <v>891000000</v>
       </c>
       <c r="Q17">
-        <v>-10.31</v>
+        <v>1347000000</v>
       </c>
       <c r="R17">
-        <v>7.52</v>
+        <v>1543000000</v>
       </c>
       <c r="S17">
-        <v>4.87</v>
+        <v>1857000000</v>
       </c>
       <c r="T17">
-        <v>-0.46</v>
+        <v>602000000</v>
       </c>
       <c r="U17">
-        <v>13.19</v>
+        <v>523000000</v>
       </c>
       <c r="V17">
-        <v>1.65</v>
+        <v>1429000000</v>
       </c>
       <c r="W17">
-        <v>1.73</v>
+        <v>1583000000</v>
       </c>
       <c r="X17">
-        <v>1.65</v>
+        <v>1323000000</v>
       </c>
       <c r="Y17">
-        <v>2.55</v>
+        <v>1155000000</v>
       </c>
       <c r="Z17">
-        <v>2.92</v>
+        <v>1329000000</v>
       </c>
       <c r="AA17">
-        <v>2.03</v>
+        <v>1291000000</v>
       </c>
       <c r="AB17">
-        <v>2.27</v>
+        <v>1275000000</v>
       </c>
       <c r="AC17">
-        <v>2.22</v>
+        <v>1038000000</v>
       </c>
       <c r="AD17">
-        <v>3.82</v>
+        <v>1296000000</v>
       </c>
       <c r="AE17">
-        <v>1.63</v>
+        <v>1300000000</v>
       </c>
       <c r="AF17">
-        <v>2.1</v>
+        <v>1199000000</v>
       </c>
       <c r="AG17">
-        <v>1.69</v>
+        <v>1179000000</v>
       </c>
       <c r="AH17">
-        <v>1.87</v>
+        <v>1303000000</v>
       </c>
       <c r="AI17">
-        <v>2.59</v>
+        <v>1267000000</v>
       </c>
       <c r="AJ17">
-        <v>1.91</v>
+        <v>1207000000</v>
       </c>
       <c r="AK17">
-        <v>2.02</v>
+        <v>1103000000</v>
       </c>
       <c r="AL17">
-        <v>2.05</v>
+        <v>1230000000</v>
       </c>
       <c r="AM17">
-        <v>1.84</v>
+        <v>1197000000</v>
       </c>
       <c r="AN17">
-        <v>1.98</v>
+        <v>1129000000</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -2420,121 +2357,121 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-1.22</v>
+        <v>6.79</v>
       </c>
       <c r="C18">
-        <v>-19.84</v>
+        <v>0.14</v>
       </c>
       <c r="D18">
+        <v>2.27</v>
+      </c>
+      <c r="E18">
+        <v>2.33</v>
+      </c>
+      <c r="F18">
         <v>2.47</v>
       </c>
-      <c r="E18">
-        <v>17.79</v>
-      </c>
-      <c r="F18">
-        <v>4.59</v>
-      </c>
       <c r="G18">
-        <v>12.33</v>
+        <v>2.62</v>
       </c>
       <c r="H18">
-        <v>5.09</v>
+        <v>2.8</v>
       </c>
       <c r="I18">
-        <v>15.34</v>
+        <v>2.4</v>
       </c>
       <c r="J18">
-        <v>12.66</v>
+        <v>2.45</v>
       </c>
       <c r="K18">
-        <v>10.88</v>
+        <v>2.24</v>
       </c>
       <c r="L18">
-        <v>-20.44</v>
+        <v>2.24</v>
       </c>
       <c r="M18">
-        <v>11.94</v>
+        <v>1.68</v>
       </c>
       <c r="N18">
-        <v>6.75</v>
+        <v>2.75</v>
       </c>
       <c r="O18">
-        <v>5.74</v>
+        <v>1.95</v>
       </c>
       <c r="P18">
-        <v>8.81</v>
+        <v>1.54</v>
       </c>
       <c r="Q18">
-        <v>-10.31</v>
+        <v>2.32</v>
       </c>
       <c r="R18">
-        <v>7.52</v>
+        <v>2.64</v>
       </c>
       <c r="S18">
-        <v>4.87</v>
+        <v>3.14</v>
       </c>
       <c r="T18">
-        <v>-0.46</v>
+        <v>1.01</v>
       </c>
       <c r="U18">
-        <v>13.19</v>
+        <v>0.88</v>
       </c>
       <c r="V18">
+        <v>2.39</v>
+      </c>
+      <c r="W18">
+        <v>2.65</v>
+      </c>
+      <c r="X18">
+        <v>2.21</v>
+      </c>
+      <c r="Y18">
+        <v>1.93</v>
+      </c>
+      <c r="Z18">
+        <v>2.2</v>
+      </c>
+      <c r="AA18">
+        <v>2.13</v>
+      </c>
+      <c r="AB18">
+        <v>2.1</v>
+      </c>
+      <c r="AC18">
+        <v>1.69</v>
+      </c>
+      <c r="AD18">
+        <v>2.09</v>
+      </c>
+      <c r="AE18">
+        <v>2.06</v>
+      </c>
+      <c r="AF18">
+        <v>1.88</v>
+      </c>
+      <c r="AG18">
+        <v>1.85</v>
+      </c>
+      <c r="AH18">
+        <v>2.02</v>
+      </c>
+      <c r="AI18">
+        <v>1.94</v>
+      </c>
+      <c r="AJ18">
+        <v>1.83</v>
+      </c>
+      <c r="AK18">
         <v>1.65</v>
       </c>
-      <c r="W18">
-        <v>1.73</v>
-      </c>
-      <c r="X18">
-        <v>1.65</v>
-      </c>
-      <c r="Y18">
-        <v>2.55</v>
-      </c>
-      <c r="Z18">
-        <v>2.92</v>
-      </c>
-      <c r="AA18">
-        <v>2.03</v>
-      </c>
-      <c r="AB18">
-        <v>2.27</v>
-      </c>
-      <c r="AC18">
-        <v>2.22</v>
-      </c>
-      <c r="AD18">
-        <v>3.82</v>
-      </c>
-      <c r="AE18">
+      <c r="AL18">
+        <v>1.81</v>
+      </c>
+      <c r="AM18">
+        <v>1.74</v>
+      </c>
+      <c r="AN18">
         <v>1.63</v>
-      </c>
-      <c r="AF18">
-        <v>2.1</v>
-      </c>
-      <c r="AG18">
-        <v>1.69</v>
-      </c>
-      <c r="AH18">
-        <v>1.87</v>
-      </c>
-      <c r="AI18">
-        <v>2.59</v>
-      </c>
-      <c r="AJ18">
-        <v>1.91</v>
-      </c>
-      <c r="AK18">
-        <v>2.02</v>
-      </c>
-      <c r="AL18">
-        <v>2.05</v>
-      </c>
-      <c r="AM18">
-        <v>1.84</v>
-      </c>
-      <c r="AN18">
-        <v>1.98</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -2542,121 +2479,121 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2201886000</v>
+        <v>6.77</v>
       </c>
       <c r="C19">
-        <v>2207336000</v>
+        <v>0.14</v>
       </c>
       <c r="D19">
-        <v>2213529000</v>
+        <v>2.26</v>
       </c>
       <c r="E19">
-        <v>2266780000</v>
+        <v>2.31</v>
       </c>
       <c r="F19">
-        <v>2256022000</v>
+        <v>2.45</v>
       </c>
       <c r="G19">
-        <v>2280883000</v>
+        <v>2.59</v>
       </c>
       <c r="H19">
-        <v>2301459000</v>
+        <v>2.77</v>
       </c>
       <c r="I19">
-        <v>2393298000</v>
+        <v>2.38</v>
       </c>
       <c r="J19">
-        <v>2381633000</v>
+        <v>2.43</v>
       </c>
       <c r="K19">
-        <v>2419252000</v>
+        <v>2.22</v>
       </c>
       <c r="L19">
-        <v>2435956000</v>
+        <v>2.22</v>
       </c>
       <c r="M19">
-        <v>2452553000</v>
+        <v>1.66</v>
       </c>
       <c r="N19">
-        <v>2451135000</v>
+        <v>2.72</v>
       </c>
       <c r="O19">
-        <v>2454077000</v>
+        <v>1.92</v>
       </c>
       <c r="P19">
-        <v>2461372000</v>
+        <v>1.51</v>
       </c>
       <c r="Q19">
-        <v>2467336000</v>
+        <v>2.27</v>
       </c>
       <c r="R19">
-        <v>2466977000</v>
+        <v>2.58</v>
       </c>
       <c r="S19">
-        <v>2469231000</v>
+        <v>3.07</v>
       </c>
       <c r="T19">
-        <v>2469082000</v>
+        <v>0.98</v>
       </c>
       <c r="U19">
-        <v>2468568000</v>
+        <v>0.85</v>
       </c>
       <c r="V19">
-        <v>1332950000</v>
+        <v>2.33</v>
       </c>
       <c r="W19">
-        <v>2468515000</v>
+        <v>2.58</v>
       </c>
       <c r="X19">
-        <v>2468281000</v>
+        <v>2.16</v>
       </c>
       <c r="Y19">
-        <v>2467383000</v>
+        <v>1.88</v>
       </c>
       <c r="Z19">
-        <v>2467513000</v>
+        <v>2.15</v>
       </c>
       <c r="AA19">
-        <v>2467261000</v>
+        <v>2.08</v>
       </c>
       <c r="AB19">
-        <v>2466874000</v>
+        <v>2.05</v>
       </c>
       <c r="AC19">
-        <v>2466417000</v>
+        <v>1.66</v>
       </c>
       <c r="AD19">
-        <v>2466617000</v>
+        <v>2.05</v>
       </c>
       <c r="AE19">
-        <v>2466269000</v>
+        <v>2.02</v>
       </c>
       <c r="AF19">
-        <v>2466069000</v>
+        <v>1.85</v>
       </c>
       <c r="AG19">
-        <v>2466827000</v>
+        <v>1.81</v>
       </c>
       <c r="AH19">
-        <v>2465479000</v>
+        <v>1.98</v>
       </c>
       <c r="AI19">
-        <v>2468199000</v>
+        <v>1.91</v>
       </c>
       <c r="AJ19">
-        <v>2467733000</v>
+        <v>1.79</v>
       </c>
       <c r="AK19">
-        <v>2468707000</v>
+        <v>1.62</v>
       </c>
       <c r="AL19">
-        <v>2467312000</v>
+        <v>1.78</v>
       </c>
       <c r="AM19">
-        <v>2467042000</v>
+        <v>1.71</v>
       </c>
       <c r="AN19">
-        <v>2466415000</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -2664,121 +2601,121 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2201886000</v>
+        <v>568800000</v>
       </c>
       <c r="C20">
-        <v>2207336000</v>
+        <v>571000000</v>
       </c>
       <c r="D20">
-        <v>2213529000</v>
+        <v>572300000</v>
       </c>
       <c r="E20">
-        <v>2266780000</v>
+        <v>579000000</v>
       </c>
       <c r="F20">
-        <v>2256022000</v>
+        <v>579600000</v>
       </c>
       <c r="G20">
-        <v>2280883000</v>
+        <v>581000000</v>
       </c>
       <c r="H20">
-        <v>2301459000</v>
+        <v>580500000</v>
       </c>
       <c r="I20">
-        <v>2393298000</v>
+        <v>577600000</v>
       </c>
       <c r="J20">
-        <v>2381633000</v>
+        <v>577800000</v>
       </c>
       <c r="K20">
-        <v>2419252000</v>
+        <v>577000000</v>
       </c>
       <c r="L20">
-        <v>2435956000</v>
+        <v>576800000</v>
       </c>
       <c r="M20">
-        <v>2452553000</v>
+        <v>577000000</v>
       </c>
       <c r="N20">
-        <v>2451135000</v>
+        <v>576500000</v>
       </c>
       <c r="O20">
-        <v>2454077000</v>
+        <v>577700000</v>
       </c>
       <c r="P20">
-        <v>2461372000</v>
+        <v>577500000</v>
       </c>
       <c r="Q20">
-        <v>2467336000</v>
+        <v>588500000</v>
       </c>
       <c r="R20">
-        <v>2466977000</v>
+        <v>585600000</v>
       </c>
       <c r="S20">
-        <v>2469231000</v>
+        <v>591400000</v>
       </c>
       <c r="T20">
-        <v>2469082000</v>
+        <v>596200000</v>
       </c>
       <c r="U20">
-        <v>2468568000</v>
+        <v>597500000</v>
       </c>
       <c r="V20">
-        <v>1332950000</v>
+        <v>597600000</v>
       </c>
       <c r="W20">
-        <v>2468515000</v>
+        <v>598100000</v>
       </c>
       <c r="X20">
-        <v>2468281000</v>
+        <v>598100000</v>
       </c>
       <c r="Y20">
-        <v>2467383000</v>
+        <v>604700000</v>
       </c>
       <c r="Z20">
-        <v>2467513000</v>
+        <v>604400000</v>
       </c>
       <c r="AA20">
-        <v>2467261000</v>
+        <v>606900000</v>
       </c>
       <c r="AB20">
-        <v>2466874000</v>
+        <v>607400000</v>
       </c>
       <c r="AC20">
-        <v>2466417000</v>
+        <v>625600000</v>
       </c>
       <c r="AD20">
-        <v>2466617000</v>
+        <v>620600000</v>
       </c>
       <c r="AE20">
-        <v>2466269000</v>
+        <v>631300000</v>
       </c>
       <c r="AF20">
-        <v>2466069000</v>
+        <v>636200000</v>
       </c>
       <c r="AG20">
-        <v>2466828000</v>
+        <v>649200000</v>
       </c>
       <c r="AH20">
-        <v>2465479000</v>
+        <v>645300000</v>
       </c>
       <c r="AI20">
-        <v>2468199000</v>
+        <v>652000000</v>
       </c>
       <c r="AJ20">
-        <v>2467732000</v>
+        <v>661500000</v>
       </c>
       <c r="AK20">
-        <v>2468707000</v>
+        <v>681900000</v>
       </c>
       <c r="AL20">
-        <v>2467312000</v>
+        <v>679800000</v>
       </c>
       <c r="AM20">
-        <v>2467042000</v>
+        <v>688200000</v>
       </c>
       <c r="AN20">
-        <v>2466415000</v>
+        <v>691100000</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -2786,121 +2723,121 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.7405</v>
+        <v>570000000</v>
       </c>
       <c r="C21">
-        <v>0.7721</v>
+        <v>572700000</v>
       </c>
       <c r="D21">
-        <v>0.754</v>
+        <v>575000000</v>
       </c>
       <c r="E21">
-        <v>0.7544</v>
+        <v>585300000</v>
       </c>
       <c r="F21">
-        <v>0.7344000000000001</v>
+        <v>586300000</v>
       </c>
       <c r="G21">
-        <v>0.7584</v>
+        <v>588600000</v>
       </c>
       <c r="H21">
-        <v>0.7607</v>
+        <v>586300000</v>
       </c>
       <c r="I21">
-        <v>0.7433</v>
+        <v>582200000</v>
       </c>
       <c r="J21">
-        <v>0.7429</v>
+        <v>582400000</v>
       </c>
       <c r="K21">
-        <v>0.7442</v>
+        <v>580800000</v>
       </c>
       <c r="L21">
-        <v>0.7504999999999999</v>
+        <v>581500000</v>
       </c>
       <c r="M21">
-        <v>0.7298</v>
+        <v>585100000</v>
       </c>
       <c r="N21">
-        <v>0.7731</v>
+        <v>583000000</v>
       </c>
       <c r="O21">
-        <v>0.7735</v>
+        <v>586100000</v>
       </c>
       <c r="P21">
-        <v>0.772</v>
+        <v>588500000</v>
       </c>
       <c r="Q21">
-        <v>0.7509</v>
+        <v>602000000</v>
       </c>
       <c r="R21">
-        <v>0.7836</v>
+        <v>598400000</v>
       </c>
       <c r="S21">
-        <v>0.7919</v>
+        <v>604200000</v>
       </c>
       <c r="T21">
-        <v>0.7802</v>
+        <v>612700000</v>
       </c>
       <c r="U21">
-        <v>0.7661</v>
+        <v>612700000</v>
       </c>
       <c r="V21">
-        <v>0.7386</v>
+        <v>612700000</v>
       </c>
       <c r="W21">
-        <v>0.7836</v>
+        <v>612800000</v>
       </c>
       <c r="X21">
-        <v>0.6562</v>
+        <v>612000000</v>
       </c>
       <c r="Y21">
-        <v>0.7647</v>
+        <v>618700000</v>
       </c>
       <c r="Z21">
-        <v>0.8138</v>
+        <v>618800000</v>
       </c>
       <c r="AA21">
-        <v>0.8104</v>
+        <v>620900000</v>
       </c>
       <c r="AB21">
-        <v>0.7934</v>
+        <v>621300000</v>
       </c>
       <c r="AC21">
-        <v>0.8008</v>
+        <v>637200000</v>
       </c>
       <c r="AD21">
-        <v>0.8327</v>
+        <v>631200000</v>
       </c>
       <c r="AE21">
-        <v>0.7966</v>
+        <v>643000000</v>
       </c>
       <c r="AF21">
-        <v>0.8192</v>
+        <v>649200000</v>
       </c>
       <c r="AG21">
-        <v>0.8041</v>
+        <v>662000000</v>
       </c>
       <c r="AH21">
-        <v>0.7707000000000001</v>
+        <v>657900000</v>
       </c>
       <c r="AI21">
-        <v>0.8255</v>
+        <v>664600000</v>
       </c>
       <c r="AJ21">
-        <v>0.8086</v>
+        <v>674500000</v>
       </c>
       <c r="AK21">
-        <v>0.8169999999999999</v>
+        <v>693600000</v>
       </c>
       <c r="AL21">
-        <v>0.8065</v>
+        <v>691800000</v>
       </c>
       <c r="AM21">
-        <v>0.8212</v>
+        <v>699100000</v>
       </c>
       <c r="AN21">
-        <v>0.8179</v>
+        <v>702100000</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -2908,121 +2845,121 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.2029</v>
+        <v>0.4514</v>
       </c>
       <c r="C22">
-        <v>-1.5755</v>
+        <v>0.4147</v>
       </c>
       <c r="D22">
-        <v>0.0939</v>
+        <v>0.4534</v>
       </c>
       <c r="E22">
-        <v>1.2762</v>
+        <v>0.4545</v>
       </c>
       <c r="F22">
-        <v>0.2786</v>
+        <v>0.4573</v>
       </c>
       <c r="G22">
-        <v>0.9493</v>
+        <v>0.4727</v>
       </c>
       <c r="H22">
-        <v>0.3424</v>
+        <v>0.4888</v>
       </c>
       <c r="I22">
-        <v>1.3487</v>
+        <v>0.4888</v>
       </c>
       <c r="J22">
-        <v>1.1377</v>
+        <v>0.4847</v>
       </c>
       <c r="K22">
-        <v>1.5566</v>
+        <v>0.4698</v>
       </c>
       <c r="L22">
-        <v>-2.1505</v>
+        <v>0.4911</v>
       </c>
       <c r="M22">
-        <v>1.0704</v>
+        <v>0.4668</v>
       </c>
       <c r="N22">
-        <v>0.5066000000000001</v>
+        <v>0.4759</v>
       </c>
       <c r="O22">
-        <v>0.4694</v>
+        <v>0.4722</v>
       </c>
       <c r="P22">
-        <v>0.8149</v>
+        <v>0.4519</v>
       </c>
       <c r="Q22">
-        <v>-0.9848</v>
+        <v>0.489</v>
       </c>
       <c r="R22">
-        <v>0.6238</v>
+        <v>0.4898</v>
       </c>
       <c r="S22">
-        <v>0.3734</v>
+        <v>0.4962</v>
       </c>
       <c r="T22">
-        <v>-0.1405</v>
+        <v>0.4883</v>
       </c>
       <c r="U22">
-        <v>0.141</v>
+        <v>0.4876</v>
       </c>
       <c r="V22">
-        <v>0.1264</v>
+        <v>0.5033</v>
       </c>
       <c r="W22">
-        <v>0.1311</v>
+        <v>0.4853</v>
       </c>
       <c r="X22">
-        <v>0.1126</v>
+        <v>0.4949</v>
       </c>
       <c r="Y22">
-        <v>0.4125</v>
+        <v>0.4823</v>
       </c>
       <c r="Z22">
-        <v>0.1928</v>
+        <v>0.501</v>
       </c>
       <c r="AA22">
-        <v>0.1455</v>
+        <v>0.5042</v>
       </c>
       <c r="AB22">
-        <v>0.1417</v>
+        <v>0.5036</v>
       </c>
       <c r="AC22">
-        <v>0.16</v>
+        <v>0.4756</v>
       </c>
       <c r="AD22">
-        <v>0.2532</v>
+        <v>0.4973</v>
       </c>
       <c r="AE22">
-        <v>0.1326</v>
+        <v>0.498</v>
       </c>
       <c r="AF22">
-        <v>0.1752</v>
+        <v>0.4958</v>
       </c>
       <c r="AG22">
-        <v>0.1387</v>
+        <v>0.4783</v>
       </c>
       <c r="AH22">
-        <v>0.1478</v>
+        <v>0.4832</v>
       </c>
       <c r="AI22">
-        <v>0.1957</v>
+        <v>0.4856</v>
       </c>
       <c r="AJ22">
-        <v>0.1624</v>
+        <v>0.4853</v>
       </c>
       <c r="AK22">
-        <v>0.169</v>
+        <v>0.4747</v>
       </c>
       <c r="AL22">
-        <v>0.1737</v>
+        <v>0.476</v>
       </c>
       <c r="AM22">
-        <v>0.1696</v>
+        <v>0.4823</v>
       </c>
       <c r="AN22">
-        <v>0.1819</v>
+        <v>0.4801</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -3030,121 +2967,121 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.0592</v>
+        <v>0.4822</v>
       </c>
       <c r="C23">
-        <v>-0.7313</v>
+        <v>0.0126</v>
       </c>
       <c r="D23">
-        <v>0.09089999999999999</v>
+        <v>0.1859</v>
       </c>
       <c r="E23">
-        <v>0.6788</v>
+        <v>0.1876</v>
       </c>
       <c r="F23">
-        <v>0.1715</v>
+        <v>0.2</v>
       </c>
       <c r="G23">
-        <v>0.5147</v>
+        <v>0.2202</v>
       </c>
       <c r="H23">
-        <v>0.221</v>
+        <v>0.2253</v>
       </c>
       <c r="I23">
-        <v>0.6945</v>
+        <v>0.2154</v>
       </c>
       <c r="J23">
-        <v>0.5972</v>
+        <v>0.2286</v>
       </c>
       <c r="K23">
-        <v>0.6274999999999999</v>
+        <v>0.2425</v>
       </c>
       <c r="L23">
-        <v>-1.0291</v>
+        <v>0.2059</v>
       </c>
       <c r="M23">
-        <v>0.5567</v>
+        <v>0.1634</v>
       </c>
       <c r="N23">
-        <v>0.3054</v>
+        <v>0.2517</v>
       </c>
       <c r="O23">
-        <v>0.2773</v>
+        <v>0.2083</v>
       </c>
       <c r="P23">
-        <v>0.4556</v>
+        <v>0.1445</v>
       </c>
       <c r="Q23">
-        <v>-0.4746</v>
+        <v>0.2244</v>
       </c>
       <c r="R23">
-        <v>0.3598</v>
+        <v>0.2473</v>
       </c>
       <c r="S23">
-        <v>0.2427</v>
+        <v>0.2862</v>
       </c>
       <c r="T23">
-        <v>-0.026</v>
+        <v>0.1216</v>
       </c>
       <c r="U23">
-        <v>0.0633</v>
+        <v>0.2239</v>
       </c>
       <c r="V23">
-        <v>0.0946</v>
+        <v>0.2457</v>
       </c>
       <c r="W23">
-        <v>0.101</v>
+        <v>0.2757</v>
       </c>
       <c r="X23">
-        <v>0.08840000000000001</v>
+        <v>0.2267</v>
       </c>
       <c r="Y23">
-        <v>0.1646</v>
+        <v>0.2004</v>
       </c>
       <c r="Z23">
-        <v>0.1789</v>
+        <v>0.247</v>
       </c>
       <c r="AA23">
-        <v>0.1359</v>
+        <v>0.2435</v>
       </c>
       <c r="AB23">
-        <v>0.1238</v>
+        <v>0.2413</v>
       </c>
       <c r="AC23">
-        <v>0.1421</v>
+        <v>0.2055</v>
       </c>
       <c r="AD23">
-        <v>0.2386</v>
+        <v>0.2433</v>
       </c>
       <c r="AE23">
-        <v>0.1138</v>
+        <v>0.2394</v>
       </c>
       <c r="AF23">
-        <v>0.1572</v>
+        <v>0.2283</v>
       </c>
       <c r="AG23">
-        <v>0.121</v>
+        <v>0.2153</v>
       </c>
       <c r="AH23">
-        <v>0.1318</v>
+        <v>0.2336</v>
       </c>
       <c r="AI23">
-        <v>0.1792</v>
+        <v>0.2282</v>
       </c>
       <c r="AJ23">
-        <v>0.1452</v>
+        <v>0.2191</v>
       </c>
       <c r="AK23">
-        <v>0.1537</v>
+        <v>0.2086</v>
       </c>
       <c r="AL23">
-        <v>0.1585</v>
+        <v>0.2197</v>
       </c>
       <c r="AM23">
-        <v>0.1542</v>
+        <v>0.2196</v>
       </c>
       <c r="AN23">
-        <v>0.1663</v>
+        <v>0.2156</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3152,121 +3089,121 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.0349</v>
+        <v>0.4794</v>
       </c>
       <c r="C24">
-        <v>-0.5744</v>
+        <v>0.0069</v>
       </c>
       <c r="D24">
-        <v>0.0771</v>
+        <v>0.1816</v>
       </c>
       <c r="E24">
-        <v>0.5522</v>
+        <v>0.1816</v>
       </c>
       <c r="F24">
-        <v>0.1466</v>
+        <v>0.1965</v>
       </c>
       <c r="G24">
-        <v>0.4065</v>
+        <v>0.2165</v>
       </c>
       <c r="H24">
-        <v>0.1813</v>
+        <v>0.2197</v>
       </c>
       <c r="I24">
-        <v>0.5566</v>
+        <v>0.2017</v>
       </c>
       <c r="J24">
-        <v>0.4782</v>
+        <v>0.2187</v>
       </c>
       <c r="K24">
-        <v>0.4626</v>
+        <v>0.2299</v>
       </c>
       <c r="L24">
-        <v>-0.8120000000000001</v>
+        <v>0.1967</v>
       </c>
       <c r="M24">
-        <v>0.4461</v>
+        <v>0.1409</v>
       </c>
       <c r="N24">
-        <v>0.2543</v>
+        <v>0.246</v>
       </c>
       <c r="O24">
-        <v>0.2213</v>
+        <v>0.177</v>
       </c>
       <c r="P24">
-        <v>0.357</v>
+        <v>0.1384</v>
       </c>
       <c r="Q24">
-        <v>-0.3985</v>
+        <v>0.2165</v>
       </c>
       <c r="R24">
-        <v>0.2922</v>
+        <v>0.241</v>
       </c>
       <c r="S24">
-        <v>0.1931</v>
+        <v>0.2801</v>
       </c>
       <c r="T24">
-        <v>-0.0195</v>
+        <v>0.1166</v>
       </c>
       <c r="U24">
-        <v>0.5536</v>
+        <v>0.2093</v>
       </c>
       <c r="V24">
-        <v>0.0683</v>
+        <v>0.2444</v>
       </c>
       <c r="W24">
-        <v>0.07439999999999999</v>
+        <v>0.2743</v>
       </c>
       <c r="X24">
-        <v>0.0631</v>
+        <v>0.226</v>
       </c>
       <c r="Y24">
-        <v>0.1261</v>
+        <v>0.2197</v>
       </c>
       <c r="Z24">
-        <v>0.1223</v>
+        <v>0.2415</v>
       </c>
       <c r="AA24">
-        <v>0.0922</v>
+        <v>0.2395</v>
       </c>
       <c r="AB24">
-        <v>0.1071</v>
+        <v>0.2357</v>
       </c>
       <c r="AC24">
-        <v>0.1055</v>
+        <v>0.2005</v>
       </c>
       <c r="AD24">
-        <v>0.1598</v>
+        <v>0.2392</v>
       </c>
       <c r="AE24">
-        <v>0.0781</v>
+        <v>0.2358</v>
       </c>
       <c r="AF24">
-        <v>0.1062</v>
+        <v>0.2247</v>
       </c>
       <c r="AG24">
-        <v>0.0861</v>
+        <v>0.2122</v>
       </c>
       <c r="AH24">
-        <v>0.0902</v>
+        <v>0.231</v>
       </c>
       <c r="AI24">
-        <v>0.1285</v>
+        <v>0.2238</v>
       </c>
       <c r="AJ24">
-        <v>0.1035</v>
+        <v>0.2156</v>
       </c>
       <c r="AK24">
-        <v>0.1061</v>
+        <v>0.2058</v>
       </c>
       <c r="AL24">
-        <v>0.1086</v>
+        <v>0.2168</v>
       </c>
       <c r="AM24">
-        <v>0.1016</v>
+        <v>0.2156</v>
       </c>
       <c r="AN24">
-        <v>0.1115</v>
+        <v>0.2118</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -3274,121 +3211,121 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-12883000000</v>
+        <v>0.4477</v>
       </c>
       <c r="C25">
-        <v>-117308000000</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D25">
-        <v>9351000000</v>
+        <v>0.1471</v>
       </c>
       <c r="E25">
-        <v>94332000000</v>
+        <v>0.1555</v>
       </c>
       <c r="F25">
-        <v>22334000000</v>
+        <v>0.1604</v>
       </c>
       <c r="G25">
-        <v>68279000000</v>
+        <v>0.1703</v>
       </c>
       <c r="H25">
-        <v>24793000000</v>
+        <v>0.1835</v>
       </c>
       <c r="I25">
-        <v>89736000000</v>
+        <v>0.1637</v>
       </c>
       <c r="J25">
-        <v>74286000000</v>
+        <v>0.1713</v>
       </c>
       <c r="K25">
-        <v>91003000000</v>
+        <v>0.182</v>
       </c>
       <c r="L25">
-        <v>-129166000000</v>
+        <v>0.162</v>
       </c>
       <c r="M25">
-        <v>72630000000</v>
+        <v>0.1129</v>
       </c>
       <c r="N25">
-        <v>35452000000</v>
+        <v>0.1981</v>
       </c>
       <c r="O25">
-        <v>32306000000</v>
+        <v>0.1379</v>
       </c>
       <c r="P25">
-        <v>51862000000</v>
+        <v>0.1133</v>
       </c>
       <c r="Q25">
-        <v>-60136000000</v>
+        <v>0.1695</v>
       </c>
       <c r="R25">
-        <v>41976000000</v>
+        <v>0.1893</v>
       </c>
       <c r="S25">
-        <v>25610000000</v>
+        <v>0.2213</v>
       </c>
       <c r="T25">
-        <v>-5828000000</v>
+        <v>0.0727</v>
       </c>
       <c r="U25">
-        <v>10642000000</v>
+        <v>0.0655</v>
       </c>
       <c r="V25">
-        <v>9819000000</v>
+        <v>0.1749</v>
       </c>
       <c r="W25">
-        <v>9804000000</v>
+        <v>0.2027</v>
       </c>
       <c r="X25">
-        <v>9492000000</v>
+        <v>0.1722</v>
       </c>
       <c r="Y25">
-        <v>14559000000</v>
+        <v>0.1576</v>
       </c>
       <c r="Z25">
-        <v>13589000000</v>
+        <v>0.1724</v>
       </c>
       <c r="AA25">
-        <v>10127000000</v>
+        <v>0.1685</v>
       </c>
       <c r="AB25">
-        <v>9514000000</v>
+        <v>0.1721</v>
       </c>
       <c r="AC25">
-        <v>10289000000</v>
+        <v>0.1422</v>
       </c>
       <c r="AD25">
-        <v>16926000000</v>
+        <v>0.168</v>
       </c>
       <c r="AE25">
-        <v>8754000000</v>
+        <v>0.1691</v>
       </c>
       <c r="AF25">
-        <v>10393000000</v>
+        <v>0.1582</v>
       </c>
       <c r="AG25">
-        <v>8631000000</v>
+        <v>0.1527</v>
       </c>
       <c r="AH25">
-        <v>9421000000</v>
+        <v>0.1601</v>
       </c>
       <c r="AI25">
-        <v>11550000000</v>
+        <v>0.1558</v>
       </c>
       <c r="AJ25">
-        <v>9152000000</v>
+        <v>0.1541</v>
       </c>
       <c r="AK25">
-        <v>9625000000</v>
+        <v>0.1457</v>
       </c>
       <c r="AL25">
-        <v>9700000000</v>
+        <v>0.1554</v>
       </c>
       <c r="AM25">
-        <v>9198000000</v>
+        <v>0.1544</v>
       </c>
       <c r="AN25">
-        <v>9582000000</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -3396,121 +3333,121 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-15611000000</v>
+        <v>4606000000</v>
       </c>
       <c r="C26">
-        <v>-120018000000</v>
+        <v>572000000</v>
       </c>
       <c r="D26">
-        <v>6648000000</v>
+        <v>2100000000</v>
       </c>
       <c r="E26">
-        <v>91627000000</v>
+        <v>2123000000</v>
       </c>
       <c r="F26">
-        <v>19666000000</v>
+        <v>2264000000</v>
       </c>
       <c r="G26">
-        <v>65607000000</v>
+        <v>2443000000</v>
       </c>
       <c r="H26">
-        <v>22120000000</v>
+        <v>2454000000</v>
       </c>
       <c r="I26">
-        <v>86832000000</v>
+        <v>2347000000</v>
       </c>
       <c r="J26">
-        <v>71703000000</v>
+        <v>2390000000</v>
       </c>
       <c r="K26">
-        <v>88479000000</v>
+        <v>2232000000</v>
       </c>
       <c r="L26">
-        <v>-131751000000</v>
+        <v>2103000000</v>
       </c>
       <c r="M26">
-        <v>69973000000</v>
+        <v>1788000000</v>
       </c>
       <c r="N26">
-        <v>32918000000</v>
+        <v>2390000000</v>
       </c>
       <c r="O26">
-        <v>29850000000</v>
+        <v>2078000000</v>
       </c>
       <c r="P26">
-        <v>49445000000</v>
+        <v>1511000000</v>
       </c>
       <c r="Q26">
-        <v>-62746000000</v>
+        <v>2154000000</v>
       </c>
       <c r="R26">
-        <v>39581000000</v>
+        <v>2371000000</v>
       </c>
       <c r="S26">
-        <v>23223000000</v>
+        <v>2781000000</v>
       </c>
       <c r="T26">
-        <v>-8215000000</v>
+        <v>1389000000</v>
       </c>
       <c r="U26">
-        <v>8289000000</v>
+        <v>2138000000</v>
       </c>
       <c r="V26">
-        <v>7523000000</v>
+        <v>2385000000</v>
       </c>
       <c r="W26">
-        <v>7508000000</v>
+        <v>2533000000</v>
       </c>
       <c r="X26">
-        <v>7249000000</v>
+        <v>2180000000</v>
       </c>
       <c r="Y26">
-        <v>20567000000</v>
+        <v>1853000000</v>
       </c>
       <c r="Z26">
-        <v>11343000000</v>
+        <v>2272000000</v>
       </c>
       <c r="AA26">
-        <v>7893000000</v>
+        <v>2232000000</v>
       </c>
       <c r="AB26">
-        <v>7389000000</v>
+        <v>2144000000</v>
       </c>
       <c r="AC26">
-        <v>8311000000</v>
+        <v>1897000000</v>
       </c>
       <c r="AD26">
-        <v>14937000000</v>
+        <v>2231000000</v>
       </c>
       <c r="AE26">
-        <v>6813000000</v>
+        <v>2184000000</v>
       </c>
       <c r="AF26">
-        <v>8522000000</v>
+        <v>2069000000</v>
       </c>
       <c r="AG26">
-        <v>6697000000</v>
+        <v>2012000000</v>
       </c>
       <c r="AH26">
-        <v>7567000000</v>
+        <v>2251000000</v>
       </c>
       <c r="AI26">
-        <v>9740000000</v>
+        <v>2214000000</v>
       </c>
       <c r="AJ26">
-        <v>7380000000</v>
+        <v>2066000000</v>
       </c>
       <c r="AK26">
-        <v>7950000000</v>
+        <v>1936000000</v>
       </c>
       <c r="AL26">
-        <v>8084000000</v>
+        <v>2082000000</v>
       </c>
       <c r="AM26">
-        <v>7582000000</v>
+        <v>2037000000</v>
       </c>
       <c r="AN26">
-        <v>7981000000</v>
+        <v>1982000000</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -3518,121 +3455,121 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-2588000000</v>
+        <v>4156000000</v>
       </c>
       <c r="C27">
-        <v>-43376000000</v>
+        <v>110000000</v>
       </c>
       <c r="D27">
-        <v>5585000000</v>
+        <v>1641000000</v>
       </c>
       <c r="E27">
-        <v>39898000000</v>
+        <v>1616000000</v>
       </c>
       <c r="F27">
-        <v>10644000000</v>
+        <v>1788000000</v>
       </c>
       <c r="G27">
-        <v>28425000000</v>
+        <v>1971000000</v>
       </c>
       <c r="H27">
-        <v>11840000000</v>
+        <v>1994000000</v>
       </c>
       <c r="I27">
-        <v>36130000000</v>
+        <v>1849000000</v>
       </c>
       <c r="J27">
-        <v>30413000000</v>
+        <v>1909000000</v>
       </c>
       <c r="K27">
-        <v>26407000000</v>
+        <v>1740000000</v>
       </c>
       <c r="L27">
-        <v>-49697000000</v>
+        <v>1663000000</v>
       </c>
       <c r="M27">
-        <v>29230000000</v>
+        <v>1325000000</v>
       </c>
       <c r="N27">
-        <v>16657000000</v>
+        <v>2011000000</v>
       </c>
       <c r="O27">
-        <v>14173000000</v>
+        <v>1702000000</v>
       </c>
       <c r="P27">
-        <v>21732000000</v>
+        <v>1136000000</v>
       </c>
       <c r="Q27">
-        <v>-25391000000</v>
+        <v>1783000000</v>
       </c>
       <c r="R27">
-        <v>18707000000</v>
+        <v>2016000000</v>
       </c>
       <c r="S27">
-        <v>12077000000</v>
+        <v>2401000000</v>
       </c>
       <c r="T27">
-        <v>-1071000000</v>
+        <v>1007000000</v>
       </c>
       <c r="U27">
-        <v>32656000000</v>
+        <v>1789000000</v>
       </c>
       <c r="V27">
-        <v>4203000000</v>
+        <v>2008000000</v>
       </c>
       <c r="W27">
-        <v>4355000000</v>
+        <v>2153000000</v>
       </c>
       <c r="X27">
-        <v>4139000000</v>
+        <v>1742000000</v>
       </c>
       <c r="Y27">
-        <v>6355000000</v>
+        <v>1469000000</v>
       </c>
       <c r="Z27">
-        <v>7333000000</v>
+        <v>1904000000</v>
       </c>
       <c r="AA27">
-        <v>5082000000</v>
+        <v>1866000000</v>
       </c>
       <c r="AB27">
-        <v>5657000000</v>
+        <v>1788000000</v>
       </c>
       <c r="AC27">
-        <v>5547000000</v>
+        <v>1500000000</v>
       </c>
       <c r="AD27">
-        <v>9527000000</v>
+        <v>1876000000</v>
       </c>
       <c r="AE27">
-        <v>4107000000</v>
+        <v>1840000000</v>
       </c>
       <c r="AF27">
-        <v>5233000000</v>
+        <v>1730000000</v>
       </c>
       <c r="AG27">
-        <v>4218000000</v>
+        <v>1662000000</v>
       </c>
       <c r="AH27">
-        <v>4721000000</v>
+        <v>1901000000</v>
       </c>
       <c r="AI27">
-        <v>6458000000</v>
+        <v>1856000000</v>
       </c>
       <c r="AJ27">
-        <v>4773000000</v>
+        <v>1716000000</v>
       </c>
       <c r="AK27">
-        <v>5063000000</v>
+        <v>1579000000</v>
       </c>
       <c r="AL27">
-        <v>5153000000</v>
+        <v>1739000000</v>
       </c>
       <c r="AM27">
-        <v>4612000000</v>
+        <v>1702000000</v>
       </c>
       <c r="AN27">
-        <v>5017000000</v>
+        <v>1646000000</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -3640,121 +3577,121 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-2588000000</v>
+        <v>3863000000</v>
       </c>
       <c r="C28">
-        <v>-43376000000</v>
+        <v>82000000</v>
       </c>
       <c r="D28">
-        <v>5585000000</v>
+        <v>1303000000</v>
       </c>
       <c r="E28">
-        <v>39898000000</v>
+        <v>1340000000</v>
       </c>
       <c r="F28">
-        <v>10644000000</v>
+        <v>1437000000</v>
       </c>
       <c r="G28">
-        <v>28425000000</v>
+        <v>1525000000</v>
       </c>
       <c r="H28">
-        <v>11840000000</v>
+        <v>1627000000</v>
       </c>
       <c r="I28">
-        <v>36130000000</v>
+        <v>1406000000</v>
       </c>
       <c r="J28">
-        <v>30413000000</v>
+        <v>1434000000</v>
       </c>
       <c r="K28">
-        <v>26407000000</v>
+        <v>1303000000</v>
       </c>
       <c r="L28">
-        <v>-49697000000</v>
+        <v>1310000000</v>
       </c>
       <c r="M28">
-        <v>29230000000</v>
+        <v>917000000</v>
       </c>
       <c r="N28">
-        <v>16657000000</v>
+        <v>1588000000</v>
       </c>
       <c r="O28">
-        <v>14173000000</v>
+        <v>1131000000</v>
       </c>
       <c r="P28">
-        <v>21732000000</v>
+        <v>893000000</v>
       </c>
       <c r="Q28">
-        <v>-25391000000</v>
+        <v>1349000000</v>
       </c>
       <c r="R28">
-        <v>18707000000</v>
+        <v>1546000000</v>
       </c>
       <c r="S28">
-        <v>12077000000</v>
+        <v>1862000000</v>
       </c>
       <c r="T28">
-        <v>-1071000000</v>
+        <v>606000000</v>
       </c>
       <c r="U28">
-        <v>32656000000</v>
+        <v>525000000</v>
       </c>
       <c r="V28">
-        <v>4203000000</v>
+        <v>1433000000</v>
       </c>
       <c r="W28">
-        <v>4355000000</v>
+        <v>1585000000</v>
       </c>
       <c r="X28">
-        <v>4139000000</v>
+        <v>1326000000</v>
       </c>
       <c r="Y28">
-        <v>6355000000</v>
+        <v>1156000000</v>
       </c>
       <c r="Z28">
-        <v>7333000000</v>
+        <v>1331000000</v>
       </c>
       <c r="AA28">
-        <v>5082000000</v>
+        <v>1293000000</v>
       </c>
       <c r="AB28">
-        <v>5657000000</v>
+        <v>1278000000</v>
       </c>
       <c r="AC28">
-        <v>5547000000</v>
+        <v>1039000000</v>
       </c>
       <c r="AD28">
-        <v>9527000000</v>
+        <v>1298000000</v>
       </c>
       <c r="AE28">
-        <v>4107000000</v>
+        <v>1303000000</v>
       </c>
       <c r="AF28">
-        <v>5233000000</v>
+        <v>1201000000</v>
       </c>
       <c r="AG28">
-        <v>4218000000</v>
+        <v>1179000000</v>
       </c>
       <c r="AH28">
-        <v>4721000000</v>
+        <v>1311000000</v>
       </c>
       <c r="AI28">
-        <v>6458000000</v>
+        <v>1283000000</v>
       </c>
       <c r="AJ28">
-        <v>4773000000</v>
+        <v>1225000000</v>
       </c>
       <c r="AK28">
-        <v>5063000000</v>
+        <v>1116000000</v>
       </c>
       <c r="AL28">
-        <v>5153000000</v>
+        <v>1245000000</v>
       </c>
       <c r="AM28">
-        <v>4612000000</v>
+        <v>1213000000</v>
       </c>
       <c r="AN28">
-        <v>5017000000</v>
+        <v>1147000000</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -3762,121 +3699,121 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.1754</v>
+        <v>3863000000</v>
       </c>
       <c r="C29">
-        <v>-19.6508</v>
+        <v>82000000</v>
       </c>
       <c r="D29">
-        <v>2.5231</v>
+        <v>1303000000</v>
       </c>
       <c r="E29">
-        <v>17.735</v>
+        <v>1340000000</v>
       </c>
       <c r="F29">
-        <v>4.718</v>
+        <v>1437000000</v>
       </c>
       <c r="G29">
-        <v>12.4623</v>
+        <v>1525000000</v>
       </c>
       <c r="H29">
-        <v>5.1446</v>
+        <v>1627000000</v>
       </c>
       <c r="I29">
-        <v>14.7888</v>
+        <v>1406000000</v>
       </c>
       <c r="J29">
-        <v>12.7698</v>
+        <v>1434000000</v>
       </c>
       <c r="K29">
-        <v>10.9154</v>
+        <v>1303000000</v>
       </c>
       <c r="L29">
-        <v>-20.4014</v>
+        <v>1310000000</v>
       </c>
       <c r="M29">
-        <v>11.9496</v>
+        <v>917000000</v>
       </c>
       <c r="N29">
-        <v>6.7956</v>
+        <v>1588000000</v>
       </c>
       <c r="O29">
-        <v>5.7753</v>
+        <v>1131000000</v>
       </c>
       <c r="P29">
-        <v>8.8292</v>
+        <v>893000000</v>
       </c>
       <c r="Q29">
-        <v>-10.2885</v>
+        <v>1349000000</v>
       </c>
       <c r="R29">
-        <v>7.583</v>
+        <v>1546000000</v>
       </c>
       <c r="S29">
-        <v>4.891</v>
+        <v>1862000000</v>
       </c>
       <c r="T29">
-        <v>-0.4338</v>
+        <v>606000000</v>
       </c>
       <c r="U29">
-        <v>11.7779</v>
+        <v>525000000</v>
       </c>
       <c r="V29">
-        <v>3.1532</v>
+        <v>1433000000</v>
       </c>
       <c r="W29">
-        <v>1.7642</v>
+        <v>1585000000</v>
       </c>
       <c r="X29">
-        <v>1.6769</v>
+        <v>1326000000</v>
       </c>
       <c r="Y29">
-        <v>2.5752</v>
+        <v>1156000000</v>
       </c>
       <c r="Z29">
-        <v>2.9718</v>
+        <v>1331000000</v>
       </c>
       <c r="AA29">
-        <v>2.0598</v>
+        <v>1293000000</v>
       </c>
       <c r="AB29">
-        <v>2.2932</v>
+        <v>1278000000</v>
       </c>
       <c r="AC29">
-        <v>2.2489</v>
+        <v>1039000000</v>
       </c>
       <c r="AD29">
-        <v>3.8624</v>
+        <v>1298000000</v>
       </c>
       <c r="AE29">
-        <v>1.6653</v>
+        <v>1303000000</v>
       </c>
       <c r="AF29">
-        <v>2.122</v>
+        <v>1201000000</v>
       </c>
       <c r="AG29">
-        <v>1.711</v>
+        <v>1179000000</v>
       </c>
       <c r="AH29">
-        <v>1.9148</v>
+        <v>1311000000</v>
       </c>
       <c r="AI29">
-        <v>2.6165</v>
+        <v>1283000000</v>
       </c>
       <c r="AJ29">
-        <v>1.9342</v>
+        <v>1225000000</v>
       </c>
       <c r="AK29">
-        <v>2.0465</v>
+        <v>1116000000</v>
       </c>
       <c r="AL29">
-        <v>2.0885</v>
+        <v>1245000000</v>
       </c>
       <c r="AM29">
-        <v>1.8694</v>
+        <v>1213000000</v>
       </c>
       <c r="AN29">
-        <v>2.0341</v>
+        <v>1147000000</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -3884,121 +3821,121 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.1754</v>
+        <v>6.7915</v>
       </c>
       <c r="C30">
-        <v>-19.6508</v>
+        <v>0.1436</v>
       </c>
       <c r="D30">
-        <v>2.5231</v>
+        <v>2.2768</v>
       </c>
       <c r="E30">
-        <v>17.735</v>
+        <v>2.3332</v>
       </c>
       <c r="F30">
-        <v>4.718</v>
+        <v>2.4793</v>
       </c>
       <c r="G30">
-        <v>12.4623</v>
+        <v>2.6248</v>
       </c>
       <c r="H30">
-        <v>5.1446</v>
+        <v>2.8028</v>
       </c>
       <c r="I30">
-        <v>14.7888</v>
+        <v>2.4296</v>
       </c>
       <c r="J30">
-        <v>12.7698</v>
+        <v>2.4818</v>
       </c>
       <c r="K30">
-        <v>10.9154</v>
+        <v>2.2582</v>
       </c>
       <c r="L30">
-        <v>-20.4014</v>
+        <v>2.2712</v>
       </c>
       <c r="M30">
-        <v>11.9496</v>
+        <v>1.5906</v>
       </c>
       <c r="N30">
-        <v>6.7956</v>
+        <v>2.7546</v>
       </c>
       <c r="O30">
-        <v>5.7753</v>
+        <v>1.9578</v>
       </c>
       <c r="P30">
-        <v>8.8292</v>
+        <v>1.5463</v>
       </c>
       <c r="Q30">
-        <v>-10.2885</v>
+        <v>2.3081</v>
       </c>
       <c r="R30">
-        <v>7.583</v>
+        <v>2.64</v>
       </c>
       <c r="S30">
-        <v>4.891</v>
+        <v>3.1485</v>
       </c>
       <c r="T30">
-        <v>-0.4338</v>
+        <v>1.0164</v>
       </c>
       <c r="U30">
-        <v>11.7779</v>
+        <v>0.8839</v>
       </c>
       <c r="V30">
-        <v>3.1532</v>
+        <v>2.3979</v>
       </c>
       <c r="W30">
-        <v>1.7642</v>
+        <v>2.6501</v>
       </c>
       <c r="X30">
-        <v>1.6769</v>
+        <v>2.217</v>
       </c>
       <c r="Y30">
-        <v>2.5752</v>
+        <v>1.9277</v>
       </c>
       <c r="Z30">
-        <v>2.9718</v>
+        <v>2.2022</v>
       </c>
       <c r="AA30">
-        <v>2.0598</v>
+        <v>2.1305</v>
       </c>
       <c r="AB30">
-        <v>2.2932</v>
+        <v>2.1041</v>
       </c>
       <c r="AC30">
-        <v>2.2489</v>
+        <v>1.6949</v>
       </c>
       <c r="AD30">
-        <v>3.8624</v>
+        <v>2.0915</v>
       </c>
       <c r="AE30">
-        <v>1.6653</v>
+        <v>2.064</v>
       </c>
       <c r="AF30">
-        <v>2.122</v>
+        <v>1.8878</v>
       </c>
       <c r="AG30">
-        <v>1.711</v>
+        <v>1.8474</v>
       </c>
       <c r="AH30">
-        <v>1.9148</v>
+        <v>2.0316</v>
       </c>
       <c r="AI30">
-        <v>2.6165</v>
+        <v>1.9678</v>
       </c>
       <c r="AJ30">
-        <v>1.9342</v>
+        <v>1.8519</v>
       </c>
       <c r="AK30">
-        <v>2.0465</v>
+        <v>1.6696</v>
       </c>
       <c r="AL30">
-        <v>2.0885</v>
+        <v>1.8314</v>
       </c>
       <c r="AM30">
-        <v>1.8694</v>
+        <v>1.7626</v>
       </c>
       <c r="AN30">
-        <v>2.0341</v>
+        <v>1.6597</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -4006,121 +3943,121 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-1.1754</v>
+        <v>6.7772</v>
       </c>
       <c r="C31">
-        <v>-19.6508</v>
+        <v>0.1432</v>
       </c>
       <c r="D31">
-        <v>2.5231</v>
+        <v>2.2661</v>
       </c>
       <c r="E31">
-        <v>17.735</v>
+        <v>2.313</v>
       </c>
       <c r="F31">
-        <v>4.718</v>
+        <v>2.451</v>
       </c>
       <c r="G31">
-        <v>12.4623</v>
+        <v>2.5909</v>
       </c>
       <c r="H31">
-        <v>5.1446</v>
+        <v>2.775</v>
       </c>
       <c r="I31">
-        <v>14.7888</v>
+        <v>2.4077</v>
       </c>
       <c r="J31">
-        <v>12.7698</v>
+        <v>2.4622</v>
       </c>
       <c r="K31">
-        <v>10.9154</v>
+        <v>2.2435</v>
       </c>
       <c r="L31">
-        <v>-20.4014</v>
+        <v>2.2528</v>
       </c>
       <c r="M31">
-        <v>11.9496</v>
+        <v>1.5696</v>
       </c>
       <c r="N31">
-        <v>6.7956</v>
+        <v>2.7238</v>
       </c>
       <c r="O31">
-        <v>5.7753</v>
+        <v>1.9297</v>
       </c>
       <c r="P31">
-        <v>8.8292</v>
+        <v>1.5174</v>
       </c>
       <c r="Q31">
-        <v>-10.2885</v>
+        <v>2.2543</v>
       </c>
       <c r="R31">
-        <v>7.583</v>
+        <v>2.5836</v>
       </c>
       <c r="S31">
-        <v>4.891</v>
+        <v>3.0818</v>
       </c>
       <c r="T31">
-        <v>-0.4338</v>
+        <v>0.9891</v>
       </c>
       <c r="U31">
-        <v>11.7779</v>
+        <v>0.8548</v>
       </c>
       <c r="V31">
-        <v>3.1532</v>
+        <v>2.3388</v>
       </c>
       <c r="W31">
-        <v>1.7642</v>
+        <v>2.5865</v>
       </c>
       <c r="X31">
-        <v>1.6769</v>
+        <v>2.1667</v>
       </c>
       <c r="Y31">
-        <v>2.5752</v>
+        <v>1.8848</v>
       </c>
       <c r="Z31">
-        <v>2.9718</v>
+        <v>2.1509</v>
       </c>
       <c r="AA31">
-        <v>2.0598</v>
+        <v>2.0825</v>
       </c>
       <c r="AB31">
-        <v>2.2932</v>
+        <v>2.057</v>
       </c>
       <c r="AC31">
-        <v>2.2489</v>
+        <v>1.6645</v>
       </c>
       <c r="AD31">
-        <v>3.8624</v>
+        <v>2.0564</v>
       </c>
       <c r="AE31">
-        <v>1.6653</v>
+        <v>2.0264</v>
       </c>
       <c r="AF31">
-        <v>2.122</v>
+        <v>1.85</v>
       </c>
       <c r="AG31">
-        <v>1.711</v>
+        <v>1.8105</v>
       </c>
       <c r="AH31">
-        <v>1.9148</v>
+        <v>1.9927</v>
       </c>
       <c r="AI31">
-        <v>2.6165</v>
+        <v>1.9305</v>
       </c>
       <c r="AJ31">
-        <v>1.9342</v>
+        <v>1.8162</v>
       </c>
       <c r="AK31">
-        <v>2.0465</v>
+        <v>1.6381</v>
       </c>
       <c r="AL31">
-        <v>2.0885</v>
+        <v>1.7997</v>
       </c>
       <c r="AM31">
-        <v>1.8694</v>
+        <v>1.7351</v>
       </c>
       <c r="AN31">
-        <v>2.0341</v>
+        <v>1.6337</v>
       </c>
     </row>
     <row r="32" spans="1:40">
@@ -4128,121 +4065,121 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-1.1754</v>
+        <v>6.7915</v>
       </c>
       <c r="C32">
-        <v>-19.6508</v>
+        <v>0.1436</v>
       </c>
       <c r="D32">
-        <v>2.5231</v>
+        <v>2.2768</v>
       </c>
       <c r="E32">
-        <v>17.735</v>
+        <v>2.3332</v>
       </c>
       <c r="F32">
-        <v>4.718</v>
+        <v>2.4793</v>
       </c>
       <c r="G32">
-        <v>12.4623</v>
+        <v>2.6248</v>
       </c>
       <c r="H32">
-        <v>5.1446</v>
+        <v>2.8028</v>
       </c>
       <c r="I32">
-        <v>14.7888</v>
+        <v>2.4296</v>
       </c>
       <c r="J32">
-        <v>12.7698</v>
+        <v>2.4818</v>
       </c>
       <c r="K32">
-        <v>10.9154</v>
+        <v>2.2582</v>
       </c>
       <c r="L32">
-        <v>-20.4014</v>
+        <v>2.2712</v>
       </c>
       <c r="M32">
-        <v>11.9496</v>
+        <v>1.5906</v>
       </c>
       <c r="N32">
-        <v>6.7956</v>
+        <v>2.7546</v>
       </c>
       <c r="O32">
-        <v>5.7753</v>
+        <v>1.9578</v>
       </c>
       <c r="P32">
-        <v>8.8292</v>
+        <v>1.5463</v>
       </c>
       <c r="Q32">
-        <v>-10.2885</v>
+        <v>2.3081</v>
       </c>
       <c r="R32">
-        <v>7.583</v>
+        <v>2.64</v>
       </c>
       <c r="S32">
-        <v>4.891</v>
+        <v>3.1485</v>
       </c>
       <c r="T32">
-        <v>-0.4338</v>
+        <v>1.0164</v>
       </c>
       <c r="U32">
-        <v>11.7779</v>
+        <v>0.8839</v>
       </c>
       <c r="V32">
-        <v>3.1532</v>
+        <v>2.3979</v>
       </c>
       <c r="W32">
-        <v>1.7642</v>
+        <v>2.6501</v>
       </c>
       <c r="X32">
-        <v>1.6769</v>
+        <v>2.217</v>
       </c>
       <c r="Y32">
-        <v>2.5752</v>
+        <v>1.9277</v>
       </c>
       <c r="Z32">
-        <v>2.9718</v>
+        <v>2.2022</v>
       </c>
       <c r="AA32">
-        <v>2.0598</v>
+        <v>2.1305</v>
       </c>
       <c r="AB32">
-        <v>2.2932</v>
+        <v>2.1041</v>
       </c>
       <c r="AC32">
-        <v>2.2489</v>
+        <v>1.6949</v>
       </c>
       <c r="AD32">
-        <v>3.8624</v>
+        <v>2.0915</v>
       </c>
       <c r="AE32">
-        <v>1.6653</v>
+        <v>2.064</v>
       </c>
       <c r="AF32">
-        <v>2.122</v>
+        <v>1.8878</v>
       </c>
       <c r="AG32">
-        <v>1.711</v>
+        <v>1.8474</v>
       </c>
       <c r="AH32">
-        <v>1.9148</v>
+        <v>2.0316</v>
       </c>
       <c r="AI32">
-        <v>2.6165</v>
+        <v>1.9678</v>
       </c>
       <c r="AJ32">
-        <v>1.9342</v>
+        <v>1.8519</v>
       </c>
       <c r="AK32">
-        <v>2.0465</v>
+        <v>1.6696</v>
       </c>
       <c r="AL32">
-        <v>2.0885</v>
+        <v>1.8314</v>
       </c>
       <c r="AM32">
-        <v>1.8694</v>
+        <v>1.7626</v>
       </c>
       <c r="AN32">
-        <v>2.0341</v>
+        <v>1.6597</v>
       </c>
     </row>
     <row r="33" spans="1:40">
@@ -4250,121 +4187,121 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2200419000</v>
+        <v>6.7772</v>
       </c>
       <c r="C33">
-        <v>2205865000</v>
+        <v>0.1432</v>
       </c>
       <c r="D33">
-        <v>2212054000</v>
+        <v>2.2661</v>
       </c>
       <c r="E33">
-        <v>2228178000</v>
+        <v>2.313</v>
       </c>
       <c r="F33">
-        <v>2254519000</v>
+        <v>2.451</v>
       </c>
       <c r="G33">
-        <v>2279363000</v>
+        <v>2.5909</v>
       </c>
       <c r="H33">
-        <v>2299926000</v>
+        <v>2.775</v>
       </c>
       <c r="I33">
-        <v>2335539000</v>
+        <v>2.4077</v>
       </c>
       <c r="J33">
-        <v>2380046000</v>
+        <v>2.4622</v>
       </c>
       <c r="K33">
-        <v>2417640000</v>
+        <v>2.2435</v>
       </c>
       <c r="L33">
-        <v>2434333000</v>
+        <v>2.2528</v>
       </c>
       <c r="M33">
-        <v>2442208000</v>
+        <v>1.5696</v>
       </c>
       <c r="N33">
-        <v>2449502000</v>
+        <v>2.7238</v>
       </c>
       <c r="O33">
-        <v>2452442000</v>
+        <v>1.9297</v>
       </c>
       <c r="P33">
-        <v>2459732000</v>
+        <v>1.5174</v>
       </c>
       <c r="Q33">
-        <v>2462472000</v>
+        <v>2.2543</v>
       </c>
       <c r="R33">
-        <v>2465334000</v>
+        <v>2.5836</v>
       </c>
       <c r="S33">
-        <v>2467586000</v>
+        <v>3.0818</v>
       </c>
       <c r="T33">
-        <v>2467437000</v>
+        <v>0.9891</v>
       </c>
       <c r="U33">
-        <v>2466923000</v>
+        <v>0.8548</v>
       </c>
       <c r="V33">
-        <v>2466984000</v>
+        <v>2.3388</v>
       </c>
       <c r="W33">
-        <v>2466870000</v>
+        <v>2.5865</v>
       </c>
       <c r="X33">
-        <v>2466637000</v>
+        <v>2.1667</v>
       </c>
       <c r="Y33">
-        <v>2466236000</v>
+        <v>1.8848</v>
       </c>
       <c r="Z33">
-        <v>2465869000</v>
+        <v>2.1509</v>
       </c>
       <c r="AA33">
-        <v>2465617000</v>
+        <v>2.0825</v>
       </c>
       <c r="AB33">
-        <v>2465230000</v>
+        <v>2.057</v>
       </c>
       <c r="AC33">
-        <v>2465060000</v>
+        <v>1.6645</v>
       </c>
       <c r="AD33">
-        <v>2464974000</v>
+        <v>2.0564</v>
       </c>
       <c r="AE33">
-        <v>2464626000</v>
+        <v>2.0264</v>
       </c>
       <c r="AF33">
-        <v>2464427000</v>
+        <v>1.85</v>
       </c>
       <c r="AG33">
-        <v>2464289000</v>
+        <v>1.8105</v>
       </c>
       <c r="AH33">
-        <v>2463837000</v>
+        <v>1.9927</v>
       </c>
       <c r="AI33">
-        <v>2466555000</v>
+        <v>1.9305</v>
       </c>
       <c r="AJ33">
-        <v>2466000000</v>
+        <v>1.8162</v>
       </c>
       <c r="AK33">
-        <v>2466227000</v>
+        <v>1.6381</v>
       </c>
       <c r="AL33">
-        <v>2465668000</v>
+        <v>1.7997</v>
       </c>
       <c r="AM33">
-        <v>2465398000</v>
+        <v>1.7351</v>
       </c>
       <c r="AN33">
-        <v>2464771000</v>
+        <v>1.6337</v>
       </c>
     </row>
     <row r="34" spans="1:40">
@@ -4372,121 +4309,121 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.1675</v>
+        <v>570000000</v>
       </c>
       <c r="C34">
-        <v>-1.5399</v>
+        <v>572700000</v>
       </c>
       <c r="D34">
-        <v>0.1321</v>
+        <v>575000000</v>
       </c>
       <c r="E34">
-        <v>1.3139</v>
+        <v>579900000</v>
       </c>
       <c r="F34">
-        <v>0.3164</v>
+        <v>586300000</v>
       </c>
       <c r="G34">
-        <v>0.9879</v>
+        <v>588600000</v>
       </c>
       <c r="H34">
-        <v>0.3838</v>
+        <v>586300000</v>
       </c>
       <c r="I34">
-        <v>1.3938</v>
+        <v>584000000</v>
       </c>
       <c r="J34">
-        <v>1.1787</v>
+        <v>582400000</v>
       </c>
       <c r="K34">
-        <v>1.601</v>
+        <v>580800000</v>
       </c>
       <c r="L34">
-        <v>-2.1083</v>
+        <v>581500000</v>
       </c>
       <c r="M34">
-        <v>1.1111</v>
+        <v>582700000</v>
       </c>
       <c r="N34">
-        <v>0.5457</v>
+        <v>583000000</v>
       </c>
       <c r="O34">
-        <v>0.508</v>
+        <v>586100000</v>
       </c>
       <c r="P34">
-        <v>0.8547</v>
+        <v>588500000</v>
       </c>
       <c r="Q34">
-        <v>-0.9438</v>
+        <v>592600000</v>
       </c>
       <c r="R34">
-        <v>0.6616</v>
+        <v>598400000</v>
       </c>
       <c r="S34">
-        <v>0.4117</v>
+        <v>604200000</v>
       </c>
       <c r="T34">
-        <v>-0.0997</v>
+        <v>612700000</v>
       </c>
       <c r="U34">
-        <v>0.181</v>
+        <v>613400000</v>
       </c>
       <c r="V34">
-        <v>0.165</v>
+        <v>612700000</v>
       </c>
       <c r="W34">
-        <v>0.1712</v>
+        <v>612800000</v>
       </c>
       <c r="X34">
-        <v>0.1475</v>
+        <v>612000000</v>
       </c>
       <c r="Y34">
-        <v>0.292</v>
+        <v>613800000</v>
       </c>
       <c r="Z34">
-        <v>0.2309</v>
+        <v>618800000</v>
       </c>
       <c r="AA34">
-        <v>0.1867</v>
+        <v>620900000</v>
       </c>
       <c r="AB34">
-        <v>0.1824</v>
+        <v>621300000</v>
       </c>
       <c r="AC34">
-        <v>0.1981</v>
+        <v>625400000</v>
       </c>
       <c r="AD34">
-        <v>0.2869</v>
+        <v>631200000</v>
       </c>
       <c r="AE34">
-        <v>0.1704</v>
+        <v>643000000</v>
       </c>
       <c r="AF34">
-        <v>0.2137</v>
+        <v>649200000</v>
       </c>
       <c r="AG34">
-        <v>0.1788</v>
+        <v>650900000</v>
       </c>
       <c r="AH34">
-        <v>0.184</v>
+        <v>657900000</v>
       </c>
       <c r="AI34">
-        <v>0.2321</v>
+        <v>664600000</v>
       </c>
       <c r="AJ34">
-        <v>0.2014</v>
+        <v>674500000</v>
       </c>
       <c r="AK34">
-        <v>0.2046</v>
+        <v>681300000</v>
       </c>
       <c r="AL34">
-        <v>0.2084</v>
+        <v>691800000</v>
       </c>
       <c r="AM34">
-        <v>0.2058</v>
+        <v>699100000</v>
       </c>
       <c r="AN34">
-        <v>0.2184</v>
+        <v>702100000</v>
       </c>
     </row>
     <row r="35" spans="1:40">
@@ -4494,121 +4431,243 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.1516</v>
+        <v>0.5344</v>
       </c>
       <c r="C35">
-        <v>0.112</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="D35">
-        <v>0.0964</v>
+        <v>0.2379</v>
       </c>
       <c r="E35">
-        <v>0.1086</v>
+        <v>0.2465</v>
       </c>
       <c r="F35">
-        <v>0.171</v>
+        <v>0.2532</v>
       </c>
       <c r="G35">
-        <v>0.1483</v>
+        <v>0.273</v>
       </c>
       <c r="H35">
-        <v>0.1441</v>
+        <v>0.2773</v>
       </c>
       <c r="I35">
-        <v>0.1638</v>
+        <v>0.2734</v>
       </c>
       <c r="J35">
-        <v>0.1866</v>
+        <v>0.2862</v>
       </c>
       <c r="K35">
-        <v>0.1877</v>
+        <v>0.311</v>
       </c>
       <c r="L35">
-        <v>0.111</v>
+        <v>0.2604</v>
       </c>
       <c r="M35">
-        <v>0.1848</v>
+        <v>0.2204</v>
       </c>
       <c r="N35">
-        <v>0.1516</v>
+        <v>0.2991</v>
       </c>
       <c r="O35">
-        <v>0.1444</v>
+        <v>0.2543</v>
       </c>
       <c r="P35">
-        <v>0.1249</v>
+        <v>0.1922</v>
       </c>
       <c r="Q35">
-        <v>0.1702</v>
+        <v>0.2711</v>
       </c>
       <c r="R35">
-        <v>0.1649</v>
+        <v>0.2908</v>
       </c>
       <c r="S35">
-        <v>0.1372</v>
+        <v>0.3315</v>
       </c>
       <c r="T35">
-        <v>0.1292</v>
+        <v>0.1678</v>
       </c>
       <c r="U35">
-        <v>0.1399</v>
+        <v>0.2676</v>
       </c>
       <c r="V35">
-        <v>0.1828</v>
+        <v>0.2919</v>
       </c>
       <c r="W35">
+        <v>0.3243</v>
+      </c>
+      <c r="X35">
+        <v>0.2837</v>
+      </c>
+      <c r="Y35">
+        <v>0.2528</v>
+      </c>
+      <c r="Z35">
+        <v>0.2947</v>
+      </c>
+      <c r="AA35">
+        <v>0.2913</v>
+      </c>
+      <c r="AB35">
+        <v>0.2894</v>
+      </c>
+      <c r="AC35">
+        <v>0.2599</v>
+      </c>
+      <c r="AD35">
+        <v>0.2893</v>
+      </c>
+      <c r="AE35">
+        <v>0.2842</v>
+      </c>
+      <c r="AF35">
+        <v>0.273</v>
+      </c>
+      <c r="AG35">
+        <v>0.2607</v>
+      </c>
+      <c r="AH35">
+        <v>0.2766</v>
+      </c>
+      <c r="AI35">
+        <v>0.2722</v>
+      </c>
+      <c r="AJ35">
+        <v>0.2638</v>
+      </c>
+      <c r="AK35">
+        <v>0.2558</v>
+      </c>
+      <c r="AL35">
+        <v>0.263</v>
+      </c>
+      <c r="AM35">
+        <v>0.2628</v>
+      </c>
+      <c r="AN35">
+        <v>0.2596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.1776</v>
+      </c>
+      <c r="C36">
+        <v>0.1295</v>
+      </c>
+      <c r="D36">
+        <v>0.1145</v>
+      </c>
+      <c r="E36">
+        <v>0.2328</v>
+      </c>
+      <c r="F36">
+        <v>0.2096</v>
+      </c>
+      <c r="G36">
+        <v>0.2108</v>
+      </c>
+      <c r="H36">
+        <v>0.1907</v>
+      </c>
+      <c r="I36">
+        <v>0.293</v>
+      </c>
+      <c r="J36">
+        <v>0.297</v>
+      </c>
+      <c r="K36">
+        <v>0.2655</v>
+      </c>
+      <c r="L36">
+        <v>0.1502</v>
+      </c>
+      <c r="M36">
+        <v>0.2883</v>
+      </c>
+      <c r="N36">
+        <v>0.253</v>
+      </c>
+      <c r="O36">
+        <v>0.2034</v>
+      </c>
+      <c r="P36">
+        <v>0.1333</v>
+      </c>
+      <c r="Q36">
+        <v>0.2842</v>
+      </c>
+      <c r="R36">
+        <v>0.2624</v>
+      </c>
+      <c r="S36">
+        <v>0.2263</v>
+      </c>
+      <c r="T36">
+        <v>0.0173</v>
+      </c>
+      <c r="U36">
+        <v>0.2328</v>
+      </c>
+      <c r="V36">
+        <v>0.2141</v>
+      </c>
+      <c r="W36">
+        <v>0.2102</v>
+      </c>
+      <c r="X36">
+        <v>0.1286</v>
+      </c>
+      <c r="Y36">
+        <v>0.3014</v>
+      </c>
+      <c r="Z36">
+        <v>0.2475</v>
+      </c>
+      <c r="AA36">
+        <v>0.1677</v>
+      </c>
+      <c r="AB36">
+        <v>0.1701</v>
+      </c>
+      <c r="AC36">
+        <v>0.3204</v>
+      </c>
+      <c r="AD36">
+        <v>0.2158</v>
+      </c>
+      <c r="AE36">
+        <v>0.1741</v>
+      </c>
+      <c r="AF36">
+        <v>0.1425</v>
+      </c>
+      <c r="AG36">
+        <v>0.2828</v>
+      </c>
+      <c r="AH36">
+        <v>0.2103</v>
+      </c>
+      <c r="AI36">
+        <v>0.2016</v>
+      </c>
+      <c r="AJ36">
+        <v>0.1394</v>
+      </c>
+      <c r="AK36">
+        <v>0.2633</v>
+      </c>
+      <c r="AL36">
         <v>0.1454</v>
       </c>
-      <c r="X35">
-        <v>0.2842</v>
-      </c>
-      <c r="Y35">
-        <v>0.1514</v>
-      </c>
-      <c r="Z35">
-        <v>0.1671</v>
-      </c>
-      <c r="AA35">
-        <v>0.144</v>
-      </c>
-      <c r="AB35">
-        <v>0.1429</v>
-      </c>
-      <c r="AC35">
-        <v>0.1412</v>
-      </c>
-      <c r="AD35">
-        <v>0.1731</v>
-      </c>
-      <c r="AE35">
-        <v>0.1553</v>
-      </c>
-      <c r="AF35">
-        <v>0.1226</v>
-      </c>
-      <c r="AG35">
-        <v>0.1626</v>
-      </c>
-      <c r="AH35">
-        <v>0.2407</v>
-      </c>
-      <c r="AI35">
-        <v>0.1388</v>
-      </c>
-      <c r="AJ35">
-        <v>0.1084</v>
-      </c>
-      <c r="AK35">
-        <v>0.1481</v>
-      </c>
-      <c r="AL35">
-        <v>0.1682</v>
-      </c>
-      <c r="AM35">
-        <v>0.1534</v>
-      </c>
-      <c r="AN35">
-        <v>0.138</v>
+      <c r="AM36">
+        <v>0.2166</v>
+      </c>
+      <c r="AN36">
+        <v>0.1302</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_statements/soci/BRK-B.xlsx
+++ b/data/financial_statements/soci/BRK-B.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -31,9 +148,6 @@
     <t>Gross Profit</t>
   </si>
   <si>
-    <t>R&amp;D Expenses</t>
-  </si>
-  <si>
     <t>SG&amp;A Expenses</t>
   </si>
   <si>
@@ -49,9 +163,6 @@
     <t>Non-operating Income/Expense</t>
   </si>
   <si>
-    <t>Income (Other)</t>
-  </si>
-  <si>
     <t>EBT</t>
   </si>
   <si>
@@ -59,6 +170,9 @@
   </si>
   <si>
     <t>Income after Tax</t>
+  </si>
+  <si>
+    <t>Share of Subsidiary Earnings</t>
   </si>
   <si>
     <t>Non-Controlling Interest</t>
@@ -128,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,4181 +601,4125 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>8619000000</v>
+        <v>76934000000</v>
       </c>
       <c r="C2">
-        <v>8702000000</v>
+        <v>76180000000</v>
       </c>
       <c r="D2">
-        <v>8829000000</v>
+        <v>70810000000</v>
       </c>
       <c r="E2">
-        <v>8612000000</v>
+        <v>71798000000</v>
       </c>
       <c r="F2">
-        <v>8942000000</v>
+        <v>70583000000</v>
       </c>
       <c r="G2">
-        <v>8950000000</v>
+        <v>69114000000</v>
       </c>
       <c r="H2">
-        <v>8851000000</v>
+        <v>64599000000</v>
       </c>
       <c r="I2">
-        <v>8583000000</v>
+        <v>64381000000</v>
       </c>
       <c r="J2">
-        <v>8350000000</v>
+        <v>63024000000</v>
       </c>
       <c r="K2">
-        <v>7176000000</v>
+        <v>56840000000</v>
       </c>
       <c r="L2">
-        <v>8075000000</v>
+        <v>61265000000</v>
       </c>
       <c r="M2">
-        <v>8111000000</v>
+        <v>65368000000</v>
       </c>
       <c r="N2">
-        <v>7991000000</v>
+        <v>64972000000</v>
       </c>
       <c r="O2">
-        <v>8171000000</v>
+        <v>63598000000</v>
       </c>
       <c r="P2">
-        <v>7863000000</v>
+        <v>60678000000</v>
       </c>
       <c r="Q2">
-        <v>7945000000</v>
+        <v>63714000000</v>
       </c>
       <c r="R2">
-        <v>8152000000</v>
+        <v>63450000000</v>
       </c>
       <c r="S2">
-        <v>8390000000</v>
+        <v>62200000000</v>
       </c>
       <c r="T2">
-        <v>8278000000</v>
+        <v>58473000000</v>
       </c>
       <c r="U2">
-        <v>7990000000</v>
+        <v>58800000000</v>
       </c>
       <c r="V2">
-        <v>8172000000</v>
+        <v>59507000000</v>
       </c>
       <c r="W2">
-        <v>7810000000</v>
+        <v>57256000000</v>
       </c>
       <c r="X2">
-        <v>7685000000</v>
+        <v>64370000000</v>
       </c>
       <c r="Y2">
-        <v>7329000000</v>
+        <v>49854000000</v>
       </c>
       <c r="Z2">
-        <v>7709000000</v>
+        <v>58843000000</v>
       </c>
       <c r="AA2">
-        <v>7662000000</v>
+        <v>54254000000</v>
       </c>
       <c r="AB2">
-        <v>7409000000</v>
+        <v>52163000000</v>
       </c>
       <c r="AC2">
-        <v>7298000000</v>
+        <v>51942000000</v>
       </c>
       <c r="AD2">
-        <v>7712000000</v>
+        <v>58989000000</v>
       </c>
       <c r="AE2">
-        <v>7686000000</v>
+        <v>51368000000</v>
       </c>
       <c r="AF2">
-        <v>7578000000</v>
+        <v>48644000000</v>
       </c>
       <c r="AG2">
-        <v>7719000000</v>
+        <v>48285000000</v>
       </c>
       <c r="AH2">
-        <v>8137000000</v>
+        <v>51199000000</v>
       </c>
       <c r="AI2">
-        <v>8134000000</v>
+        <v>49762000000</v>
       </c>
       <c r="AJ2">
-        <v>7831000000</v>
+        <v>45453000000</v>
       </c>
       <c r="AK2">
-        <v>7569000000</v>
+        <v>47049000000</v>
       </c>
       <c r="AL2">
-        <v>7916000000</v>
+        <v>46541000000</v>
       </c>
       <c r="AM2">
-        <v>7752000000</v>
+        <v>44693000000</v>
       </c>
       <c r="AN2">
-        <v>7634000000</v>
+        <v>43867000000</v>
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>-0.0361</v>
+        <v>0.09</v>
       </c>
       <c r="C3">
-        <v>-0.0277</v>
+        <v>0.1022</v>
       </c>
       <c r="D3">
+        <v>0.0961</v>
+      </c>
+      <c r="E3">
+        <v>0.1152</v>
+      </c>
+      <c r="F3">
+        <v>0.1199</v>
+      </c>
+      <c r="G3">
+        <v>0.2159</v>
+      </c>
+      <c r="H3">
+        <v>0.0544</v>
+      </c>
+      <c r="I3">
+        <v>-0.0151</v>
+      </c>
+      <c r="J3">
+        <v>-0.03</v>
+      </c>
+      <c r="K3">
+        <v>-0.1063</v>
+      </c>
+      <c r="L3">
+        <v>0.0097</v>
+      </c>
+      <c r="M3">
+        <v>0.026</v>
+      </c>
+      <c r="N3">
+        <v>0.024</v>
+      </c>
+      <c r="O3">
+        <v>0.0225</v>
+      </c>
+      <c r="P3">
+        <v>0.0377</v>
+      </c>
+      <c r="Q3">
+        <v>0.08359999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.0663</v>
+      </c>
+      <c r="S3">
+        <v>0.0863</v>
+      </c>
+      <c r="T3">
+        <v>-0.0916</v>
+      </c>
+      <c r="U3">
+        <v>0.1794</v>
+      </c>
+      <c r="V3">
+        <v>0.0113</v>
+      </c>
+      <c r="W3">
+        <v>0.0553</v>
+      </c>
+      <c r="X3">
+        <v>0.234</v>
+      </c>
+      <c r="Y3">
+        <v>-0.0402</v>
+      </c>
+      <c r="Z3">
         <v>-0.0025</v>
       </c>
-      <c r="E3">
-        <v>0.0034</v>
-      </c>
-      <c r="F3">
-        <v>0.0709</v>
-      </c>
-      <c r="G3">
-        <v>0.2472</v>
-      </c>
-      <c r="H3">
-        <v>0.0961</v>
-      </c>
-      <c r="I3">
-        <v>0.0582</v>
-      </c>
-      <c r="J3">
-        <v>0.0449</v>
-      </c>
-      <c r="K3">
-        <v>-0.1218</v>
-      </c>
-      <c r="L3">
-        <v>0.027</v>
-      </c>
-      <c r="M3">
-        <v>0.0209</v>
-      </c>
-      <c r="N3">
-        <v>-0.0197</v>
-      </c>
-      <c r="O3">
-        <v>-0.0261</v>
-      </c>
-      <c r="P3">
-        <v>-0.0501</v>
-      </c>
-      <c r="Q3">
-        <v>-0.0056</v>
-      </c>
-      <c r="R3">
-        <v>-0.0024</v>
-      </c>
-      <c r="S3">
-        <v>0.0743</v>
-      </c>
-      <c r="T3">
-        <v>0.0772</v>
-      </c>
-      <c r="U3">
-        <v>0.0902</v>
-      </c>
-      <c r="V3">
-        <v>0.0601</v>
-      </c>
-      <c r="W3">
-        <v>0.0193</v>
-      </c>
-      <c r="X3">
-        <v>0.0373</v>
-      </c>
-      <c r="Y3">
-        <v>0.0042</v>
-      </c>
-      <c r="Z3">
-        <v>-0.0004</v>
-      </c>
       <c r="AA3">
-        <v>-0.0031</v>
+        <v>0.0562</v>
       </c>
       <c r="AB3">
-        <v>-0.0223</v>
+        <v>0.0723</v>
       </c>
       <c r="AC3">
-        <v>-0.0545</v>
+        <v>0.0757</v>
       </c>
       <c r="AD3">
-        <v>-0.0522</v>
+        <v>0.1522</v>
       </c>
       <c r="AE3">
-        <v>-0.0551</v>
+        <v>0.0323</v>
       </c>
       <c r="AF3">
-        <v>-0.0323</v>
+        <v>0.0702</v>
       </c>
       <c r="AG3">
-        <v>0.0198</v>
+        <v>0.0263</v>
       </c>
       <c r="AH3">
-        <v>0.0279</v>
+        <v>0.1001</v>
       </c>
       <c r="AI3">
-        <v>0.0493</v>
+        <v>0.1134</v>
       </c>
       <c r="AJ3">
-        <v>0.0258</v>
+        <v>0.0362</v>
       </c>
       <c r="AK3">
-        <v>0.0246</v>
+        <v>0.0521</v>
       </c>
       <c r="AL3">
-        <v>0.0559</v>
+        <v>0.1338</v>
       </c>
       <c r="AM3">
-        <v>0.0289</v>
+        <v>0.1595</v>
       </c>
       <c r="AN3">
-        <v>0.0198</v>
+        <v>0.1499</v>
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>4728000000</v>
+        <v>19961000000</v>
       </c>
       <c r="C4">
-        <v>5093000000</v>
+        <v>17363000000</v>
       </c>
       <c r="D4">
-        <v>4826000000</v>
+        <v>17422000000</v>
       </c>
       <c r="E4">
-        <v>4698000000</v>
+        <v>17637000000</v>
       </c>
       <c r="F4">
-        <v>4853000000</v>
+        <v>18746000000</v>
       </c>
       <c r="G4">
-        <v>4719000000</v>
+        <v>16699000000</v>
       </c>
       <c r="H4">
-        <v>4525000000</v>
+        <v>15458000000</v>
       </c>
       <c r="I4">
-        <v>4388000000</v>
+        <v>16529000000</v>
       </c>
       <c r="J4">
-        <v>4303000000</v>
+        <v>16206000000</v>
       </c>
       <c r="K4">
-        <v>3805000000</v>
+        <v>14540000000</v>
       </c>
       <c r="L4">
-        <v>4109000000</v>
+        <v>15286000000</v>
       </c>
       <c r="M4">
-        <v>4325000000</v>
+        <v>17663000000</v>
       </c>
       <c r="N4">
-        <v>4188000000</v>
+        <v>14742000000</v>
       </c>
       <c r="O4">
-        <v>4313000000</v>
+        <v>14403000000</v>
       </c>
       <c r="P4">
-        <v>4310000000</v>
+        <v>13834000000</v>
       </c>
       <c r="Q4">
-        <v>4060000000</v>
+        <v>15870000000</v>
       </c>
       <c r="R4">
-        <v>4159000000</v>
+        <v>13732000000</v>
       </c>
       <c r="S4">
-        <v>4227000000</v>
+        <v>12942000000</v>
       </c>
       <c r="T4">
-        <v>4236000000</v>
+        <v>12854000000</v>
       </c>
       <c r="U4">
-        <v>4094000000</v>
+        <v>13753000000</v>
       </c>
       <c r="V4">
-        <v>4059000000</v>
+        <v>15557000000</v>
       </c>
       <c r="W4">
-        <v>4020000000</v>
+        <v>12388000000</v>
       </c>
       <c r="X4">
-        <v>3882000000</v>
+        <v>22132000000</v>
       </c>
       <c r="Y4">
-        <v>3794000000</v>
+        <v>11730000000</v>
       </c>
       <c r="Z4">
-        <v>3847000000</v>
+        <v>10955000000</v>
       </c>
       <c r="AA4">
-        <v>3799000000</v>
+        <v>10289000000</v>
       </c>
       <c r="AB4">
-        <v>3678000000</v>
+        <v>10776000000</v>
       </c>
       <c r="AC4">
-        <v>3827000000</v>
+        <v>10345000000</v>
       </c>
       <c r="AD4">
-        <v>3877000000</v>
+        <v>9871000000</v>
       </c>
       <c r="AE4">
-        <v>3858000000</v>
+        <v>10448000000</v>
       </c>
       <c r="AF4">
-        <v>3821000000</v>
+        <v>8793000000</v>
       </c>
       <c r="AG4">
-        <v>4027000000</v>
+        <v>9457000000</v>
       </c>
       <c r="AH4">
-        <v>4205000000</v>
+        <v>11742000000</v>
       </c>
       <c r="AI4">
-        <v>4184000000</v>
+        <v>8685000000</v>
       </c>
       <c r="AJ4">
-        <v>4031000000</v>
+        <v>8701000000</v>
       </c>
       <c r="AK4">
-        <v>3976000000</v>
+        <v>8611000000</v>
       </c>
       <c r="AL4">
-        <v>4148000000</v>
+        <v>9007000000</v>
       </c>
       <c r="AM4">
-        <v>4013000000</v>
+        <v>7989000000</v>
       </c>
       <c r="AN4">
-        <v>3969000000</v>
+        <v>7988000000</v>
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>3891000000</v>
+        <v>56973000000</v>
       </c>
       <c r="C5">
-        <v>3609000000</v>
+        <v>58817000000</v>
       </c>
       <c r="D5">
-        <v>4003000000</v>
+        <v>53388000000</v>
       </c>
       <c r="E5">
-        <v>3914000000</v>
+        <v>54161000000</v>
       </c>
       <c r="F5">
-        <v>4089000000</v>
+        <v>51837000000</v>
       </c>
       <c r="G5">
-        <v>4231000000</v>
+        <v>52415000000</v>
       </c>
       <c r="H5">
-        <v>4326000000</v>
+        <v>49141000000</v>
       </c>
       <c r="I5">
-        <v>4195000000</v>
+        <v>47852000000</v>
       </c>
       <c r="J5">
-        <v>4047000000</v>
+        <v>46818000000</v>
       </c>
       <c r="K5">
-        <v>3371000000</v>
+        <v>42300000000</v>
       </c>
       <c r="L5">
-        <v>3966000000</v>
+        <v>45979000000</v>
       </c>
       <c r="M5">
-        <v>3786000000</v>
+        <v>47705000000</v>
       </c>
       <c r="N5">
-        <v>3803000000</v>
+        <v>50230000000</v>
       </c>
       <c r="O5">
-        <v>3858000000</v>
+        <v>49195000000</v>
       </c>
       <c r="P5">
-        <v>3553000000</v>
+        <v>46844000000</v>
       </c>
       <c r="Q5">
-        <v>3885000000</v>
+        <v>47844000000</v>
       </c>
       <c r="R5">
-        <v>3993000000</v>
+        <v>49718000000</v>
       </c>
       <c r="S5">
-        <v>4163000000</v>
+        <v>49258000000</v>
       </c>
       <c r="T5">
-        <v>4042000000</v>
+        <v>45619000000</v>
       </c>
       <c r="U5">
-        <v>3896000000</v>
+        <v>45047000000</v>
       </c>
       <c r="V5">
-        <v>4113000000</v>
+        <v>43950000000</v>
       </c>
       <c r="W5">
-        <v>3790000000</v>
+        <v>44868000000</v>
       </c>
       <c r="X5">
-        <v>3803000000</v>
+        <v>42238000000</v>
       </c>
       <c r="Y5">
-        <v>3535000000</v>
+        <v>38124000000</v>
       </c>
       <c r="Z5">
-        <v>3862000000</v>
+        <v>47888000000</v>
       </c>
       <c r="AA5">
-        <v>3863000000</v>
+        <v>43965000000</v>
       </c>
       <c r="AB5">
-        <v>3731000000</v>
+        <v>41387000000</v>
       </c>
       <c r="AC5">
-        <v>3471000000</v>
+        <v>41597000000</v>
       </c>
       <c r="AD5">
-        <v>3835000000</v>
+        <v>49118000000</v>
       </c>
       <c r="AE5">
-        <v>3828000000</v>
+        <v>40920000000</v>
       </c>
       <c r="AF5">
-        <v>3757000000</v>
+        <v>39851000000</v>
       </c>
       <c r="AG5">
-        <v>3692000000</v>
+        <v>38828000000</v>
       </c>
       <c r="AH5">
-        <v>3932000000</v>
+        <v>39457000000</v>
       </c>
       <c r="AI5">
-        <v>3950000000</v>
+        <v>41077000000</v>
       </c>
       <c r="AJ5">
-        <v>3800000000</v>
+        <v>36752000000</v>
       </c>
       <c r="AK5">
-        <v>3593000000</v>
+        <v>38438000000</v>
       </c>
       <c r="AL5">
-        <v>3768000000</v>
+        <v>37534000000</v>
       </c>
       <c r="AM5">
-        <v>3739000000</v>
+        <v>36704000000</v>
       </c>
       <c r="AN5">
-        <v>3665000000</v>
+        <v>35879000000</v>
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>461000000</v>
+        <v>8649000000</v>
       </c>
       <c r="C6">
-        <v>476000000</v>
+        <v>8022000000</v>
       </c>
       <c r="D6">
-        <v>480000000</v>
+        <v>8176000000</v>
       </c>
       <c r="E6">
-        <v>474000000</v>
+        <v>8851000000</v>
       </c>
       <c r="F6">
-        <v>482000000</v>
+        <v>8416000000</v>
       </c>
       <c r="G6">
-        <v>514000000</v>
+        <v>8633000000</v>
       </c>
       <c r="H6">
-        <v>524000000</v>
+        <v>7420000000</v>
       </c>
       <c r="I6">
-        <v>456000000</v>
+        <v>9000000000</v>
       </c>
       <c r="J6">
-        <v>461000000</v>
+        <v>8342000000</v>
       </c>
       <c r="K6">
-        <v>424000000</v>
+        <v>7523000000</v>
       </c>
       <c r="L6">
-        <v>537000000</v>
+        <v>8064000000</v>
       </c>
       <c r="M6">
-        <v>521000000</v>
+        <v>9311000000</v>
       </c>
       <c r="N6">
-        <v>443000000</v>
+        <v>8223000000</v>
       </c>
       <c r="O6">
-        <v>470000000</v>
+        <v>8714000000</v>
       </c>
       <c r="P6">
-        <v>477000000</v>
+        <v>8414000000</v>
       </c>
       <c r="Q6">
-        <v>437000000</v>
+        <v>8629000000</v>
       </c>
       <c r="R6">
-        <v>430000000</v>
+        <v>8506000000</v>
       </c>
       <c r="S6">
-        <v>468000000</v>
+        <v>8206000000</v>
       </c>
       <c r="T6">
-        <v>486000000</v>
+        <v>8560000000</v>
       </c>
       <c r="U6">
-        <v>448000000</v>
+        <v>19677000000</v>
       </c>
       <c r="V6">
-        <v>468000000</v>
+        <v>4496000000</v>
       </c>
       <c r="W6">
-        <v>478000000</v>
+        <v>4489000000</v>
       </c>
       <c r="X6">
-        <v>476000000</v>
+        <v>4558000000</v>
       </c>
       <c r="Y6">
-        <v>450000000</v>
+        <v>18059000000</v>
       </c>
       <c r="Z6">
-        <v>427000000</v>
+        <v>4424000000</v>
       </c>
       <c r="AA6">
-        <v>437000000</v>
+        <v>4509000000</v>
       </c>
       <c r="AB6">
-        <v>450000000</v>
+        <v>4115000000</v>
       </c>
       <c r="AC6">
-        <v>433000000</v>
+        <v>3956000000</v>
       </c>
       <c r="AD6">
-        <v>429000000</v>
+        <v>4130000000</v>
       </c>
       <c r="AE6">
-        <v>438000000</v>
+        <v>3780000000</v>
       </c>
       <c r="AF6">
-        <v>463000000</v>
+        <v>3443000000</v>
       </c>
       <c r="AG6">
-        <v>436000000</v>
+        <v>3683000000</v>
       </c>
       <c r="AH6">
-        <v>434000000</v>
+        <v>3384000000</v>
       </c>
       <c r="AI6">
-        <v>448000000</v>
+        <v>3389000000</v>
       </c>
       <c r="AJ6">
-        <v>452000000</v>
+        <v>3265000000</v>
       </c>
       <c r="AK6">
-        <v>438000000</v>
+        <v>3539000000</v>
       </c>
       <c r="AL6">
-        <v>420000000</v>
+        <v>3248000000</v>
       </c>
       <c r="AM6">
-        <v>427000000</v>
+        <v>3285000000</v>
       </c>
       <c r="AN6">
-        <v>430000000</v>
+        <v>3210000000</v>
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1998000000</v>
+        <v>-2146000000</v>
       </c>
       <c r="C7">
-        <v>3023000000</v>
+        <v>-53099000000</v>
       </c>
       <c r="D7">
-        <v>1882000000</v>
+        <v>8626000000</v>
       </c>
       <c r="E7">
-        <v>1824000000</v>
+        <v>51100000000</v>
       </c>
       <c r="F7">
-        <v>1819000000</v>
+        <v>14745000000</v>
       </c>
       <c r="G7">
-        <v>1746000000</v>
+        <v>38213000000</v>
       </c>
       <c r="H7">
-        <v>1808000000</v>
+        <v>16420000000</v>
       </c>
       <c r="I7">
-        <v>1890000000</v>
+        <v>47478000000</v>
       </c>
       <c r="J7">
-        <v>1677000000</v>
+        <v>40121000000</v>
       </c>
       <c r="K7">
-        <v>1594000000</v>
+        <v>48394000000</v>
       </c>
       <c r="L7">
-        <v>1768000000</v>
+        <v>-61476000000</v>
       </c>
       <c r="M7">
-        <v>1940000000</v>
+        <v>38662000000</v>
       </c>
       <c r="N7">
-        <v>1455000000</v>
+        <v>21992000000</v>
       </c>
       <c r="O7">
-        <v>1686000000</v>
+        <v>19802000000</v>
       </c>
       <c r="P7">
-        <v>1948000000</v>
+        <v>29123000000</v>
       </c>
       <c r="Q7">
-        <v>1682000000</v>
+        <v>-27238000000</v>
       </c>
       <c r="R7">
-        <v>1547000000</v>
+        <v>24875000000</v>
       </c>
       <c r="S7">
-        <v>1800000000</v>
+        <v>16861000000</v>
       </c>
       <c r="T7">
-        <v>2573000000</v>
+        <v>-200000000</v>
       </c>
       <c r="U7">
-        <v>1755000000</v>
+        <v>8126000000</v>
       </c>
       <c r="V7">
-        <v>1637000000</v>
+        <v>6558000000</v>
       </c>
       <c r="W7">
-        <v>1620000000</v>
+        <v>7283000000</v>
       </c>
       <c r="X7">
-        <v>1614000000</v>
+        <v>6474000000</v>
       </c>
       <c r="Y7">
-        <v>1727000000</v>
+        <v>12263000000</v>
       </c>
       <c r="Z7">
-        <v>1531000000</v>
+        <v>11343000000</v>
       </c>
       <c r="AA7">
-        <v>1560000000</v>
+        <v>7893000000</v>
       </c>
       <c r="AB7">
-        <v>1493000000</v>
+        <v>7389000000</v>
       </c>
       <c r="AC7">
-        <v>1585000000</v>
+        <v>8311000000</v>
       </c>
       <c r="AD7">
-        <v>1530000000</v>
+        <v>14937000000</v>
       </c>
       <c r="AE7">
-        <v>1550000000</v>
+        <v>6813000000</v>
       </c>
       <c r="AF7">
-        <v>1564000000</v>
+        <v>8522000000</v>
       </c>
       <c r="AG7">
-        <v>1594000000</v>
+        <v>6697000000</v>
       </c>
       <c r="AH7">
-        <v>1597000000</v>
+        <v>7567000000</v>
       </c>
       <c r="AI7">
-        <v>1646000000</v>
+        <v>9740000000</v>
       </c>
       <c r="AJ7">
-        <v>1632000000</v>
+        <v>7380000000</v>
       </c>
       <c r="AK7">
-        <v>1576000000</v>
+        <v>7950000000</v>
       </c>
       <c r="AL7">
-        <v>1609000000</v>
+        <v>8084000000</v>
       </c>
       <c r="AM7">
-        <v>1610000000</v>
+        <v>7582000000</v>
       </c>
       <c r="AN7">
-        <v>1589000000</v>
+        <v>7981000000</v>
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>4156000000</v>
+        <v>1092000000</v>
       </c>
       <c r="C8">
-        <v>110000000</v>
+        <v>1087000000</v>
       </c>
       <c r="D8">
-        <v>1641000000</v>
+        <v>1034000000</v>
       </c>
       <c r="E8">
-        <v>1616000000</v>
+        <v>990000000</v>
       </c>
       <c r="F8">
-        <v>1788000000</v>
+        <v>1056000000</v>
       </c>
       <c r="G8">
-        <v>1971000000</v>
+        <v>1076000000</v>
       </c>
       <c r="H8">
-        <v>1994000000</v>
+        <v>1050000000</v>
       </c>
       <c r="I8">
-        <v>1849000000</v>
+        <v>1057000000</v>
       </c>
       <c r="J8">
-        <v>1909000000</v>
+        <v>1000000000</v>
       </c>
       <c r="K8">
-        <v>1740000000</v>
+        <v>1002000000</v>
       </c>
       <c r="L8">
-        <v>1663000000</v>
+        <v>1024000000</v>
       </c>
       <c r="M8">
-        <v>1325000000</v>
-      </c>
-      <c r="N8">
-        <v>2011000000</v>
-      </c>
-      <c r="O8">
-        <v>1702000000</v>
-      </c>
-      <c r="P8">
-        <v>1136000000</v>
-      </c>
-      <c r="Q8">
-        <v>1783000000</v>
-      </c>
-      <c r="R8">
-        <v>2016000000</v>
-      </c>
-      <c r="S8">
-        <v>2401000000</v>
-      </c>
-      <c r="T8">
-        <v>1007000000</v>
-      </c>
-      <c r="U8">
-        <v>1789000000</v>
-      </c>
-      <c r="V8">
-        <v>2008000000</v>
-      </c>
-      <c r="W8">
-        <v>2153000000</v>
-      </c>
-      <c r="X8">
-        <v>1742000000</v>
-      </c>
-      <c r="Y8">
-        <v>1469000000</v>
-      </c>
-      <c r="Z8">
-        <v>1904000000</v>
-      </c>
-      <c r="AA8">
-        <v>1866000000</v>
-      </c>
-      <c r="AB8">
-        <v>1788000000</v>
-      </c>
-      <c r="AC8">
-        <v>1500000000</v>
-      </c>
-      <c r="AD8">
-        <v>1876000000</v>
-      </c>
-      <c r="AE8">
-        <v>1840000000</v>
-      </c>
-      <c r="AF8">
-        <v>1730000000</v>
-      </c>
-      <c r="AG8">
-        <v>1662000000</v>
-      </c>
-      <c r="AH8">
-        <v>1901000000</v>
-      </c>
-      <c r="AI8">
-        <v>1856000000</v>
-      </c>
-      <c r="AJ8">
-        <v>1716000000</v>
-      </c>
-      <c r="AK8">
-        <v>1579000000</v>
-      </c>
-      <c r="AL8">
-        <v>1739000000</v>
-      </c>
-      <c r="AM8">
-        <v>1702000000</v>
-      </c>
-      <c r="AN8">
-        <v>1646000000</v>
+        <v>993000000</v>
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>82000000</v>
+        <v>1092000000</v>
       </c>
       <c r="C9">
-        <v>125000000</v>
+        <v>1087000000</v>
       </c>
       <c r="D9">
-        <v>136000000</v>
+        <v>1034000000</v>
       </c>
       <c r="E9">
-        <v>112000000</v>
+        <v>990000000</v>
       </c>
       <c r="F9">
-        <v>79000000</v>
+        <v>1056000000</v>
       </c>
       <c r="G9">
-        <v>125000000</v>
+        <v>1076000000</v>
       </c>
       <c r="H9">
-        <v>141000000</v>
+        <v>1050000000</v>
       </c>
       <c r="I9">
-        <v>179000000</v>
+        <v>1057000000</v>
       </c>
       <c r="J9">
-        <v>155000000</v>
+        <v>1000000000</v>
       </c>
       <c r="K9">
-        <v>124000000</v>
+        <v>1002000000</v>
       </c>
       <c r="L9">
-        <v>105000000</v>
+        <v>1024000000</v>
       </c>
       <c r="M9">
-        <v>135000000</v>
+        <v>993000000</v>
+      </c>
+      <c r="N9">
+        <v>985000000</v>
+      </c>
+      <c r="O9">
+        <v>992000000</v>
+      </c>
+      <c r="P9">
+        <v>991000000</v>
+      </c>
+      <c r="Q9">
+        <v>971000000</v>
+      </c>
+      <c r="R9">
+        <v>950000000</v>
+      </c>
+      <c r="S9">
+        <v>957000000</v>
+      </c>
+      <c r="T9">
+        <v>975000000</v>
+      </c>
+      <c r="U9">
+        <v>586000000</v>
+      </c>
+      <c r="V9">
+        <v>1233000000</v>
+      </c>
+      <c r="W9">
+        <v>1500000000</v>
+      </c>
+      <c r="X9">
+        <v>1067000000</v>
+      </c>
+      <c r="Y9">
+        <v>798000000</v>
+      </c>
+      <c r="Z9">
+        <v>1043000000</v>
+      </c>
+      <c r="AA9">
+        <v>727000000</v>
+      </c>
+      <c r="AB9">
+        <v>1173000000</v>
+      </c>
+      <c r="AC9">
+        <v>808000000</v>
+      </c>
+      <c r="AD9">
+        <v>865000000</v>
+      </c>
+      <c r="AE9">
+        <v>967000000</v>
+      </c>
+      <c r="AF9">
+        <v>875000000</v>
+      </c>
+      <c r="AG9">
+        <v>830000000</v>
+      </c>
+      <c r="AH9">
+        <v>817000000</v>
+      </c>
+      <c r="AI9">
+        <v>824000000</v>
+      </c>
+      <c r="AJ9">
+        <v>782000000</v>
+      </c>
+      <c r="AK9">
+        <v>718000000</v>
+      </c>
+      <c r="AL9">
+        <v>706000000</v>
+      </c>
+      <c r="AM9">
+        <v>691000000</v>
+      </c>
+      <c r="AN9">
+        <v>686000000</v>
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>17000000</v>
+        <v>-2412000000</v>
       </c>
       <c r="C10">
-        <v>11000000</v>
+        <v>-2614000000</v>
       </c>
       <c r="D10">
-        <v>8000000</v>
+        <v>-2190000000</v>
       </c>
       <c r="E10">
-        <v>8000000</v>
+        <v>-2367000000</v>
       </c>
       <c r="F10">
-        <v>6000000</v>
+        <v>-2638000000</v>
       </c>
       <c r="G10">
-        <v>8000000</v>
+        <v>-2639000000</v>
       </c>
       <c r="H10">
-        <v>4000000</v>
+        <v>-2143000000</v>
       </c>
       <c r="I10">
-        <v>5000000</v>
+        <v>-2768000000</v>
       </c>
       <c r="J10">
-        <v>5000000</v>
+        <v>-2481000000</v>
       </c>
       <c r="K10">
-        <v>9000000</v>
+        <v>-12728000000</v>
       </c>
       <c r="L10">
-        <v>10000000</v>
+        <v>-1573000000</v>
       </c>
       <c r="M10">
-        <v>16000000</v>
+        <v>-2269000000</v>
+      </c>
+      <c r="N10">
+        <v>-2147000000</v>
+      </c>
+      <c r="O10">
+        <v>-2167000000</v>
+      </c>
+      <c r="P10">
+        <v>-1476000000</v>
+      </c>
+      <c r="Q10">
+        <v>-3000000000</v>
+      </c>
+      <c r="R10">
+        <v>-2044000000</v>
+      </c>
+      <c r="S10">
+        <v>-1763000000</v>
+      </c>
+      <c r="T10">
+        <v>-1323000000</v>
+      </c>
+      <c r="U10">
+        <v>-4403000000</v>
+      </c>
+      <c r="V10">
+        <v>-928000000</v>
+      </c>
+      <c r="W10">
+        <v>-1500000000</v>
+      </c>
+      <c r="X10">
+        <v>-786000000</v>
+      </c>
+      <c r="Y10">
+        <v>-4058000000</v>
       </c>
       <c r="Z10">
-        <v>50000000</v>
+        <v>-818000000</v>
       </c>
       <c r="AA10">
-        <v>38000000</v>
+        <v>-521000000</v>
       </c>
       <c r="AB10">
-        <v>47000000</v>
+        <v>-933000000</v>
+      </c>
+      <c r="AC10">
+        <v>-930000000</v>
       </c>
       <c r="AD10">
-        <v>38000000</v>
+        <v>-865000000</v>
       </c>
       <c r="AE10">
-        <v>35000000</v>
+        <v>-967000000</v>
       </c>
       <c r="AF10">
-        <v>31000000</v>
+        <v>-875000000</v>
       </c>
       <c r="AG10">
-        <v>32000000</v>
+        <v>-856000000</v>
       </c>
       <c r="AH10">
-        <v>28000000</v>
+        <v>-817000000</v>
       </c>
       <c r="AI10">
-        <v>45000000</v>
+        <v>-824000000</v>
       </c>
       <c r="AJ10">
-        <v>37000000</v>
+        <v>-782000000</v>
       </c>
       <c r="AK10">
-        <v>32000000</v>
+        <v>-718000000</v>
       </c>
       <c r="AL10">
-        <v>33000000</v>
+        <v>-706000000</v>
       </c>
       <c r="AM10">
-        <v>41000000</v>
+        <v>-691000000</v>
       </c>
       <c r="AN10">
-        <v>39000000</v>
+        <v>-686000000</v>
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-24000000</v>
+        <v>-4558000000</v>
       </c>
       <c r="C11">
-        <v>-50000000</v>
+        <v>-55713000000</v>
       </c>
       <c r="D11">
-        <v>-38000000</v>
+        <v>6436000000</v>
       </c>
       <c r="E11">
-        <v>-52000000</v>
+        <v>48733000000</v>
       </c>
       <c r="F11">
-        <v>-31000000</v>
+        <v>12107000000</v>
       </c>
       <c r="G11">
-        <v>-33000000</v>
+        <v>35574000000</v>
       </c>
       <c r="H11">
-        <v>-49000000</v>
+        <v>14277000000</v>
       </c>
       <c r="I11">
-        <v>-118000000</v>
+        <v>44710000000</v>
       </c>
       <c r="J11">
-        <v>-83000000</v>
+        <v>37640000000</v>
       </c>
       <c r="K11">
-        <v>-90000000</v>
+        <v>35666000000</v>
       </c>
       <c r="L11">
-        <v>-75000000</v>
+        <v>-63049000000</v>
       </c>
       <c r="M11">
-        <v>-182000000</v>
+        <v>36393000000</v>
       </c>
       <c r="N11">
-        <v>-45000000</v>
+        <v>19845000000</v>
       </c>
       <c r="O11">
-        <v>-256000000</v>
+        <v>17635000000</v>
       </c>
       <c r="P11">
-        <v>-48000000</v>
+        <v>27647000000</v>
       </c>
       <c r="Q11">
-        <v>-63000000</v>
+        <v>-30238000000</v>
       </c>
       <c r="R11">
-        <v>-51000000</v>
+        <v>22831000000</v>
       </c>
       <c r="S11">
-        <v>-51000000</v>
+        <v>15098000000</v>
       </c>
       <c r="T11">
-        <v>-42000000</v>
+        <v>-1523000000</v>
       </c>
       <c r="U11">
-        <v>-117000000</v>
+        <v>3723000000</v>
       </c>
       <c r="V11">
-        <v>-11000000</v>
+        <v>5630000000</v>
       </c>
       <c r="W11">
-        <v>-11000000</v>
+        <v>5783000000</v>
       </c>
       <c r="X11">
-        <v>-5000000</v>
+        <v>5688000000</v>
       </c>
       <c r="Y11">
-        <v>141000000</v>
+        <v>8205000000</v>
       </c>
       <c r="Z11">
-        <v>-42000000</v>
+        <v>10525000000</v>
       </c>
       <c r="AA11">
-        <v>-31000000</v>
+        <v>7372000000</v>
       </c>
       <c r="AB11">
-        <v>-42000000</v>
+        <v>6456000000</v>
       </c>
       <c r="AC11">
-        <v>-37000000</v>
+        <v>7381000000</v>
       </c>
       <c r="AD11">
-        <v>-31000000</v>
+        <v>14072000000</v>
       </c>
       <c r="AE11">
-        <v>-28000000</v>
+        <v>5846000000</v>
       </c>
       <c r="AF11">
-        <v>-27000000</v>
+        <v>7647000000</v>
       </c>
       <c r="AG11">
-        <v>-24000000</v>
+        <v>5841000000</v>
       </c>
       <c r="AH11">
-        <v>-21000000</v>
+        <v>6750000000</v>
       </c>
       <c r="AI11">
-        <v>-36000000</v>
+        <v>8916000000</v>
       </c>
       <c r="AJ11">
-        <v>-28000000</v>
+        <v>6598000000</v>
       </c>
       <c r="AK11">
-        <v>-21000000</v>
+        <v>7232000000</v>
       </c>
       <c r="AL11">
-        <v>-23000000</v>
+        <v>7378000000</v>
       </c>
       <c r="AM11">
-        <v>-31000000</v>
+        <v>6891000000</v>
       </c>
       <c r="AN11">
-        <v>-29000000</v>
+        <v>7295000000</v>
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>2000000</v>
+        <v>-1529000000</v>
       </c>
       <c r="C12">
-        <v>-1000000</v>
+        <v>-12106000000</v>
       </c>
       <c r="D12">
-        <v>2000000</v>
+        <v>1227000000</v>
       </c>
       <c r="E12">
-        <v>3000000</v>
+        <v>9055000000</v>
       </c>
       <c r="F12">
-        <v>4000000</v>
+        <v>1840000000</v>
       </c>
       <c r="G12">
-        <v>2000000</v>
+        <v>7296000000</v>
       </c>
       <c r="H12">
-        <v>1000000</v>
+        <v>2688000000</v>
       </c>
       <c r="I12">
-        <v>-4000000</v>
+        <v>9273000000</v>
       </c>
       <c r="J12">
-        <v>-1000000</v>
+        <v>7517000000</v>
+      </c>
+      <c r="K12">
+        <v>9002000000</v>
+      </c>
+      <c r="L12">
+        <v>-13352000000</v>
+      </c>
+      <c r="M12">
+        <v>7571000000</v>
+      </c>
+      <c r="N12">
+        <v>3832000000</v>
+      </c>
+      <c r="O12">
+        <v>3586000000</v>
+      </c>
+      <c r="P12">
+        <v>5915000000</v>
+      </c>
+      <c r="Q12">
+        <v>-7330000000</v>
+      </c>
+      <c r="R12">
+        <v>4440000000</v>
+      </c>
+      <c r="S12">
+        <v>3021000000</v>
+      </c>
+      <c r="T12">
+        <v>-452000000</v>
+      </c>
+      <c r="U12">
+        <v>-26265000000</v>
+      </c>
+      <c r="V12">
+        <v>1427000000</v>
+      </c>
+      <c r="W12">
+        <v>1774000000</v>
+      </c>
+      <c r="X12">
+        <v>1549000000</v>
+      </c>
+      <c r="Y12">
+        <v>2959000000</v>
+      </c>
+      <c r="Z12">
+        <v>3192000000</v>
+      </c>
+      <c r="AA12">
+        <v>2290000000</v>
+      </c>
+      <c r="AB12">
+        <v>799000000</v>
+      </c>
+      <c r="AC12">
+        <v>1834000000</v>
+      </c>
+      <c r="AD12">
+        <v>4545000000</v>
+      </c>
+      <c r="AE12">
+        <v>1739000000</v>
+      </c>
+      <c r="AF12">
+        <v>2414000000</v>
+      </c>
+      <c r="AG12">
+        <v>1623000000</v>
+      </c>
+      <c r="AH12">
+        <v>2029000000</v>
+      </c>
+      <c r="AI12">
+        <v>2458000000</v>
+      </c>
+      <c r="AJ12">
+        <v>1825000000</v>
+      </c>
+      <c r="AK12">
+        <v>2169000000</v>
+      </c>
+      <c r="AL12">
+        <v>2225000000</v>
+      </c>
+      <c r="AM12">
+        <v>2279000000</v>
+      </c>
+      <c r="AN12">
+        <v>2278000000</v>
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>4132000000</v>
+        <v>-3029000000</v>
       </c>
       <c r="C13">
-        <v>60000000</v>
+        <v>-43607000000</v>
       </c>
       <c r="D13">
-        <v>1603000000</v>
+        <v>5209000000</v>
       </c>
       <c r="E13">
-        <v>1564000000</v>
+        <v>39678000000</v>
       </c>
       <c r="F13">
-        <v>1757000000</v>
+        <v>10267000000</v>
       </c>
       <c r="G13">
-        <v>1938000000</v>
+        <v>28278000000</v>
       </c>
       <c r="H13">
-        <v>1945000000</v>
+        <v>11589000000</v>
       </c>
       <c r="I13">
-        <v>1731000000</v>
+        <v>35437000000</v>
       </c>
       <c r="J13">
-        <v>1826000000</v>
+        <v>30123000000</v>
       </c>
       <c r="K13">
-        <v>1650000000</v>
+        <v>26664000000</v>
       </c>
       <c r="L13">
-        <v>1588000000</v>
+        <v>-49697000000</v>
       </c>
       <c r="M13">
-        <v>1143000000</v>
+        <v>28822000000</v>
       </c>
       <c r="N13">
-        <v>1966000000</v>
+        <v>16013000000</v>
       </c>
       <c r="O13">
-        <v>1446000000</v>
+        <v>14049000000</v>
       </c>
       <c r="P13">
-        <v>1088000000</v>
+        <v>21732000000</v>
       </c>
       <c r="Q13">
-        <v>1720000000</v>
+        <v>-22908000000</v>
       </c>
       <c r="R13">
-        <v>1965000000</v>
+        <v>18391000000</v>
       </c>
       <c r="S13">
-        <v>2350000000</v>
+        <v>12077000000</v>
       </c>
       <c r="T13">
-        <v>965000000</v>
+        <v>-1071000000</v>
       </c>
       <c r="U13">
-        <v>1672000000</v>
+        <v>29988000000</v>
       </c>
       <c r="V13">
-        <v>1997000000</v>
+        <v>4203000000</v>
       </c>
       <c r="W13">
-        <v>2142000000</v>
+        <v>4009000000</v>
       </c>
       <c r="X13">
-        <v>1737000000</v>
+        <v>4139000000</v>
       </c>
       <c r="Y13">
-        <v>1610000000</v>
+        <v>5246000000</v>
       </c>
       <c r="Z13">
-        <v>1862000000</v>
+        <v>7333000000</v>
       </c>
       <c r="AA13">
-        <v>1835000000</v>
+        <v>5082000000</v>
       </c>
       <c r="AB13">
-        <v>1746000000</v>
+        <v>5657000000</v>
       </c>
       <c r="AC13">
-        <v>1463000000</v>
+        <v>5547000000</v>
       </c>
       <c r="AD13">
-        <v>1845000000</v>
+        <v>9527000000</v>
       </c>
       <c r="AE13">
-        <v>1812000000</v>
+        <v>4107000000</v>
       </c>
       <c r="AF13">
-        <v>1703000000</v>
+        <v>5233000000</v>
       </c>
       <c r="AG13">
-        <v>1638000000</v>
+        <v>4218000000</v>
       </c>
       <c r="AH13">
-        <v>1880000000</v>
+        <v>4721000000</v>
       </c>
       <c r="AI13">
-        <v>1820000000</v>
+        <v>6458000000</v>
       </c>
       <c r="AJ13">
-        <v>1688000000</v>
+        <v>4773000000</v>
       </c>
       <c r="AK13">
-        <v>1558000000</v>
+        <v>5063000000</v>
       </c>
       <c r="AL13">
-        <v>1716000000</v>
+        <v>5153000000</v>
       </c>
       <c r="AM13">
-        <v>1671000000</v>
+        <v>4612000000</v>
       </c>
       <c r="AN13">
-        <v>1617000000</v>
+        <v>5017000000</v>
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>271000000</v>
+        <v>441000000</v>
       </c>
       <c r="C14">
-        <v>-23000000</v>
+        <v>231000000</v>
       </c>
       <c r="D14">
-        <v>302000000</v>
+        <v>376000000</v>
       </c>
       <c r="E14">
-        <v>227000000</v>
+        <v>220000000</v>
       </c>
       <c r="F14">
-        <v>324000000</v>
+        <v>377000000</v>
       </c>
       <c r="G14">
-        <v>415000000</v>
+        <v>147000000</v>
       </c>
       <c r="H14">
-        <v>319000000</v>
+        <v>251000000</v>
       </c>
       <c r="I14">
-        <v>321000000</v>
+        <v>693000000</v>
       </c>
       <c r="J14">
-        <v>391000000</v>
+        <v>290000000</v>
       </c>
       <c r="K14">
-        <v>347000000</v>
-      </c>
-      <c r="L14">
-        <v>278000000</v>
+        <v>-257000000</v>
       </c>
       <c r="M14">
-        <v>226000000</v>
+        <v>408000000</v>
       </c>
       <c r="N14">
-        <v>378000000</v>
+        <v>644000000</v>
       </c>
       <c r="O14">
-        <v>315000000</v>
-      </c>
-      <c r="P14">
-        <v>195000000</v>
+        <v>124000000</v>
       </c>
       <c r="Q14">
-        <v>371000000</v>
+        <v>-2483000000</v>
       </c>
       <c r="R14">
-        <v>419000000</v>
-      </c>
-      <c r="S14">
-        <v>488000000</v>
-      </c>
-      <c r="T14">
-        <v>359000000</v>
+        <v>316000000</v>
       </c>
       <c r="U14">
-        <v>1147000000</v>
-      </c>
-      <c r="V14">
-        <v>564000000</v>
+        <v>2668000000</v>
       </c>
       <c r="W14">
-        <v>557000000</v>
-      </c>
-      <c r="X14">
-        <v>411000000</v>
-      </c>
-      <c r="Y14">
-        <v>454000000</v>
-      </c>
-      <c r="Z14">
-        <v>531000000</v>
-      </c>
-      <c r="AA14">
-        <v>542000000</v>
-      </c>
-      <c r="AB14">
-        <v>468000000</v>
-      </c>
-      <c r="AC14">
-        <v>424000000</v>
-      </c>
-      <c r="AD14">
-        <v>547000000</v>
-      </c>
-      <c r="AE14">
-        <v>509000000</v>
-      </c>
-      <c r="AF14">
-        <v>502000000</v>
-      </c>
-      <c r="AG14">
-        <v>459000000</v>
-      </c>
-      <c r="AH14">
-        <v>569000000</v>
-      </c>
-      <c r="AI14">
-        <v>537000000</v>
-      </c>
-      <c r="AJ14">
-        <v>463000000</v>
-      </c>
-      <c r="AK14">
-        <v>442000000</v>
-      </c>
-      <c r="AL14">
-        <v>471000000</v>
-      </c>
-      <c r="AM14">
-        <v>458000000</v>
-      </c>
-      <c r="AN14">
-        <v>470000000</v>
+        <v>346000000</v>
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>3861000000</v>
+        <v>100000000</v>
       </c>
       <c r="C15">
-        <v>83000000</v>
+        <v>379000000</v>
       </c>
       <c r="D15">
-        <v>1301000000</v>
+        <v>125000000</v>
       </c>
       <c r="E15">
-        <v>1337000000</v>
+        <v>252000000</v>
       </c>
       <c r="F15">
-        <v>1433000000</v>
+        <v>300000000</v>
       </c>
       <c r="G15">
-        <v>1523000000</v>
+        <v>331000000</v>
       </c>
       <c r="H15">
-        <v>1626000000</v>
+        <v>129000000</v>
       </c>
       <c r="I15">
-        <v>1410000000</v>
+        <v>295000000</v>
       </c>
       <c r="J15">
-        <v>1435000000</v>
+        <v>276000000</v>
       </c>
       <c r="K15">
-        <v>1303000000</v>
+        <v>112000000</v>
       </c>
       <c r="L15">
-        <v>1310000000</v>
+        <v>49000000</v>
       </c>
       <c r="M15">
-        <v>917000000</v>
+        <v>71000000</v>
       </c>
       <c r="N15">
-        <v>1588000000</v>
+        <v>133000000</v>
       </c>
       <c r="O15">
-        <v>1131000000</v>
+        <v>100000000</v>
       </c>
       <c r="P15">
-        <v>893000000</v>
+        <v>71000000</v>
       </c>
       <c r="Q15">
-        <v>1349000000</v>
+        <v>1000000</v>
       </c>
       <c r="R15">
-        <v>1546000000</v>
+        <v>167000000</v>
       </c>
       <c r="S15">
-        <v>1862000000</v>
+        <v>66000000</v>
       </c>
       <c r="T15">
-        <v>606000000</v>
+        <v>67000000</v>
       </c>
       <c r="U15">
-        <v>525000000</v>
+        <v>105000000</v>
       </c>
       <c r="V15">
-        <v>1433000000</v>
+        <v>136000000</v>
       </c>
       <c r="W15">
-        <v>1585000000</v>
+        <v>93000000</v>
       </c>
       <c r="X15">
-        <v>1326000000</v>
+        <v>79000000</v>
       </c>
       <c r="Y15">
-        <v>1156000000</v>
+        <v>69000000</v>
       </c>
       <c r="Z15">
-        <v>1331000000</v>
+        <v>135000000</v>
       </c>
       <c r="AA15">
-        <v>1293000000</v>
+        <v>81000000</v>
       </c>
       <c r="AB15">
-        <v>1278000000</v>
+        <v>68000000</v>
       </c>
       <c r="AC15">
-        <v>1039000000</v>
+        <v>69000000</v>
       </c>
       <c r="AD15">
-        <v>1298000000</v>
+        <v>99000000</v>
       </c>
       <c r="AE15">
-        <v>1303000000</v>
+        <v>94000000</v>
       </c>
       <c r="AF15">
-        <v>1201000000</v>
+        <v>69000000</v>
       </c>
       <c r="AG15">
-        <v>1179000000</v>
+        <v>63000000</v>
       </c>
       <c r="AH15">
-        <v>1311000000</v>
+        <v>104000000</v>
       </c>
       <c r="AI15">
-        <v>1283000000</v>
+        <v>63000000</v>
       </c>
       <c r="AJ15">
-        <v>1225000000</v>
+        <v>68000000</v>
       </c>
       <c r="AK15">
-        <v>1116000000</v>
+        <v>73000000</v>
       </c>
       <c r="AL15">
-        <v>1245000000</v>
+        <v>100000000</v>
       </c>
       <c r="AM15">
-        <v>1213000000</v>
+        <v>71000000</v>
       </c>
       <c r="AN15">
-        <v>1147000000</v>
+        <v>125000000</v>
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>4000000</v>
+        <v>-2688000000</v>
       </c>
       <c r="C16">
-        <v>4000000</v>
+        <v>-43755000000</v>
       </c>
       <c r="D16">
-        <v>4000000</v>
+        <v>5460000000</v>
       </c>
       <c r="E16">
-        <v>1000000</v>
+        <v>39646000000</v>
       </c>
       <c r="F16">
-        <v>3000000</v>
+        <v>10344000000</v>
       </c>
       <c r="G16">
-        <v>1000000</v>
+        <v>28094000000</v>
       </c>
       <c r="H16">
-        <v>3000000</v>
+        <v>11711000000</v>
       </c>
       <c r="I16">
-        <v>1000000</v>
+        <v>35835000000</v>
       </c>
       <c r="J16">
-        <v>4000000</v>
+        <v>30137000000</v>
       </c>
       <c r="K16">
-        <v>-3000000</v>
+        <v>26295000000</v>
       </c>
       <c r="L16">
-        <v>2000000</v>
+        <v>-49746000000</v>
       </c>
       <c r="M16">
-        <v>1000000</v>
+        <v>29159000000</v>
       </c>
       <c r="N16">
-        <v>5000000</v>
+        <v>16524000000</v>
       </c>
       <c r="O16">
-        <v>4000000</v>
+        <v>14073000000</v>
       </c>
       <c r="P16">
-        <v>2000000</v>
+        <v>21661000000</v>
       </c>
       <c r="Q16">
-        <v>2000000</v>
+        <v>-25392000000</v>
       </c>
       <c r="R16">
-        <v>3000000</v>
+        <v>18540000000</v>
       </c>
       <c r="S16">
-        <v>5000000</v>
+        <v>12011000000</v>
       </c>
       <c r="T16">
-        <v>4000000</v>
+        <v>-1138000000</v>
       </c>
       <c r="U16">
-        <v>2000000</v>
+        <v>32551000000</v>
       </c>
       <c r="V16">
-        <v>4000000</v>
+        <v>4067000000</v>
       </c>
       <c r="W16">
-        <v>2000000</v>
+        <v>4262000000</v>
       </c>
       <c r="X16">
-        <v>3000000</v>
+        <v>4060000000</v>
       </c>
       <c r="Y16">
-        <v>1000000</v>
+        <v>6286000000</v>
       </c>
       <c r="Z16">
-        <v>2000000</v>
+        <v>7198000000</v>
       </c>
       <c r="AA16">
-        <v>2000000</v>
+        <v>5001000000</v>
       </c>
       <c r="AB16">
-        <v>3000000</v>
+        <v>5589000000</v>
       </c>
       <c r="AC16">
-        <v>1000000</v>
+        <v>5478000000</v>
       </c>
       <c r="AD16">
-        <v>2000000</v>
+        <v>9428000000</v>
       </c>
       <c r="AE16">
-        <v>3000000</v>
+        <v>4013000000</v>
       </c>
       <c r="AF16">
-        <v>2000000</v>
+        <v>5164000000</v>
+      </c>
+      <c r="AG16">
+        <v>4155000000</v>
       </c>
       <c r="AH16">
-        <v>8000000</v>
+        <v>4617000000</v>
       </c>
       <c r="AI16">
-        <v>16000000</v>
+        <v>6395000000</v>
       </c>
       <c r="AJ16">
-        <v>18000000</v>
+        <v>4705000000</v>
       </c>
       <c r="AK16">
-        <v>13000000</v>
+        <v>4990000000</v>
       </c>
       <c r="AL16">
-        <v>15000000</v>
+        <v>5053000000</v>
       </c>
       <c r="AM16">
-        <v>16000000</v>
+        <v>4541000000</v>
       </c>
       <c r="AN16">
-        <v>18000000</v>
+        <v>4892000000</v>
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>3859000000</v>
+        <v>-1.22</v>
       </c>
       <c r="C17">
-        <v>78000000</v>
+        <v>-19.84</v>
       </c>
       <c r="D17">
-        <v>1299000000</v>
+        <v>2.47</v>
       </c>
       <c r="E17">
-        <v>1339000000</v>
+        <v>17.79</v>
       </c>
       <c r="F17">
-        <v>1434000000</v>
+        <v>4.59</v>
       </c>
       <c r="G17">
-        <v>1524000000</v>
+        <v>12.33</v>
       </c>
       <c r="H17">
-        <v>1624000000</v>
+        <v>5.09</v>
       </c>
       <c r="I17">
-        <v>1405000000</v>
+        <v>15.34</v>
       </c>
       <c r="J17">
-        <v>1430000000</v>
+        <v>12.66</v>
       </c>
       <c r="K17">
-        <v>1306000000</v>
+        <v>10.88</v>
       </c>
       <c r="L17">
-        <v>1308000000</v>
+        <v>-20.44</v>
       </c>
       <c r="M17">
-        <v>916000000</v>
+        <v>11.94</v>
       </c>
       <c r="N17">
-        <v>1583000000</v>
+        <v>6.75</v>
       </c>
       <c r="O17">
-        <v>1127000000</v>
+        <v>5.74</v>
       </c>
       <c r="P17">
-        <v>891000000</v>
+        <v>8.81</v>
       </c>
       <c r="Q17">
-        <v>1347000000</v>
+        <v>-10.31</v>
       </c>
       <c r="R17">
-        <v>1543000000</v>
+        <v>7.52</v>
       </c>
       <c r="S17">
-        <v>1857000000</v>
+        <v>4.87</v>
       </c>
       <c r="T17">
-        <v>602000000</v>
+        <v>-0.46</v>
       </c>
       <c r="U17">
-        <v>523000000</v>
+        <v>13.19</v>
       </c>
       <c r="V17">
-        <v>1429000000</v>
+        <v>1.65</v>
       </c>
       <c r="W17">
-        <v>1583000000</v>
+        <v>1.73</v>
       </c>
       <c r="X17">
-        <v>1323000000</v>
+        <v>1.65</v>
       </c>
       <c r="Y17">
-        <v>1155000000</v>
+        <v>2.55</v>
       </c>
       <c r="Z17">
-        <v>1329000000</v>
+        <v>2.92</v>
       </c>
       <c r="AA17">
-        <v>1291000000</v>
+        <v>2.03</v>
       </c>
       <c r="AB17">
-        <v>1275000000</v>
+        <v>2.27</v>
       </c>
       <c r="AC17">
-        <v>1038000000</v>
+        <v>2.22</v>
       </c>
       <c r="AD17">
-        <v>1296000000</v>
+        <v>3.82</v>
       </c>
       <c r="AE17">
-        <v>1300000000</v>
+        <v>1.63</v>
       </c>
       <c r="AF17">
-        <v>1199000000</v>
+        <v>2.1</v>
       </c>
       <c r="AG17">
-        <v>1179000000</v>
+        <v>1.69</v>
       </c>
       <c r="AH17">
-        <v>1303000000</v>
+        <v>1.87</v>
       </c>
       <c r="AI17">
-        <v>1267000000</v>
+        <v>2.59</v>
       </c>
       <c r="AJ17">
-        <v>1207000000</v>
+        <v>1.91</v>
       </c>
       <c r="AK17">
-        <v>1103000000</v>
+        <v>2.02</v>
       </c>
       <c r="AL17">
-        <v>1230000000</v>
+        <v>2.05</v>
       </c>
       <c r="AM17">
-        <v>1197000000</v>
+        <v>1.84</v>
       </c>
       <c r="AN17">
-        <v>1129000000</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>6.79</v>
+        <v>-1.22</v>
       </c>
       <c r="C18">
-        <v>0.14</v>
+        <v>-19.84</v>
       </c>
       <c r="D18">
+        <v>2.47</v>
+      </c>
+      <c r="E18">
+        <v>17.79</v>
+      </c>
+      <c r="F18">
+        <v>4.59</v>
+      </c>
+      <c r="G18">
+        <v>12.33</v>
+      </c>
+      <c r="H18">
+        <v>5.09</v>
+      </c>
+      <c r="I18">
+        <v>15.34</v>
+      </c>
+      <c r="J18">
+        <v>12.66</v>
+      </c>
+      <c r="K18">
+        <v>10.88</v>
+      </c>
+      <c r="L18">
+        <v>-20.44</v>
+      </c>
+      <c r="M18">
+        <v>11.94</v>
+      </c>
+      <c r="N18">
+        <v>6.75</v>
+      </c>
+      <c r="O18">
+        <v>5.74</v>
+      </c>
+      <c r="P18">
+        <v>8.81</v>
+      </c>
+      <c r="Q18">
+        <v>-10.31</v>
+      </c>
+      <c r="R18">
+        <v>7.52</v>
+      </c>
+      <c r="S18">
+        <v>4.87</v>
+      </c>
+      <c r="T18">
+        <v>-0.46</v>
+      </c>
+      <c r="U18">
+        <v>13.19</v>
+      </c>
+      <c r="V18">
+        <v>1.65</v>
+      </c>
+      <c r="W18">
+        <v>1.73</v>
+      </c>
+      <c r="X18">
+        <v>1.65</v>
+      </c>
+      <c r="Y18">
+        <v>2.55</v>
+      </c>
+      <c r="Z18">
+        <v>2.92</v>
+      </c>
+      <c r="AA18">
+        <v>2.03</v>
+      </c>
+      <c r="AB18">
         <v>2.27</v>
       </c>
-      <c r="E18">
-        <v>2.33</v>
-      </c>
-      <c r="F18">
-        <v>2.47</v>
-      </c>
-      <c r="G18">
-        <v>2.62</v>
-      </c>
-      <c r="H18">
-        <v>2.8</v>
-      </c>
-      <c r="I18">
-        <v>2.4</v>
-      </c>
-      <c r="J18">
-        <v>2.45</v>
-      </c>
-      <c r="K18">
-        <v>2.24</v>
-      </c>
-      <c r="L18">
-        <v>2.24</v>
-      </c>
-      <c r="M18">
-        <v>1.68</v>
-      </c>
-      <c r="N18">
-        <v>2.75</v>
-      </c>
-      <c r="O18">
-        <v>1.95</v>
-      </c>
-      <c r="P18">
-        <v>1.54</v>
-      </c>
-      <c r="Q18">
-        <v>2.32</v>
-      </c>
-      <c r="R18">
-        <v>2.64</v>
-      </c>
-      <c r="S18">
-        <v>3.14</v>
-      </c>
-      <c r="T18">
-        <v>1.01</v>
-      </c>
-      <c r="U18">
-        <v>0.88</v>
-      </c>
-      <c r="V18">
-        <v>2.39</v>
-      </c>
-      <c r="W18">
-        <v>2.65</v>
-      </c>
-      <c r="X18">
-        <v>2.21</v>
-      </c>
-      <c r="Y18">
-        <v>1.93</v>
-      </c>
-      <c r="Z18">
-        <v>2.2</v>
-      </c>
-      <c r="AA18">
-        <v>2.13</v>
-      </c>
-      <c r="AB18">
+      <c r="AC18">
+        <v>2.22</v>
+      </c>
+      <c r="AD18">
+        <v>3.82</v>
+      </c>
+      <c r="AE18">
+        <v>1.63</v>
+      </c>
+      <c r="AF18">
         <v>2.1</v>
       </c>
-      <c r="AC18">
+      <c r="AG18">
         <v>1.69</v>
       </c>
-      <c r="AD18">
-        <v>2.09</v>
-      </c>
-      <c r="AE18">
-        <v>2.06</v>
-      </c>
-      <c r="AF18">
-        <v>1.88</v>
-      </c>
-      <c r="AG18">
-        <v>1.85</v>
-      </c>
       <c r="AH18">
+        <v>1.87</v>
+      </c>
+      <c r="AI18">
+        <v>2.59</v>
+      </c>
+      <c r="AJ18">
+        <v>1.91</v>
+      </c>
+      <c r="AK18">
         <v>2.02</v>
       </c>
-      <c r="AI18">
-        <v>1.94</v>
-      </c>
-      <c r="AJ18">
-        <v>1.83</v>
-      </c>
-      <c r="AK18">
-        <v>1.65</v>
-      </c>
       <c r="AL18">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="AM18">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="AN18">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>6.77</v>
+        <v>2201886000</v>
       </c>
       <c r="C19">
-        <v>0.14</v>
+        <v>2207336000</v>
       </c>
       <c r="D19">
-        <v>2.26</v>
+        <v>2213529000</v>
       </c>
       <c r="E19">
-        <v>2.31</v>
+        <v>2266780000</v>
       </c>
       <c r="F19">
-        <v>2.45</v>
+        <v>2256022000</v>
       </c>
       <c r="G19">
-        <v>2.59</v>
+        <v>2280883000</v>
       </c>
       <c r="H19">
-        <v>2.77</v>
+        <v>2301459000</v>
       </c>
       <c r="I19">
-        <v>2.38</v>
+        <v>2393298000</v>
       </c>
       <c r="J19">
-        <v>2.43</v>
+        <v>2381633000</v>
       </c>
       <c r="K19">
-        <v>2.22</v>
+        <v>2419252000</v>
       </c>
       <c r="L19">
-        <v>2.22</v>
+        <v>2435956000</v>
       </c>
       <c r="M19">
-        <v>1.66</v>
+        <v>2452553000</v>
       </c>
       <c r="N19">
-        <v>2.72</v>
+        <v>2451135000</v>
       </c>
       <c r="O19">
-        <v>1.92</v>
+        <v>2454077000</v>
       </c>
       <c r="P19">
-        <v>1.51</v>
+        <v>2461372000</v>
       </c>
       <c r="Q19">
-        <v>2.27</v>
+        <v>2467336000</v>
       </c>
       <c r="R19">
-        <v>2.58</v>
+        <v>2466977000</v>
       </c>
       <c r="S19">
-        <v>3.07</v>
+        <v>2469231000</v>
       </c>
       <c r="T19">
-        <v>0.98</v>
+        <v>2469082000</v>
       </c>
       <c r="U19">
-        <v>0.85</v>
+        <v>2468568000</v>
       </c>
       <c r="V19">
-        <v>2.33</v>
+        <v>1332950000</v>
       </c>
       <c r="W19">
-        <v>2.58</v>
+        <v>2468515000</v>
       </c>
       <c r="X19">
-        <v>2.16</v>
+        <v>2468281000</v>
       </c>
       <c r="Y19">
-        <v>1.88</v>
+        <v>2467383000</v>
       </c>
       <c r="Z19">
-        <v>2.15</v>
+        <v>2467513000</v>
       </c>
       <c r="AA19">
-        <v>2.08</v>
+        <v>2467261000</v>
       </c>
       <c r="AB19">
-        <v>2.05</v>
+        <v>2466874000</v>
       </c>
       <c r="AC19">
-        <v>1.66</v>
+        <v>2466417000</v>
       </c>
       <c r="AD19">
-        <v>2.05</v>
+        <v>2466617000</v>
       </c>
       <c r="AE19">
-        <v>2.02</v>
+        <v>2466269000</v>
       </c>
       <c r="AF19">
-        <v>1.85</v>
+        <v>2466069000</v>
       </c>
       <c r="AG19">
-        <v>1.81</v>
+        <v>2466827000</v>
       </c>
       <c r="AH19">
-        <v>1.98</v>
+        <v>2465479000</v>
       </c>
       <c r="AI19">
-        <v>1.91</v>
+        <v>2468199000</v>
       </c>
       <c r="AJ19">
-        <v>1.79</v>
+        <v>2467733000</v>
       </c>
       <c r="AK19">
-        <v>1.62</v>
+        <v>2468707000</v>
       </c>
       <c r="AL19">
-        <v>1.78</v>
+        <v>2467312000</v>
       </c>
       <c r="AM19">
-        <v>1.71</v>
+        <v>2467042000</v>
       </c>
       <c r="AN19">
-        <v>1.61</v>
+        <v>2466415000</v>
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>568800000</v>
+        <v>2201886000</v>
       </c>
       <c r="C20">
-        <v>571000000</v>
+        <v>2207336000</v>
       </c>
       <c r="D20">
-        <v>572300000</v>
+        <v>2213529000</v>
       </c>
       <c r="E20">
-        <v>579000000</v>
+        <v>2266780000</v>
       </c>
       <c r="F20">
-        <v>579600000</v>
+        <v>2256022000</v>
       </c>
       <c r="G20">
-        <v>581000000</v>
+        <v>2280883000</v>
       </c>
       <c r="H20">
-        <v>580500000</v>
+        <v>2301459000</v>
       </c>
       <c r="I20">
-        <v>577600000</v>
+        <v>2393298000</v>
       </c>
       <c r="J20">
-        <v>577800000</v>
+        <v>2381633000</v>
       </c>
       <c r="K20">
-        <v>577000000</v>
+        <v>2419252000</v>
       </c>
       <c r="L20">
-        <v>576800000</v>
+        <v>2435956000</v>
       </c>
       <c r="M20">
-        <v>577000000</v>
+        <v>2452553000</v>
       </c>
       <c r="N20">
-        <v>576500000</v>
+        <v>2451135000</v>
       </c>
       <c r="O20">
-        <v>577700000</v>
+        <v>2454077000</v>
       </c>
       <c r="P20">
-        <v>577500000</v>
+        <v>2461372000</v>
       </c>
       <c r="Q20">
-        <v>588500000</v>
+        <v>2467336000</v>
       </c>
       <c r="R20">
-        <v>585600000</v>
+        <v>2466977000</v>
       </c>
       <c r="S20">
-        <v>591400000</v>
+        <v>2469231000</v>
       </c>
       <c r="T20">
-        <v>596200000</v>
+        <v>2469082000</v>
       </c>
       <c r="U20">
-        <v>597500000</v>
+        <v>2468568000</v>
       </c>
       <c r="V20">
-        <v>597600000</v>
+        <v>1332950000</v>
       </c>
       <c r="W20">
-        <v>598100000</v>
+        <v>2468515000</v>
       </c>
       <c r="X20">
-        <v>598100000</v>
+        <v>2468281000</v>
       </c>
       <c r="Y20">
-        <v>604700000</v>
+        <v>2467383000</v>
       </c>
       <c r="Z20">
-        <v>604400000</v>
+        <v>2467513000</v>
       </c>
       <c r="AA20">
-        <v>606900000</v>
+        <v>2467261000</v>
       </c>
       <c r="AB20">
-        <v>607400000</v>
+        <v>2466874000</v>
       </c>
       <c r="AC20">
-        <v>625600000</v>
+        <v>2466417000</v>
       </c>
       <c r="AD20">
-        <v>620600000</v>
+        <v>2466617000</v>
       </c>
       <c r="AE20">
-        <v>631300000</v>
+        <v>2466269000</v>
       </c>
       <c r="AF20">
-        <v>636200000</v>
+        <v>2466069000</v>
       </c>
       <c r="AG20">
-        <v>649200000</v>
+        <v>2466828000</v>
       </c>
       <c r="AH20">
-        <v>645300000</v>
+        <v>2465479000</v>
       </c>
       <c r="AI20">
-        <v>652000000</v>
+        <v>2468199000</v>
       </c>
       <c r="AJ20">
-        <v>661500000</v>
+        <v>2467732000</v>
       </c>
       <c r="AK20">
-        <v>681900000</v>
+        <v>2468707000</v>
       </c>
       <c r="AL20">
-        <v>679800000</v>
+        <v>2467312000</v>
       </c>
       <c r="AM20">
-        <v>688200000</v>
+        <v>2467042000</v>
       </c>
       <c r="AN20">
-        <v>691100000</v>
+        <v>2466415000</v>
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>570000000</v>
+        <v>0.7405</v>
       </c>
       <c r="C21">
-        <v>572700000</v>
+        <v>0.7721</v>
       </c>
       <c r="D21">
-        <v>575000000</v>
+        <v>0.754</v>
       </c>
       <c r="E21">
-        <v>585300000</v>
+        <v>0.7544</v>
       </c>
       <c r="F21">
-        <v>586300000</v>
+        <v>0.7344000000000001</v>
       </c>
       <c r="G21">
-        <v>588600000</v>
+        <v>0.7584</v>
       </c>
       <c r="H21">
-        <v>586300000</v>
+        <v>0.7607</v>
       </c>
       <c r="I21">
-        <v>582200000</v>
+        <v>0.7433</v>
       </c>
       <c r="J21">
-        <v>582400000</v>
+        <v>0.7429</v>
       </c>
       <c r="K21">
-        <v>580800000</v>
+        <v>0.7442</v>
       </c>
       <c r="L21">
-        <v>581500000</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="M21">
-        <v>585100000</v>
+        <v>0.7298</v>
       </c>
       <c r="N21">
-        <v>583000000</v>
+        <v>0.7731</v>
       </c>
       <c r="O21">
-        <v>586100000</v>
+        <v>0.7735</v>
       </c>
       <c r="P21">
-        <v>588500000</v>
+        <v>0.772</v>
       </c>
       <c r="Q21">
-        <v>602000000</v>
+        <v>0.7509</v>
       </c>
       <c r="R21">
-        <v>598400000</v>
+        <v>0.7836</v>
       </c>
       <c r="S21">
-        <v>604200000</v>
+        <v>0.7919</v>
       </c>
       <c r="T21">
-        <v>612700000</v>
+        <v>0.7802</v>
       </c>
       <c r="U21">
-        <v>612700000</v>
+        <v>0.7661</v>
       </c>
       <c r="V21">
-        <v>612700000</v>
+        <v>0.7386</v>
       </c>
       <c r="W21">
-        <v>612800000</v>
+        <v>0.7836</v>
       </c>
       <c r="X21">
-        <v>612000000</v>
+        <v>0.6562</v>
       </c>
       <c r="Y21">
-        <v>618700000</v>
+        <v>0.7647</v>
       </c>
       <c r="Z21">
-        <v>618800000</v>
+        <v>0.8138</v>
       </c>
       <c r="AA21">
-        <v>620900000</v>
+        <v>0.8104</v>
       </c>
       <c r="AB21">
-        <v>621300000</v>
+        <v>0.7934</v>
       </c>
       <c r="AC21">
-        <v>637200000</v>
+        <v>0.8008</v>
       </c>
       <c r="AD21">
-        <v>631200000</v>
+        <v>0.8327</v>
       </c>
       <c r="AE21">
-        <v>643000000</v>
+        <v>0.7966</v>
       </c>
       <c r="AF21">
-        <v>649200000</v>
+        <v>0.8192</v>
       </c>
       <c r="AG21">
-        <v>662000000</v>
+        <v>0.8041</v>
       </c>
       <c r="AH21">
-        <v>657900000</v>
+        <v>0.7707000000000001</v>
       </c>
       <c r="AI21">
-        <v>664600000</v>
+        <v>0.8255</v>
       </c>
       <c r="AJ21">
-        <v>674500000</v>
+        <v>0.8086</v>
       </c>
       <c r="AK21">
-        <v>693600000</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AL21">
-        <v>691800000</v>
+        <v>0.8065</v>
       </c>
       <c r="AM21">
-        <v>699100000</v>
+        <v>0.8212</v>
       </c>
       <c r="AN21">
-        <v>702100000</v>
+        <v>0.8179</v>
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.4514</v>
+        <v>-0.2029</v>
       </c>
       <c r="C22">
-        <v>0.4147</v>
+        <v>-1.5755</v>
       </c>
       <c r="D22">
-        <v>0.4534</v>
+        <v>0.0939</v>
       </c>
       <c r="E22">
-        <v>0.4545</v>
+        <v>1.2762</v>
       </c>
       <c r="F22">
-        <v>0.4573</v>
+        <v>0.2786</v>
       </c>
       <c r="G22">
-        <v>0.4727</v>
+        <v>0.9493</v>
       </c>
       <c r="H22">
-        <v>0.4888</v>
+        <v>0.3424</v>
       </c>
       <c r="I22">
-        <v>0.4888</v>
+        <v>1.3487</v>
       </c>
       <c r="J22">
-        <v>0.4847</v>
+        <v>1.1377</v>
       </c>
       <c r="K22">
-        <v>0.4698</v>
+        <v>1.5566</v>
       </c>
       <c r="L22">
-        <v>0.4911</v>
+        <v>-2.1505</v>
       </c>
       <c r="M22">
-        <v>0.4668</v>
+        <v>1.0704</v>
       </c>
       <c r="N22">
-        <v>0.4759</v>
+        <v>0.5066000000000001</v>
       </c>
       <c r="O22">
-        <v>0.4722</v>
+        <v>0.4694</v>
       </c>
       <c r="P22">
-        <v>0.4519</v>
+        <v>0.8149</v>
       </c>
       <c r="Q22">
-        <v>0.489</v>
+        <v>-0.9848</v>
       </c>
       <c r="R22">
-        <v>0.4898</v>
+        <v>0.6238</v>
       </c>
       <c r="S22">
-        <v>0.4962</v>
+        <v>0.3734</v>
       </c>
       <c r="T22">
-        <v>0.4883</v>
+        <v>-0.1405</v>
       </c>
       <c r="U22">
-        <v>0.4876</v>
+        <v>0.141</v>
       </c>
       <c r="V22">
-        <v>0.5033</v>
+        <v>0.1264</v>
       </c>
       <c r="W22">
-        <v>0.4853</v>
+        <v>0.1311</v>
       </c>
       <c r="X22">
-        <v>0.4949</v>
+        <v>0.1126</v>
       </c>
       <c r="Y22">
-        <v>0.4823</v>
+        <v>0.4125</v>
       </c>
       <c r="Z22">
-        <v>0.501</v>
+        <v>0.1928</v>
       </c>
       <c r="AA22">
-        <v>0.5042</v>
+        <v>0.1455</v>
       </c>
       <c r="AB22">
-        <v>0.5036</v>
+        <v>0.1417</v>
       </c>
       <c r="AC22">
-        <v>0.4756</v>
+        <v>0.16</v>
       </c>
       <c r="AD22">
-        <v>0.4973</v>
+        <v>0.2532</v>
       </c>
       <c r="AE22">
-        <v>0.498</v>
+        <v>0.1326</v>
       </c>
       <c r="AF22">
-        <v>0.4958</v>
+        <v>0.1752</v>
       </c>
       <c r="AG22">
-        <v>0.4783</v>
+        <v>0.1387</v>
       </c>
       <c r="AH22">
-        <v>0.4832</v>
+        <v>0.1478</v>
       </c>
       <c r="AI22">
-        <v>0.4856</v>
+        <v>0.1957</v>
       </c>
       <c r="AJ22">
-        <v>0.4853</v>
+        <v>0.1624</v>
       </c>
       <c r="AK22">
-        <v>0.4747</v>
+        <v>0.169</v>
       </c>
       <c r="AL22">
-        <v>0.476</v>
+        <v>0.1737</v>
       </c>
       <c r="AM22">
-        <v>0.4823</v>
+        <v>0.1696</v>
       </c>
       <c r="AN22">
-        <v>0.4801</v>
+        <v>0.1819</v>
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.4822</v>
+        <v>-0.0592</v>
       </c>
       <c r="C23">
-        <v>0.0126</v>
+        <v>-0.7313</v>
       </c>
       <c r="D23">
-        <v>0.1859</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="E23">
-        <v>0.1876</v>
+        <v>0.6788</v>
       </c>
       <c r="F23">
-        <v>0.2</v>
+        <v>0.1715</v>
       </c>
       <c r="G23">
-        <v>0.2202</v>
+        <v>0.5147</v>
       </c>
       <c r="H23">
-        <v>0.2253</v>
+        <v>0.221</v>
       </c>
       <c r="I23">
-        <v>0.2154</v>
+        <v>0.6945</v>
       </c>
       <c r="J23">
-        <v>0.2286</v>
+        <v>0.5972</v>
       </c>
       <c r="K23">
-        <v>0.2425</v>
+        <v>0.6274999999999999</v>
       </c>
       <c r="L23">
-        <v>0.2059</v>
+        <v>-1.0291</v>
       </c>
       <c r="M23">
-        <v>0.1634</v>
+        <v>0.5567</v>
       </c>
       <c r="N23">
-        <v>0.2517</v>
+        <v>0.3054</v>
       </c>
       <c r="O23">
-        <v>0.2083</v>
+        <v>0.2773</v>
       </c>
       <c r="P23">
-        <v>0.1445</v>
+        <v>0.4556</v>
       </c>
       <c r="Q23">
-        <v>0.2244</v>
+        <v>-0.4746</v>
       </c>
       <c r="R23">
-        <v>0.2473</v>
+        <v>0.3598</v>
       </c>
       <c r="S23">
-        <v>0.2862</v>
+        <v>0.2427</v>
       </c>
       <c r="T23">
-        <v>0.1216</v>
+        <v>-0.026</v>
       </c>
       <c r="U23">
-        <v>0.2239</v>
+        <v>0.0633</v>
       </c>
       <c r="V23">
-        <v>0.2457</v>
+        <v>0.0946</v>
       </c>
       <c r="W23">
-        <v>0.2757</v>
+        <v>0.101</v>
       </c>
       <c r="X23">
-        <v>0.2267</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="Y23">
-        <v>0.2004</v>
+        <v>0.1646</v>
       </c>
       <c r="Z23">
-        <v>0.247</v>
+        <v>0.1789</v>
       </c>
       <c r="AA23">
-        <v>0.2435</v>
+        <v>0.1359</v>
       </c>
       <c r="AB23">
-        <v>0.2413</v>
+        <v>0.1238</v>
       </c>
       <c r="AC23">
-        <v>0.2055</v>
+        <v>0.1421</v>
       </c>
       <c r="AD23">
-        <v>0.2433</v>
+        <v>0.2386</v>
       </c>
       <c r="AE23">
-        <v>0.2394</v>
+        <v>0.1138</v>
       </c>
       <c r="AF23">
-        <v>0.2283</v>
+        <v>0.1572</v>
       </c>
       <c r="AG23">
-        <v>0.2153</v>
+        <v>0.121</v>
       </c>
       <c r="AH23">
-        <v>0.2336</v>
+        <v>0.1318</v>
       </c>
       <c r="AI23">
-        <v>0.2282</v>
+        <v>0.1792</v>
       </c>
       <c r="AJ23">
-        <v>0.2191</v>
+        <v>0.1452</v>
       </c>
       <c r="AK23">
-        <v>0.2086</v>
+        <v>0.1537</v>
       </c>
       <c r="AL23">
-        <v>0.2197</v>
+        <v>0.1585</v>
       </c>
       <c r="AM23">
-        <v>0.2196</v>
+        <v>0.1542</v>
       </c>
       <c r="AN23">
-        <v>0.2156</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.4794</v>
+        <v>-0.0349</v>
       </c>
       <c r="C24">
-        <v>0.0069</v>
+        <v>-0.5744</v>
       </c>
       <c r="D24">
-        <v>0.1816</v>
+        <v>0.0771</v>
       </c>
       <c r="E24">
-        <v>0.1816</v>
+        <v>0.5522</v>
       </c>
       <c r="F24">
-        <v>0.1965</v>
+        <v>0.1466</v>
       </c>
       <c r="G24">
-        <v>0.2165</v>
+        <v>0.4065</v>
       </c>
       <c r="H24">
-        <v>0.2197</v>
+        <v>0.1813</v>
       </c>
       <c r="I24">
-        <v>0.2017</v>
+        <v>0.5566</v>
       </c>
       <c r="J24">
-        <v>0.2187</v>
+        <v>0.4782</v>
       </c>
       <c r="K24">
-        <v>0.2299</v>
+        <v>0.4626</v>
       </c>
       <c r="L24">
-        <v>0.1967</v>
+        <v>-0.8120000000000001</v>
       </c>
       <c r="M24">
-        <v>0.1409</v>
+        <v>0.4461</v>
       </c>
       <c r="N24">
-        <v>0.246</v>
+        <v>0.2543</v>
       </c>
       <c r="O24">
-        <v>0.177</v>
+        <v>0.2213</v>
       </c>
       <c r="P24">
-        <v>0.1384</v>
+        <v>0.357</v>
       </c>
       <c r="Q24">
-        <v>0.2165</v>
+        <v>-0.3985</v>
       </c>
       <c r="R24">
-        <v>0.241</v>
+        <v>0.2922</v>
       </c>
       <c r="S24">
-        <v>0.2801</v>
+        <v>0.1931</v>
       </c>
       <c r="T24">
-        <v>0.1166</v>
+        <v>-0.0195</v>
       </c>
       <c r="U24">
-        <v>0.2093</v>
+        <v>0.5536</v>
       </c>
       <c r="V24">
-        <v>0.2444</v>
+        <v>0.0683</v>
       </c>
       <c r="W24">
-        <v>0.2743</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="X24">
-        <v>0.226</v>
+        <v>0.0631</v>
       </c>
       <c r="Y24">
-        <v>0.2197</v>
+        <v>0.1261</v>
       </c>
       <c r="Z24">
-        <v>0.2415</v>
+        <v>0.1223</v>
       </c>
       <c r="AA24">
-        <v>0.2395</v>
+        <v>0.0922</v>
       </c>
       <c r="AB24">
-        <v>0.2357</v>
+        <v>0.1071</v>
       </c>
       <c r="AC24">
-        <v>0.2005</v>
+        <v>0.1055</v>
       </c>
       <c r="AD24">
-        <v>0.2392</v>
+        <v>0.1598</v>
       </c>
       <c r="AE24">
-        <v>0.2358</v>
+        <v>0.0781</v>
       </c>
       <c r="AF24">
-        <v>0.2247</v>
+        <v>0.1062</v>
       </c>
       <c r="AG24">
-        <v>0.2122</v>
+        <v>0.0861</v>
       </c>
       <c r="AH24">
-        <v>0.231</v>
+        <v>0.0902</v>
       </c>
       <c r="AI24">
-        <v>0.2238</v>
+        <v>0.1285</v>
       </c>
       <c r="AJ24">
-        <v>0.2156</v>
+        <v>0.1035</v>
       </c>
       <c r="AK24">
-        <v>0.2058</v>
+        <v>0.1061</v>
       </c>
       <c r="AL24">
-        <v>0.2168</v>
+        <v>0.1086</v>
       </c>
       <c r="AM24">
-        <v>0.2156</v>
+        <v>0.1016</v>
       </c>
       <c r="AN24">
-        <v>0.2118</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.4477</v>
+        <v>-12883000000</v>
       </c>
       <c r="C25">
-        <v>0.008999999999999999</v>
+        <v>-117308000000</v>
       </c>
       <c r="D25">
-        <v>0.1471</v>
+        <v>9351000000</v>
       </c>
       <c r="E25">
-        <v>0.1555</v>
+        <v>94332000000</v>
       </c>
       <c r="F25">
-        <v>0.1604</v>
+        <v>22334000000</v>
       </c>
       <c r="G25">
-        <v>0.1703</v>
+        <v>68279000000</v>
       </c>
       <c r="H25">
-        <v>0.1835</v>
+        <v>24793000000</v>
       </c>
       <c r="I25">
-        <v>0.1637</v>
+        <v>89736000000</v>
       </c>
       <c r="J25">
-        <v>0.1713</v>
+        <v>74286000000</v>
       </c>
       <c r="K25">
-        <v>0.182</v>
+        <v>91003000000</v>
       </c>
       <c r="L25">
-        <v>0.162</v>
+        <v>-129166000000</v>
       </c>
       <c r="M25">
-        <v>0.1129</v>
+        <v>72630000000</v>
       </c>
       <c r="N25">
-        <v>0.1981</v>
+        <v>35452000000</v>
       </c>
       <c r="O25">
-        <v>0.1379</v>
+        <v>32306000000</v>
       </c>
       <c r="P25">
-        <v>0.1133</v>
+        <v>51862000000</v>
       </c>
       <c r="Q25">
-        <v>0.1695</v>
+        <v>-60136000000</v>
       </c>
       <c r="R25">
-        <v>0.1893</v>
+        <v>41976000000</v>
       </c>
       <c r="S25">
-        <v>0.2213</v>
+        <v>25610000000</v>
       </c>
       <c r="T25">
-        <v>0.0727</v>
+        <v>-5828000000</v>
       </c>
       <c r="U25">
-        <v>0.0655</v>
+        <v>10642000000</v>
       </c>
       <c r="V25">
-        <v>0.1749</v>
+        <v>9819000000</v>
       </c>
       <c r="W25">
-        <v>0.2027</v>
+        <v>9804000000</v>
       </c>
       <c r="X25">
-        <v>0.1722</v>
+        <v>9492000000</v>
       </c>
       <c r="Y25">
-        <v>0.1576</v>
+        <v>14559000000</v>
       </c>
       <c r="Z25">
-        <v>0.1724</v>
+        <v>13589000000</v>
       </c>
       <c r="AA25">
-        <v>0.1685</v>
+        <v>10127000000</v>
       </c>
       <c r="AB25">
-        <v>0.1721</v>
+        <v>9514000000</v>
       </c>
       <c r="AC25">
-        <v>0.1422</v>
+        <v>10289000000</v>
       </c>
       <c r="AD25">
-        <v>0.168</v>
+        <v>16926000000</v>
       </c>
       <c r="AE25">
-        <v>0.1691</v>
+        <v>8754000000</v>
       </c>
       <c r="AF25">
-        <v>0.1582</v>
+        <v>10393000000</v>
       </c>
       <c r="AG25">
-        <v>0.1527</v>
+        <v>8631000000</v>
       </c>
       <c r="AH25">
-        <v>0.1601</v>
+        <v>9421000000</v>
       </c>
       <c r="AI25">
-        <v>0.1558</v>
+        <v>11550000000</v>
       </c>
       <c r="AJ25">
-        <v>0.1541</v>
+        <v>9152000000</v>
       </c>
       <c r="AK25">
-        <v>0.1457</v>
+        <v>9625000000</v>
       </c>
       <c r="AL25">
-        <v>0.1554</v>
+        <v>9700000000</v>
       </c>
       <c r="AM25">
-        <v>0.1544</v>
+        <v>9198000000</v>
       </c>
       <c r="AN25">
-        <v>0.1479</v>
+        <v>9582000000</v>
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>4606000000</v>
+        <v>-15611000000</v>
       </c>
       <c r="C26">
-        <v>572000000</v>
+        <v>-120018000000</v>
       </c>
       <c r="D26">
-        <v>2100000000</v>
+        <v>6648000000</v>
       </c>
       <c r="E26">
-        <v>2123000000</v>
+        <v>91627000000</v>
       </c>
       <c r="F26">
-        <v>2264000000</v>
+        <v>19666000000</v>
       </c>
       <c r="G26">
-        <v>2443000000</v>
+        <v>65607000000</v>
       </c>
       <c r="H26">
-        <v>2454000000</v>
+        <v>22120000000</v>
       </c>
       <c r="I26">
-        <v>2347000000</v>
+        <v>86832000000</v>
       </c>
       <c r="J26">
-        <v>2390000000</v>
+        <v>71703000000</v>
       </c>
       <c r="K26">
-        <v>2232000000</v>
+        <v>88479000000</v>
       </c>
       <c r="L26">
-        <v>2103000000</v>
+        <v>-131751000000</v>
       </c>
       <c r="M26">
-        <v>1788000000</v>
+        <v>69973000000</v>
       </c>
       <c r="N26">
-        <v>2390000000</v>
+        <v>32918000000</v>
       </c>
       <c r="O26">
-        <v>2078000000</v>
+        <v>29850000000</v>
       </c>
       <c r="P26">
-        <v>1511000000</v>
+        <v>49445000000</v>
       </c>
       <c r="Q26">
-        <v>2154000000</v>
+        <v>-62746000000</v>
       </c>
       <c r="R26">
-        <v>2371000000</v>
+        <v>39581000000</v>
       </c>
       <c r="S26">
-        <v>2781000000</v>
+        <v>23223000000</v>
       </c>
       <c r="T26">
-        <v>1389000000</v>
+        <v>-8215000000</v>
       </c>
       <c r="U26">
-        <v>2138000000</v>
+        <v>8289000000</v>
       </c>
       <c r="V26">
-        <v>2385000000</v>
+        <v>7523000000</v>
       </c>
       <c r="W26">
-        <v>2533000000</v>
+        <v>7508000000</v>
       </c>
       <c r="X26">
-        <v>2180000000</v>
+        <v>7249000000</v>
       </c>
       <c r="Y26">
-        <v>1853000000</v>
+        <v>20567000000</v>
       </c>
       <c r="Z26">
-        <v>2272000000</v>
+        <v>11343000000</v>
       </c>
       <c r="AA26">
-        <v>2232000000</v>
+        <v>7893000000</v>
       </c>
       <c r="AB26">
-        <v>2144000000</v>
+        <v>7389000000</v>
       </c>
       <c r="AC26">
-        <v>1897000000</v>
+        <v>8311000000</v>
       </c>
       <c r="AD26">
-        <v>2231000000</v>
+        <v>14937000000</v>
       </c>
       <c r="AE26">
-        <v>2184000000</v>
+        <v>6813000000</v>
       </c>
       <c r="AF26">
-        <v>2069000000</v>
+        <v>8522000000</v>
       </c>
       <c r="AG26">
-        <v>2012000000</v>
+        <v>6697000000</v>
       </c>
       <c r="AH26">
-        <v>2251000000</v>
+        <v>7567000000</v>
       </c>
       <c r="AI26">
-        <v>2214000000</v>
+        <v>9740000000</v>
       </c>
       <c r="AJ26">
-        <v>2066000000</v>
+        <v>7380000000</v>
       </c>
       <c r="AK26">
-        <v>1936000000</v>
+        <v>7950000000</v>
       </c>
       <c r="AL26">
-        <v>2082000000</v>
+        <v>8084000000</v>
       </c>
       <c r="AM26">
-        <v>2037000000</v>
+        <v>7582000000</v>
       </c>
       <c r="AN26">
-        <v>1982000000</v>
+        <v>7981000000</v>
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>4156000000</v>
+        <v>-2588000000</v>
       </c>
       <c r="C27">
-        <v>110000000</v>
+        <v>-43376000000</v>
       </c>
       <c r="D27">
-        <v>1641000000</v>
+        <v>5585000000</v>
       </c>
       <c r="E27">
-        <v>1616000000</v>
+        <v>39898000000</v>
       </c>
       <c r="F27">
-        <v>1788000000</v>
+        <v>10644000000</v>
       </c>
       <c r="G27">
-        <v>1971000000</v>
+        <v>28425000000</v>
       </c>
       <c r="H27">
-        <v>1994000000</v>
+        <v>11840000000</v>
       </c>
       <c r="I27">
-        <v>1849000000</v>
+        <v>36130000000</v>
       </c>
       <c r="J27">
-        <v>1909000000</v>
+        <v>30413000000</v>
       </c>
       <c r="K27">
-        <v>1740000000</v>
+        <v>26407000000</v>
       </c>
       <c r="L27">
-        <v>1663000000</v>
+        <v>-49697000000</v>
       </c>
       <c r="M27">
-        <v>1325000000</v>
+        <v>29230000000</v>
       </c>
       <c r="N27">
-        <v>2011000000</v>
+        <v>16657000000</v>
       </c>
       <c r="O27">
-        <v>1702000000</v>
+        <v>14173000000</v>
       </c>
       <c r="P27">
-        <v>1136000000</v>
+        <v>21732000000</v>
       </c>
       <c r="Q27">
-        <v>1783000000</v>
+        <v>-25391000000</v>
       </c>
       <c r="R27">
-        <v>2016000000</v>
+        <v>18707000000</v>
       </c>
       <c r="S27">
-        <v>2401000000</v>
+        <v>12077000000</v>
       </c>
       <c r="T27">
-        <v>1007000000</v>
+        <v>-1071000000</v>
       </c>
       <c r="U27">
-        <v>1789000000</v>
+        <v>32656000000</v>
       </c>
       <c r="V27">
-        <v>2008000000</v>
+        <v>4203000000</v>
       </c>
       <c r="W27">
-        <v>2153000000</v>
+        <v>4355000000</v>
       </c>
       <c r="X27">
-        <v>1742000000</v>
+        <v>4139000000</v>
       </c>
       <c r="Y27">
-        <v>1469000000</v>
+        <v>6355000000</v>
       </c>
       <c r="Z27">
-        <v>1904000000</v>
+        <v>7333000000</v>
       </c>
       <c r="AA27">
-        <v>1866000000</v>
+        <v>5082000000</v>
       </c>
       <c r="AB27">
-        <v>1788000000</v>
+        <v>5657000000</v>
       </c>
       <c r="AC27">
-        <v>1500000000</v>
+        <v>5547000000</v>
       </c>
       <c r="AD27">
-        <v>1876000000</v>
+        <v>9527000000</v>
       </c>
       <c r="AE27">
-        <v>1840000000</v>
+        <v>4107000000</v>
       </c>
       <c r="AF27">
-        <v>1730000000</v>
+        <v>5233000000</v>
       </c>
       <c r="AG27">
-        <v>1662000000</v>
+        <v>4218000000</v>
       </c>
       <c r="AH27">
-        <v>1901000000</v>
+        <v>4721000000</v>
       </c>
       <c r="AI27">
-        <v>1856000000</v>
+        <v>6458000000</v>
       </c>
       <c r="AJ27">
-        <v>1716000000</v>
+        <v>4773000000</v>
       </c>
       <c r="AK27">
-        <v>1579000000</v>
+        <v>5063000000</v>
       </c>
       <c r="AL27">
-        <v>1739000000</v>
+        <v>5153000000</v>
       </c>
       <c r="AM27">
-        <v>1702000000</v>
+        <v>4612000000</v>
       </c>
       <c r="AN27">
-        <v>1646000000</v>
+        <v>5017000000</v>
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>3863000000</v>
+        <v>-2588000000</v>
       </c>
       <c r="C28">
-        <v>82000000</v>
+        <v>-43376000000</v>
       </c>
       <c r="D28">
-        <v>1303000000</v>
+        <v>5585000000</v>
       </c>
       <c r="E28">
-        <v>1340000000</v>
+        <v>39898000000</v>
       </c>
       <c r="F28">
-        <v>1437000000</v>
+        <v>10644000000</v>
       </c>
       <c r="G28">
-        <v>1525000000</v>
+        <v>28425000000</v>
       </c>
       <c r="H28">
-        <v>1627000000</v>
+        <v>11840000000</v>
       </c>
       <c r="I28">
-        <v>1406000000</v>
+        <v>36130000000</v>
       </c>
       <c r="J28">
-        <v>1434000000</v>
+        <v>30413000000</v>
       </c>
       <c r="K28">
-        <v>1303000000</v>
+        <v>26407000000</v>
       </c>
       <c r="L28">
-        <v>1310000000</v>
+        <v>-49697000000</v>
       </c>
       <c r="M28">
-        <v>917000000</v>
+        <v>29230000000</v>
       </c>
       <c r="N28">
-        <v>1588000000</v>
+        <v>16657000000</v>
       </c>
       <c r="O28">
-        <v>1131000000</v>
+        <v>14173000000</v>
       </c>
       <c r="P28">
-        <v>893000000</v>
+        <v>21732000000</v>
       </c>
       <c r="Q28">
-        <v>1349000000</v>
+        <v>-25391000000</v>
       </c>
       <c r="R28">
-        <v>1546000000</v>
+        <v>18707000000</v>
       </c>
       <c r="S28">
-        <v>1862000000</v>
+        <v>12077000000</v>
       </c>
       <c r="T28">
-        <v>606000000</v>
+        <v>-1071000000</v>
       </c>
       <c r="U28">
-        <v>525000000</v>
+        <v>32656000000</v>
       </c>
       <c r="V28">
-        <v>1433000000</v>
+        <v>4203000000</v>
       </c>
       <c r="W28">
-        <v>1585000000</v>
+        <v>4355000000</v>
       </c>
       <c r="X28">
-        <v>1326000000</v>
+        <v>4139000000</v>
       </c>
       <c r="Y28">
-        <v>1156000000</v>
+        <v>6355000000</v>
       </c>
       <c r="Z28">
-        <v>1331000000</v>
+        <v>7333000000</v>
       </c>
       <c r="AA28">
-        <v>1293000000</v>
+        <v>5082000000</v>
       </c>
       <c r="AB28">
-        <v>1278000000</v>
+        <v>5657000000</v>
       </c>
       <c r="AC28">
-        <v>1039000000</v>
+        <v>5547000000</v>
       </c>
       <c r="AD28">
-        <v>1298000000</v>
+        <v>9527000000</v>
       </c>
       <c r="AE28">
-        <v>1303000000</v>
+        <v>4107000000</v>
       </c>
       <c r="AF28">
-        <v>1201000000</v>
+        <v>5233000000</v>
       </c>
       <c r="AG28">
-        <v>1179000000</v>
+        <v>4218000000</v>
       </c>
       <c r="AH28">
-        <v>1311000000</v>
+        <v>4721000000</v>
       </c>
       <c r="AI28">
-        <v>1283000000</v>
+        <v>6458000000</v>
       </c>
       <c r="AJ28">
-        <v>1225000000</v>
+        <v>4773000000</v>
       </c>
       <c r="AK28">
-        <v>1116000000</v>
+        <v>5063000000</v>
       </c>
       <c r="AL28">
-        <v>1245000000</v>
+        <v>5153000000</v>
       </c>
       <c r="AM28">
-        <v>1213000000</v>
+        <v>4612000000</v>
       </c>
       <c r="AN28">
-        <v>1147000000</v>
+        <v>5017000000</v>
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>3863000000</v>
+        <v>-1.1754</v>
       </c>
       <c r="C29">
-        <v>82000000</v>
+        <v>-19.6508</v>
       </c>
       <c r="D29">
-        <v>1303000000</v>
+        <v>2.5231</v>
       </c>
       <c r="E29">
-        <v>1340000000</v>
+        <v>17.735</v>
       </c>
       <c r="F29">
-        <v>1437000000</v>
+        <v>4.718</v>
       </c>
       <c r="G29">
-        <v>1525000000</v>
+        <v>12.4623</v>
       </c>
       <c r="H29">
-        <v>1627000000</v>
+        <v>5.1446</v>
       </c>
       <c r="I29">
-        <v>1406000000</v>
+        <v>14.7888</v>
       </c>
       <c r="J29">
-        <v>1434000000</v>
+        <v>12.7698</v>
       </c>
       <c r="K29">
-        <v>1303000000</v>
+        <v>10.9154</v>
       </c>
       <c r="L29">
-        <v>1310000000</v>
+        <v>-20.4014</v>
       </c>
       <c r="M29">
-        <v>917000000</v>
+        <v>11.9496</v>
       </c>
       <c r="N29">
-        <v>1588000000</v>
+        <v>6.7956</v>
       </c>
       <c r="O29">
-        <v>1131000000</v>
+        <v>5.7753</v>
       </c>
       <c r="P29">
-        <v>893000000</v>
+        <v>8.8292</v>
       </c>
       <c r="Q29">
-        <v>1349000000</v>
+        <v>-10.2885</v>
       </c>
       <c r="R29">
-        <v>1546000000</v>
+        <v>7.583</v>
       </c>
       <c r="S29">
-        <v>1862000000</v>
+        <v>4.891</v>
       </c>
       <c r="T29">
-        <v>606000000</v>
+        <v>-0.4338</v>
       </c>
       <c r="U29">
-        <v>525000000</v>
+        <v>11.7779</v>
       </c>
       <c r="V29">
-        <v>1433000000</v>
+        <v>3.1532</v>
       </c>
       <c r="W29">
-        <v>1585000000</v>
+        <v>1.7642</v>
       </c>
       <c r="X29">
-        <v>1326000000</v>
+        <v>1.6769</v>
       </c>
       <c r="Y29">
-        <v>1156000000</v>
+        <v>2.5752</v>
       </c>
       <c r="Z29">
-        <v>1331000000</v>
+        <v>2.9718</v>
       </c>
       <c r="AA29">
-        <v>1293000000</v>
+        <v>2.0598</v>
       </c>
       <c r="AB29">
-        <v>1278000000</v>
+        <v>2.2932</v>
       </c>
       <c r="AC29">
-        <v>1039000000</v>
+        <v>2.2489</v>
       </c>
       <c r="AD29">
-        <v>1298000000</v>
+        <v>3.8624</v>
       </c>
       <c r="AE29">
-        <v>1303000000</v>
+        <v>1.6653</v>
       </c>
       <c r="AF29">
-        <v>1201000000</v>
+        <v>2.122</v>
       </c>
       <c r="AG29">
-        <v>1179000000</v>
+        <v>1.711</v>
       </c>
       <c r="AH29">
-        <v>1311000000</v>
+        <v>1.9148</v>
       </c>
       <c r="AI29">
-        <v>1283000000</v>
+        <v>2.6165</v>
       </c>
       <c r="AJ29">
-        <v>1225000000</v>
+        <v>1.9342</v>
       </c>
       <c r="AK29">
-        <v>1116000000</v>
+        <v>2.0465</v>
       </c>
       <c r="AL29">
-        <v>1245000000</v>
+        <v>2.0885</v>
       </c>
       <c r="AM29">
-        <v>1213000000</v>
+        <v>1.8694</v>
       </c>
       <c r="AN29">
-        <v>1147000000</v>
+        <v>2.0341</v>
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>6.7915</v>
+        <v>-1.1754</v>
       </c>
       <c r="C30">
-        <v>0.1436</v>
+        <v>-19.6508</v>
       </c>
       <c r="D30">
-        <v>2.2768</v>
+        <v>2.5231</v>
       </c>
       <c r="E30">
-        <v>2.3332</v>
+        <v>17.735</v>
       </c>
       <c r="F30">
-        <v>2.4793</v>
+        <v>4.718</v>
       </c>
       <c r="G30">
-        <v>2.6248</v>
+        <v>12.4623</v>
       </c>
       <c r="H30">
-        <v>2.8028</v>
+        <v>5.1446</v>
       </c>
       <c r="I30">
-        <v>2.4296</v>
+        <v>14.7888</v>
       </c>
       <c r="J30">
-        <v>2.4818</v>
+        <v>12.7698</v>
       </c>
       <c r="K30">
-        <v>2.2582</v>
+        <v>10.9154</v>
       </c>
       <c r="L30">
-        <v>2.2712</v>
+        <v>-20.4014</v>
       </c>
       <c r="M30">
-        <v>1.5906</v>
+        <v>11.9496</v>
       </c>
       <c r="N30">
-        <v>2.7546</v>
+        <v>6.7956</v>
       </c>
       <c r="O30">
-        <v>1.9578</v>
+        <v>5.7753</v>
       </c>
       <c r="P30">
-        <v>1.5463</v>
+        <v>8.8292</v>
       </c>
       <c r="Q30">
-        <v>2.3081</v>
+        <v>-10.2885</v>
       </c>
       <c r="R30">
-        <v>2.64</v>
+        <v>7.583</v>
       </c>
       <c r="S30">
-        <v>3.1485</v>
+        <v>4.891</v>
       </c>
       <c r="T30">
-        <v>1.0164</v>
+        <v>-0.4338</v>
       </c>
       <c r="U30">
-        <v>0.8839</v>
+        <v>11.7779</v>
       </c>
       <c r="V30">
-        <v>2.3979</v>
+        <v>3.1532</v>
       </c>
       <c r="W30">
-        <v>2.6501</v>
+        <v>1.7642</v>
       </c>
       <c r="X30">
-        <v>2.217</v>
+        <v>1.6769</v>
       </c>
       <c r="Y30">
-        <v>1.9277</v>
+        <v>2.5752</v>
       </c>
       <c r="Z30">
-        <v>2.2022</v>
+        <v>2.9718</v>
       </c>
       <c r="AA30">
-        <v>2.1305</v>
+        <v>2.0598</v>
       </c>
       <c r="AB30">
-        <v>2.1041</v>
+        <v>2.2932</v>
       </c>
       <c r="AC30">
-        <v>1.6949</v>
+        <v>2.2489</v>
       </c>
       <c r="AD30">
-        <v>2.0915</v>
+        <v>3.8624</v>
       </c>
       <c r="AE30">
-        <v>2.064</v>
+        <v>1.6653</v>
       </c>
       <c r="AF30">
-        <v>1.8878</v>
+        <v>2.122</v>
       </c>
       <c r="AG30">
-        <v>1.8474</v>
+        <v>1.711</v>
       </c>
       <c r="AH30">
-        <v>2.0316</v>
+        <v>1.9148</v>
       </c>
       <c r="AI30">
-        <v>1.9678</v>
+        <v>2.6165</v>
       </c>
       <c r="AJ30">
-        <v>1.8519</v>
+        <v>1.9342</v>
       </c>
       <c r="AK30">
-        <v>1.6696</v>
+        <v>2.0465</v>
       </c>
       <c r="AL30">
-        <v>1.8314</v>
+        <v>2.0885</v>
       </c>
       <c r="AM30">
-        <v>1.7626</v>
+        <v>1.8694</v>
       </c>
       <c r="AN30">
-        <v>1.6597</v>
+        <v>2.0341</v>
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>6.7772</v>
+        <v>-1.1754</v>
       </c>
       <c r="C31">
-        <v>0.1432</v>
+        <v>-19.6508</v>
       </c>
       <c r="D31">
-        <v>2.2661</v>
+        <v>2.5231</v>
       </c>
       <c r="E31">
-        <v>2.313</v>
+        <v>17.735</v>
       </c>
       <c r="F31">
-        <v>2.451</v>
+        <v>4.718</v>
       </c>
       <c r="G31">
-        <v>2.5909</v>
+        <v>12.4623</v>
       </c>
       <c r="H31">
-        <v>2.775</v>
+        <v>5.1446</v>
       </c>
       <c r="I31">
-        <v>2.4077</v>
+        <v>14.7888</v>
       </c>
       <c r="J31">
-        <v>2.4622</v>
+        <v>12.7698</v>
       </c>
       <c r="K31">
-        <v>2.2435</v>
+        <v>10.9154</v>
       </c>
       <c r="L31">
-        <v>2.2528</v>
+        <v>-20.4014</v>
       </c>
       <c r="M31">
-        <v>1.5696</v>
+        <v>11.9496</v>
       </c>
       <c r="N31">
-        <v>2.7238</v>
+        <v>6.7956</v>
       </c>
       <c r="O31">
-        <v>1.9297</v>
+        <v>5.7753</v>
       </c>
       <c r="P31">
-        <v>1.5174</v>
+        <v>8.8292</v>
       </c>
       <c r="Q31">
-        <v>2.2543</v>
+        <v>-10.2885</v>
       </c>
       <c r="R31">
-        <v>2.5836</v>
+        <v>7.583</v>
       </c>
       <c r="S31">
-        <v>3.0818</v>
+        <v>4.891</v>
       </c>
       <c r="T31">
-        <v>0.9891</v>
+        <v>-0.4338</v>
       </c>
       <c r="U31">
-        <v>0.8548</v>
+        <v>11.7779</v>
       </c>
       <c r="V31">
-        <v>2.3388</v>
+        <v>3.1532</v>
       </c>
       <c r="W31">
-        <v>2.5865</v>
+        <v>1.7642</v>
       </c>
       <c r="X31">
-        <v>2.1667</v>
+        <v>1.6769</v>
       </c>
       <c r="Y31">
-        <v>1.8848</v>
+        <v>2.5752</v>
       </c>
       <c r="Z31">
-        <v>2.1509</v>
+        <v>2.9718</v>
       </c>
       <c r="AA31">
-        <v>2.0825</v>
+        <v>2.0598</v>
       </c>
       <c r="AB31">
-        <v>2.057</v>
+        <v>2.2932</v>
       </c>
       <c r="AC31">
-        <v>1.6645</v>
+        <v>2.2489</v>
       </c>
       <c r="AD31">
-        <v>2.0564</v>
+        <v>3.8624</v>
       </c>
       <c r="AE31">
-        <v>2.0264</v>
+        <v>1.6653</v>
       </c>
       <c r="AF31">
-        <v>1.85</v>
+        <v>2.122</v>
       </c>
       <c r="AG31">
-        <v>1.8105</v>
+        <v>1.711</v>
       </c>
       <c r="AH31">
-        <v>1.9927</v>
+        <v>1.9148</v>
       </c>
       <c r="AI31">
-        <v>1.9305</v>
+        <v>2.6165</v>
       </c>
       <c r="AJ31">
-        <v>1.8162</v>
+        <v>1.9342</v>
       </c>
       <c r="AK31">
-        <v>1.6381</v>
+        <v>2.0465</v>
       </c>
       <c r="AL31">
-        <v>1.7997</v>
+        <v>2.0885</v>
       </c>
       <c r="AM31">
-        <v>1.7351</v>
+        <v>1.8694</v>
       </c>
       <c r="AN31">
-        <v>1.6337</v>
+        <v>2.0341</v>
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>6.7915</v>
+        <v>-1.1754</v>
       </c>
       <c r="C32">
-        <v>0.1436</v>
+        <v>-19.6508</v>
       </c>
       <c r="D32">
-        <v>2.2768</v>
+        <v>2.5231</v>
       </c>
       <c r="E32">
-        <v>2.3332</v>
+        <v>17.735</v>
       </c>
       <c r="F32">
-        <v>2.4793</v>
+        <v>4.718</v>
       </c>
       <c r="G32">
-        <v>2.6248</v>
+        <v>12.4623</v>
       </c>
       <c r="H32">
-        <v>2.8028</v>
+        <v>5.1446</v>
       </c>
       <c r="I32">
-        <v>2.4296</v>
+        <v>14.7888</v>
       </c>
       <c r="J32">
-        <v>2.4818</v>
+        <v>12.7698</v>
       </c>
       <c r="K32">
-        <v>2.2582</v>
+        <v>10.9154</v>
       </c>
       <c r="L32">
-        <v>2.2712</v>
+        <v>-20.4014</v>
       </c>
       <c r="M32">
-        <v>1.5906</v>
+        <v>11.9496</v>
       </c>
       <c r="N32">
-        <v>2.7546</v>
+        <v>6.7956</v>
       </c>
       <c r="O32">
-        <v>1.9578</v>
+        <v>5.7753</v>
       </c>
       <c r="P32">
-        <v>1.5463</v>
+        <v>8.8292</v>
       </c>
       <c r="Q32">
-        <v>2.3081</v>
+        <v>-10.2885</v>
       </c>
       <c r="R32">
-        <v>2.64</v>
+        <v>7.583</v>
       </c>
       <c r="S32">
-        <v>3.1485</v>
+        <v>4.891</v>
       </c>
       <c r="T32">
-        <v>1.0164</v>
+        <v>-0.4338</v>
       </c>
       <c r="U32">
-        <v>0.8839</v>
+        <v>11.7779</v>
       </c>
       <c r="V32">
-        <v>2.3979</v>
+        <v>3.1532</v>
       </c>
       <c r="W32">
-        <v>2.6501</v>
+        <v>1.7642</v>
       </c>
       <c r="X32">
-        <v>2.217</v>
+        <v>1.6769</v>
       </c>
       <c r="Y32">
-        <v>1.9277</v>
+        <v>2.5752</v>
       </c>
       <c r="Z32">
-        <v>2.2022</v>
+        <v>2.9718</v>
       </c>
       <c r="AA32">
-        <v>2.1305</v>
+        <v>2.0598</v>
       </c>
       <c r="AB32">
-        <v>2.1041</v>
+        <v>2.2932</v>
       </c>
       <c r="AC32">
-        <v>1.6949</v>
+        <v>2.2489</v>
       </c>
       <c r="AD32">
-        <v>2.0915</v>
+        <v>3.8624</v>
       </c>
       <c r="AE32">
-        <v>2.064</v>
+        <v>1.6653</v>
       </c>
       <c r="AF32">
-        <v>1.8878</v>
+        <v>2.122</v>
       </c>
       <c r="AG32">
-        <v>1.8474</v>
+        <v>1.711</v>
       </c>
       <c r="AH32">
-        <v>2.0316</v>
+        <v>1.9148</v>
       </c>
       <c r="AI32">
-        <v>1.9678</v>
+        <v>2.6165</v>
       </c>
       <c r="AJ32">
-        <v>1.8519</v>
+        <v>1.9342</v>
       </c>
       <c r="AK32">
-        <v>1.6696</v>
+        <v>2.0465</v>
       </c>
       <c r="AL32">
-        <v>1.8314</v>
+        <v>2.0885</v>
       </c>
       <c r="AM32">
-        <v>1.7626</v>
+        <v>1.8694</v>
       </c>
       <c r="AN32">
-        <v>1.6597</v>
+        <v>2.0341</v>
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>6.7772</v>
+        <v>2200419000</v>
       </c>
       <c r="C33">
-        <v>0.1432</v>
+        <v>2205865000</v>
       </c>
       <c r="D33">
-        <v>2.2661</v>
+        <v>2212054000</v>
       </c>
       <c r="E33">
-        <v>2.313</v>
+        <v>2228178000</v>
       </c>
       <c r="F33">
-        <v>2.451</v>
+        <v>2254519000</v>
       </c>
       <c r="G33">
-        <v>2.5909</v>
+        <v>2279363000</v>
       </c>
       <c r="H33">
-        <v>2.775</v>
+        <v>2299926000</v>
       </c>
       <c r="I33">
-        <v>2.4077</v>
+        <v>2335539000</v>
       </c>
       <c r="J33">
-        <v>2.4622</v>
+        <v>2380046000</v>
       </c>
       <c r="K33">
-        <v>2.2435</v>
+        <v>2417640000</v>
       </c>
       <c r="L33">
-        <v>2.2528</v>
+        <v>2434333000</v>
       </c>
       <c r="M33">
-        <v>1.5696</v>
+        <v>2442208000</v>
       </c>
       <c r="N33">
-        <v>2.7238</v>
+        <v>2449502000</v>
       </c>
       <c r="O33">
-        <v>1.9297</v>
+        <v>2452442000</v>
       </c>
       <c r="P33">
-        <v>1.5174</v>
+        <v>2459732000</v>
       </c>
       <c r="Q33">
-        <v>2.2543</v>
+        <v>2462472000</v>
       </c>
       <c r="R33">
-        <v>2.5836</v>
+        <v>2465334000</v>
       </c>
       <c r="S33">
-        <v>3.0818</v>
+        <v>2467586000</v>
       </c>
       <c r="T33">
-        <v>0.9891</v>
+        <v>2467437000</v>
       </c>
       <c r="U33">
-        <v>0.8548</v>
+        <v>2466923000</v>
       </c>
       <c r="V33">
-        <v>2.3388</v>
+        <v>2466984000</v>
       </c>
       <c r="W33">
-        <v>2.5865</v>
+        <v>2466870000</v>
       </c>
       <c r="X33">
-        <v>2.1667</v>
+        <v>2466637000</v>
       </c>
       <c r="Y33">
-        <v>1.8848</v>
+        <v>2466236000</v>
       </c>
       <c r="Z33">
-        <v>2.1509</v>
+        <v>2465869000</v>
       </c>
       <c r="AA33">
-        <v>2.0825</v>
+        <v>2465617000</v>
       </c>
       <c r="AB33">
-        <v>2.057</v>
+        <v>2465230000</v>
       </c>
       <c r="AC33">
-        <v>1.6645</v>
+        <v>2465060000</v>
       </c>
       <c r="AD33">
-        <v>2.0564</v>
+        <v>2464974000</v>
       </c>
       <c r="AE33">
-        <v>2.0264</v>
+        <v>2464626000</v>
       </c>
       <c r="AF33">
-        <v>1.85</v>
+        <v>2464427000</v>
       </c>
       <c r="AG33">
-        <v>1.8105</v>
+        <v>2464289000</v>
       </c>
       <c r="AH33">
-        <v>1.9927</v>
+        <v>2463837000</v>
       </c>
       <c r="AI33">
-        <v>1.9305</v>
+        <v>2466555000</v>
       </c>
       <c r="AJ33">
-        <v>1.8162</v>
+        <v>2466000000</v>
       </c>
       <c r="AK33">
-        <v>1.6381</v>
+        <v>2466227000</v>
       </c>
       <c r="AL33">
-        <v>1.7997</v>
+        <v>2465668000</v>
       </c>
       <c r="AM33">
-        <v>1.7351</v>
+        <v>2465398000</v>
       </c>
       <c r="AN33">
-        <v>1.6337</v>
+        <v>2464771000</v>
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>570000000</v>
+        <v>-0.1675</v>
       </c>
       <c r="C34">
-        <v>572700000</v>
+        <v>-1.5399</v>
       </c>
       <c r="D34">
-        <v>575000000</v>
+        <v>0.1321</v>
       </c>
       <c r="E34">
-        <v>579900000</v>
+        <v>1.3139</v>
       </c>
       <c r="F34">
-        <v>586300000</v>
+        <v>0.3164</v>
       </c>
       <c r="G34">
-        <v>588600000</v>
+        <v>0.9879</v>
       </c>
       <c r="H34">
-        <v>586300000</v>
+        <v>0.3838</v>
       </c>
       <c r="I34">
-        <v>584000000</v>
+        <v>1.3938</v>
       </c>
       <c r="J34">
-        <v>582400000</v>
+        <v>1.1787</v>
       </c>
       <c r="K34">
-        <v>580800000</v>
+        <v>1.601</v>
       </c>
       <c r="L34">
-        <v>581500000</v>
+        <v>-2.1083</v>
       </c>
       <c r="M34">
-        <v>582700000</v>
+        <v>1.1111</v>
       </c>
       <c r="N34">
-        <v>583000000</v>
+        <v>0.5457</v>
       </c>
       <c r="O34">
-        <v>586100000</v>
+        <v>0.508</v>
       </c>
       <c r="P34">
-        <v>588500000</v>
+        <v>0.8547</v>
       </c>
       <c r="Q34">
-        <v>592600000</v>
+        <v>-0.9438</v>
       </c>
       <c r="R34">
-        <v>598400000</v>
+        <v>0.6616</v>
       </c>
       <c r="S34">
-        <v>604200000</v>
+        <v>0.4117</v>
       </c>
       <c r="T34">
-        <v>612700000</v>
+        <v>-0.0997</v>
       </c>
       <c r="U34">
-        <v>613400000</v>
+        <v>0.181</v>
       </c>
       <c r="V34">
-        <v>612700000</v>
+        <v>0.165</v>
       </c>
       <c r="W34">
-        <v>612800000</v>
+        <v>0.1712</v>
       </c>
       <c r="X34">
-        <v>612000000</v>
+        <v>0.1475</v>
       </c>
       <c r="Y34">
-        <v>613800000</v>
+        <v>0.292</v>
       </c>
       <c r="Z34">
-        <v>618800000</v>
+        <v>0.2309</v>
       </c>
       <c r="AA34">
-        <v>620900000</v>
+        <v>0.1867</v>
       </c>
       <c r="AB34">
-        <v>621300000</v>
+        <v>0.1824</v>
       </c>
       <c r="AC34">
-        <v>625400000</v>
+        <v>0.1981</v>
       </c>
       <c r="AD34">
-        <v>631200000</v>
+        <v>0.2869</v>
       </c>
       <c r="AE34">
-        <v>643000000</v>
+        <v>0.1704</v>
       </c>
       <c r="AF34">
-        <v>649200000</v>
+        <v>0.2137</v>
       </c>
       <c r="AG34">
-        <v>650900000</v>
+        <v>0.1788</v>
       </c>
       <c r="AH34">
-        <v>657900000</v>
+        <v>0.184</v>
       </c>
       <c r="AI34">
-        <v>664600000</v>
+        <v>0.2321</v>
       </c>
       <c r="AJ34">
-        <v>674500000</v>
+        <v>0.2014</v>
       </c>
       <c r="AK34">
-        <v>681300000</v>
+        <v>0.2046</v>
       </c>
       <c r="AL34">
-        <v>691800000</v>
+        <v>0.2084</v>
       </c>
       <c r="AM34">
-        <v>699100000</v>
+        <v>0.2058</v>
       </c>
       <c r="AN34">
-        <v>702100000</v>
+        <v>0.2184</v>
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.5344</v>
+        <v>0.1516</v>
       </c>
       <c r="C35">
-        <v>0.06569999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="D35">
-        <v>0.2379</v>
+        <v>0.0964</v>
       </c>
       <c r="E35">
-        <v>0.2465</v>
+        <v>0.1086</v>
       </c>
       <c r="F35">
-        <v>0.2532</v>
+        <v>0.171</v>
       </c>
       <c r="G35">
-        <v>0.273</v>
+        <v>0.1483</v>
       </c>
       <c r="H35">
-        <v>0.2773</v>
+        <v>0.1441</v>
       </c>
       <c r="I35">
-        <v>0.2734</v>
+        <v>0.1638</v>
       </c>
       <c r="J35">
-        <v>0.2862</v>
+        <v>0.1866</v>
       </c>
       <c r="K35">
-        <v>0.311</v>
+        <v>0.1877</v>
       </c>
       <c r="L35">
-        <v>0.2604</v>
+        <v>0.111</v>
       </c>
       <c r="M35">
-        <v>0.2204</v>
+        <v>0.1848</v>
       </c>
       <c r="N35">
-        <v>0.2991</v>
+        <v>0.1516</v>
       </c>
       <c r="O35">
-        <v>0.2543</v>
+        <v>0.1444</v>
       </c>
       <c r="P35">
-        <v>0.1922</v>
+        <v>0.1249</v>
       </c>
       <c r="Q35">
-        <v>0.2711</v>
+        <v>0.1702</v>
       </c>
       <c r="R35">
-        <v>0.2908</v>
+        <v>0.1649</v>
       </c>
       <c r="S35">
-        <v>0.3315</v>
+        <v>0.1372</v>
       </c>
       <c r="T35">
-        <v>0.1678</v>
+        <v>0.1292</v>
       </c>
       <c r="U35">
-        <v>0.2676</v>
+        <v>0.1399</v>
       </c>
       <c r="V35">
-        <v>0.2919</v>
+        <v>0.1828</v>
       </c>
       <c r="W35">
-        <v>0.3243</v>
+        <v>0.1454</v>
       </c>
       <c r="X35">
-        <v>0.2837</v>
+        <v>0.2842</v>
       </c>
       <c r="Y35">
-        <v>0.2528</v>
+        <v>0.1514</v>
       </c>
       <c r="Z35">
-        <v>0.2947</v>
+        <v>0.1671</v>
       </c>
       <c r="AA35">
-        <v>0.2913</v>
+        <v>0.144</v>
       </c>
       <c r="AB35">
-        <v>0.2894</v>
+        <v>0.1429</v>
       </c>
       <c r="AC35">
-        <v>0.2599</v>
+        <v>0.1412</v>
       </c>
       <c r="AD35">
-        <v>0.2893</v>
+        <v>0.1731</v>
       </c>
       <c r="AE35">
-        <v>0.2842</v>
+        <v>0.1553</v>
       </c>
       <c r="AF35">
-        <v>0.273</v>
+        <v>0.1226</v>
       </c>
       <c r="AG35">
-        <v>0.2607</v>
+        <v>0.1626</v>
       </c>
       <c r="AH35">
-        <v>0.2766</v>
+        <v>0.2407</v>
       </c>
       <c r="AI35">
-        <v>0.2722</v>
+        <v>0.1388</v>
       </c>
       <c r="AJ35">
-        <v>0.2638</v>
+        <v>0.1084</v>
       </c>
       <c r="AK35">
-        <v>0.2558</v>
+        <v>0.1481</v>
       </c>
       <c r="AL35">
-        <v>0.263</v>
+        <v>0.1682</v>
       </c>
       <c r="AM35">
-        <v>0.2628</v>
+        <v>0.1534</v>
       </c>
       <c r="AN35">
-        <v>0.2596</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0.1776</v>
-      </c>
-      <c r="C36">
-        <v>0.1295</v>
-      </c>
-      <c r="D36">
-        <v>0.1145</v>
-      </c>
-      <c r="E36">
-        <v>0.2328</v>
-      </c>
-      <c r="F36">
-        <v>0.2096</v>
-      </c>
-      <c r="G36">
-        <v>0.2108</v>
-      </c>
-      <c r="H36">
-        <v>0.1907</v>
-      </c>
-      <c r="I36">
-        <v>0.293</v>
-      </c>
-      <c r="J36">
-        <v>0.297</v>
-      </c>
-      <c r="K36">
-        <v>0.2655</v>
-      </c>
-      <c r="L36">
-        <v>0.1502</v>
-      </c>
-      <c r="M36">
-        <v>0.2883</v>
-      </c>
-      <c r="N36">
-        <v>0.253</v>
-      </c>
-      <c r="O36">
-        <v>0.2034</v>
-      </c>
-      <c r="P36">
-        <v>0.1333</v>
-      </c>
-      <c r="Q36">
-        <v>0.2842</v>
-      </c>
-      <c r="R36">
-        <v>0.2624</v>
-      </c>
-      <c r="S36">
-        <v>0.2263</v>
-      </c>
-      <c r="T36">
-        <v>0.0173</v>
-      </c>
-      <c r="U36">
-        <v>0.2328</v>
-      </c>
-      <c r="V36">
-        <v>0.2141</v>
-      </c>
-      <c r="W36">
-        <v>0.2102</v>
-      </c>
-      <c r="X36">
-        <v>0.1286</v>
-      </c>
-      <c r="Y36">
-        <v>0.3014</v>
-      </c>
-      <c r="Z36">
-        <v>0.2475</v>
-      </c>
-      <c r="AA36">
-        <v>0.1677</v>
-      </c>
-      <c r="AB36">
-        <v>0.1701</v>
-      </c>
-      <c r="AC36">
-        <v>0.3204</v>
-      </c>
-      <c r="AD36">
-        <v>0.2158</v>
-      </c>
-      <c r="AE36">
-        <v>0.1741</v>
-      </c>
-      <c r="AF36">
-        <v>0.1425</v>
-      </c>
-      <c r="AG36">
-        <v>0.2828</v>
-      </c>
-      <c r="AH36">
-        <v>0.2103</v>
-      </c>
-      <c r="AI36">
-        <v>0.2016</v>
-      </c>
-      <c r="AJ36">
-        <v>0.1394</v>
-      </c>
-      <c r="AK36">
-        <v>0.2633</v>
-      </c>
-      <c r="AL36">
-        <v>0.1454</v>
-      </c>
-      <c r="AM36">
-        <v>0.2166</v>
-      </c>
-      <c r="AN36">
-        <v>0.1302</v>
+        <v>0.138</v>
       </c>
     </row>
   </sheetData>
